--- a/Excel_VBA/Excel_VBA.xlsx
+++ b/Excel_VBA/Excel_VBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elnazpouranbarani/Desktop/Toronto_Bootcamp/Analysis_project/shaw_interview/Internet-Price-Analysis-and-Forcasting/Excel_VBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF15A4D-60E8-1747-B225-C58860B5C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23B535B-8F7C-084B-9AA3-32C242BE0A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20160" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11035" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11048" uniqueCount="1141">
   <si>
     <t>ID</t>
   </si>
@@ -3445,14 +3445,44 @@
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Internet price </t>
+    <t>Select year</t>
+  </si>
+  <si>
+    <t>Select country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average price for specific country for specific year  </t>
+  </si>
+  <si>
+    <t>Country with the highest average price in different years</t>
+  </si>
+  <si>
+    <t>Max Price</t>
+  </si>
+  <si>
+    <t>Country with Max Price</t>
+  </si>
+  <si>
+    <t>Lowest Price</t>
+  </si>
+  <si>
+    <t>Country with Lowest Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Internet Price </t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3475,8 +3505,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3487,6 +3524,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3613,7 +3656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3645,48 +3688,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3806,13 +3821,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -3825,6 +3833,45 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3841,15 +3888,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100390C6-C6DB-CE49-AD9F-82212D1B99DC}" name="Table1" displayName="Table1" ref="A1:F3893" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100390C6-C6DB-CE49-AD9F-82212D1B99DC}" name="Table1" displayName="Table1" ref="A1:F3893" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F3893" xr:uid="{100390C6-C6DB-CE49-AD9F-82212D1B99DC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73B42324-DE18-2948-8972-0CFF70C3CB33}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5AE890A8-FA21-504C-8B9E-21A796CA0EE7}" name="YEAR" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{20095EF3-EBF4-D449-BF78-521BA407717F}" name="INTERNET_PRICE" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0C20A184-3F7D-174B-84C7-AE4345E0A496}" name="CITY" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{122BD86E-B1AA-3E4E-A0CC-38DD3D643D2D}" name="REGION" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3601A141-20DD-5B44-BE0C-6312AF76E9F7}" name="COUNTRY" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{73B42324-DE18-2948-8972-0CFF70C3CB33}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5AE890A8-FA21-504C-8B9E-21A796CA0EE7}" name="YEAR" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{20095EF3-EBF4-D449-BF78-521BA407717F}" name="INTERNET_PRICE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0C20A184-3F7D-174B-84C7-AE4345E0A496}" name="CITY" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{122BD86E-B1AA-3E4E-A0CC-38DD3D643D2D}" name="REGION" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3601A141-20DD-5B44-BE0C-6312AF76E9F7}" name="COUNTRY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4176,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY3893"/>
+  <dimension ref="A1:EG3893"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4190,9 +4237,12 @@
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="134" max="134" width="10" customWidth="1"/>
+    <col min="136" max="136" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4211,12 +4261,24 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="J1" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="EB1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>26718520</v>
       </c>
@@ -4235,369 +4297,369 @@
       <c r="F2" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="K2" s="13" t="str" cm="1">
+      <c r="K2" s="12" t="str" cm="1">
         <f t="array" ref="K2:DY2">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.UNIQUE(Table1[[#All],[COUNTRY]])))</f>
         <v>Albania</v>
       </c>
-      <c r="L2" s="13" t="str">
+      <c r="L2" s="12" t="str">
         <v>Algeria</v>
       </c>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="12" t="str">
         <v>Argentina</v>
       </c>
-      <c r="N2" s="13" t="str">
+      <c r="N2" s="12" t="str">
         <v>Armenia</v>
       </c>
-      <c r="O2" s="13" t="str">
+      <c r="O2" s="12" t="str">
         <v>Australia</v>
       </c>
-      <c r="P2" s="13" t="str">
+      <c r="P2" s="12" t="str">
         <v>Austria</v>
       </c>
-      <c r="Q2" s="13" t="str">
+      <c r="Q2" s="12" t="str">
         <v>Azerbaijan</v>
       </c>
-      <c r="R2" s="13" t="str">
+      <c r="R2" s="12" t="str">
         <v>Bahrain</v>
       </c>
-      <c r="S2" s="13" t="str">
+      <c r="S2" s="12" t="str">
         <v>Bangladesh</v>
       </c>
-      <c r="T2" s="13" t="str">
+      <c r="T2" s="12" t="str">
         <v>Belarus</v>
       </c>
-      <c r="U2" s="13" t="str">
+      <c r="U2" s="12" t="str">
         <v>Belgium</v>
       </c>
-      <c r="V2" s="13" t="str">
+      <c r="V2" s="12" t="str">
         <v>Bolivia</v>
       </c>
-      <c r="W2" s="13" t="str">
+      <c r="W2" s="12" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
-      <c r="X2" s="13" t="str">
+      <c r="X2" s="12" t="str">
         <v>Botswana</v>
       </c>
-      <c r="Y2" s="13" t="str">
+      <c r="Y2" s="12" t="str">
         <v>Brazil</v>
       </c>
-      <c r="Z2" s="13" t="str">
+      <c r="Z2" s="12" t="str">
         <v>Brunei</v>
       </c>
-      <c r="AA2" s="13" t="str">
+      <c r="AA2" s="12" t="str">
         <v>Bulgaria</v>
       </c>
-      <c r="AB2" s="13" t="str">
+      <c r="AB2" s="12" t="str">
         <v>Cambodia</v>
       </c>
-      <c r="AC2" s="13" t="str">
+      <c r="AC2" s="12" t="str">
         <v>Canada</v>
       </c>
-      <c r="AD2" s="13" t="str">
+      <c r="AD2" s="12" t="str">
         <v>Chile</v>
       </c>
-      <c r="AE2" s="13" t="str">
+      <c r="AE2" s="12" t="str">
         <v>Colombia</v>
       </c>
-      <c r="AF2" s="13" t="str">
+      <c r="AF2" s="12" t="str">
         <v>Costa Rica</v>
       </c>
-      <c r="AG2" s="13" t="str">
+      <c r="AG2" s="12" t="str">
         <v>COUNTRY</v>
       </c>
-      <c r="AH2" s="13" t="str">
+      <c r="AH2" s="12" t="str">
         <v>Croatia</v>
       </c>
-      <c r="AI2" s="13" t="str">
+      <c r="AI2" s="12" t="str">
         <v>Cyprus</v>
       </c>
-      <c r="AJ2" s="13" t="str">
+      <c r="AJ2" s="12" t="str">
         <v>Czech Republic</v>
       </c>
-      <c r="AK2" s="13" t="str">
+      <c r="AK2" s="12" t="str">
         <v>Dominican Republic</v>
       </c>
-      <c r="AL2" s="13" t="str">
+      <c r="AL2" s="12" t="str">
         <v>Ecuador</v>
       </c>
-      <c r="AM2" s="13" t="str">
+      <c r="AM2" s="12" t="str">
         <v>Egypt</v>
       </c>
-      <c r="AN2" s="13" t="str">
+      <c r="AN2" s="12" t="str">
         <v>El Salvador</v>
       </c>
-      <c r="AO2" s="13" t="str">
+      <c r="AO2" s="12" t="str">
         <v>Estonia</v>
       </c>
-      <c r="AP2" s="13" t="str">
+      <c r="AP2" s="12" t="str">
         <v>Fiji</v>
       </c>
-      <c r="AQ2" s="13" t="str">
+      <c r="AQ2" s="12" t="str">
         <v>Finland</v>
       </c>
-      <c r="AR2" s="13" t="str">
+      <c r="AR2" s="12" t="str">
         <v>France</v>
       </c>
-      <c r="AS2" s="13" t="str">
+      <c r="AS2" s="12" t="str">
         <v>Georgia</v>
       </c>
-      <c r="AT2" s="13" t="str">
+      <c r="AT2" s="12" t="str">
         <v>Germany</v>
       </c>
-      <c r="AU2" s="13" t="str">
+      <c r="AU2" s="12" t="str">
         <v>Ghana</v>
       </c>
-      <c r="AV2" s="13" t="str">
+      <c r="AV2" s="12" t="str">
         <v>Greece</v>
       </c>
-      <c r="AW2" s="13" t="str">
+      <c r="AW2" s="12" t="str">
         <v>Guatemala</v>
       </c>
-      <c r="AX2" s="13" t="str">
+      <c r="AX2" s="12" t="str">
         <v>Honduras</v>
       </c>
-      <c r="AY2" s="13" t="str">
+      <c r="AY2" s="12" t="str">
         <v>Hungary</v>
       </c>
-      <c r="AZ2" s="13" t="str">
+      <c r="AZ2" s="12" t="str">
         <v>Iceland</v>
       </c>
-      <c r="BA2" s="13" t="str">
+      <c r="BA2" s="12" t="str">
         <v>India</v>
       </c>
-      <c r="BB2" s="13" t="str">
+      <c r="BB2" s="12" t="str">
         <v>Indonesia</v>
       </c>
-      <c r="BC2" s="13" t="str">
+      <c r="BC2" s="12" t="str">
         <v>Iran</v>
       </c>
-      <c r="BD2" s="13" t="str">
+      <c r="BD2" s="12" t="str">
         <v>Iraq</v>
       </c>
-      <c r="BE2" s="13" t="str">
+      <c r="BE2" s="12" t="str">
         <v>Ireland</v>
       </c>
-      <c r="BF2" s="13" t="str">
+      <c r="BF2" s="12" t="str">
         <v>Israel</v>
       </c>
-      <c r="BG2" s="13" t="str">
+      <c r="BG2" s="12" t="str">
         <v>Italy</v>
       </c>
-      <c r="BH2" s="13" t="str">
+      <c r="BH2" s="12" t="str">
         <v>Jamaica</v>
       </c>
-      <c r="BI2" s="13" t="str">
+      <c r="BI2" s="12" t="str">
         <v>Japan</v>
       </c>
-      <c r="BJ2" s="13" t="str">
+      <c r="BJ2" s="12" t="str">
         <v>Jordan</v>
       </c>
-      <c r="BK2" s="13" t="str">
+      <c r="BK2" s="12" t="str">
         <v>Kazakhstan</v>
       </c>
-      <c r="BL2" s="13" t="str">
+      <c r="BL2" s="12" t="str">
         <v>Kenya</v>
       </c>
-      <c r="BM2" s="13" t="str">
+      <c r="BM2" s="12" t="str">
         <v>Kuwait</v>
       </c>
-      <c r="BN2" s="13" t="str">
+      <c r="BN2" s="12" t="str">
         <v>Kyrgyzstan</v>
       </c>
-      <c r="BO2" s="13" t="str">
+      <c r="BO2" s="12" t="str">
         <v>Latvia</v>
       </c>
-      <c r="BP2" s="13" t="str">
+      <c r="BP2" s="12" t="str">
         <v>Lebanon</v>
       </c>
-      <c r="BQ2" s="13" t="str">
+      <c r="BQ2" s="12" t="str">
         <v>Libya</v>
       </c>
-      <c r="BR2" s="13" t="str">
+      <c r="BR2" s="12" t="str">
         <v>Lithuania</v>
       </c>
-      <c r="BS2" s="13" t="str">
+      <c r="BS2" s="12" t="str">
         <v>Luxembourg</v>
       </c>
-      <c r="BT2" s="13" t="str">
+      <c r="BT2" s="12" t="str">
         <v>Malaysia</v>
       </c>
-      <c r="BU2" s="13" t="str">
+      <c r="BU2" s="12" t="str">
         <v>Maldives</v>
       </c>
-      <c r="BV2" s="13" t="str">
+      <c r="BV2" s="12" t="str">
         <v>Malta</v>
       </c>
-      <c r="BW2" s="13" t="str">
+      <c r="BW2" s="12" t="str">
         <v>Mauritius</v>
       </c>
-      <c r="BX2" s="13" t="str">
+      <c r="BX2" s="12" t="str">
         <v>Mexico</v>
       </c>
-      <c r="BY2" s="13" t="str">
+      <c r="BY2" s="12" t="str">
         <v>Mongolia</v>
       </c>
-      <c r="BZ2" s="13" t="str">
+      <c r="BZ2" s="12" t="str">
         <v>Montenegro</v>
       </c>
-      <c r="CA2" s="13" t="str">
+      <c r="CA2" s="12" t="str">
         <v>Morocco</v>
       </c>
-      <c r="CB2" s="13" t="str">
+      <c r="CB2" s="12" t="str">
         <v>Mozambique</v>
       </c>
-      <c r="CC2" s="13" t="str">
+      <c r="CC2" s="12" t="str">
         <v>Namibia</v>
       </c>
-      <c r="CD2" s="13" t="str">
+      <c r="CD2" s="12" t="str">
         <v>Nepal</v>
       </c>
-      <c r="CE2" s="13" t="str">
+      <c r="CE2" s="12" t="str">
         <v>New Zealand</v>
       </c>
-      <c r="CF2" s="13" t="str">
+      <c r="CF2" s="12" t="str">
         <v>Nicaragua</v>
       </c>
-      <c r="CG2" s="13" t="str">
+      <c r="CG2" s="12" t="str">
         <v>Nigeria</v>
       </c>
-      <c r="CH2" s="13" t="str">
+      <c r="CH2" s="12" t="str">
         <v>North Macedonia</v>
       </c>
-      <c r="CI2" s="13" t="str">
+      <c r="CI2" s="12" t="str">
         <v>Norway</v>
       </c>
-      <c r="CJ2" s="13" t="str">
+      <c r="CJ2" s="12" t="str">
         <v>Oman</v>
       </c>
-      <c r="CK2" s="13" t="str">
+      <c r="CK2" s="12" t="str">
         <v>Pakistan</v>
       </c>
-      <c r="CL2" s="13" t="str">
+      <c r="CL2" s="12" t="str">
         <v>Panama</v>
       </c>
-      <c r="CM2" s="13" t="str">
+      <c r="CM2" s="12" t="str">
         <v>Paraguay</v>
       </c>
-      <c r="CN2" s="13" t="str">
+      <c r="CN2" s="12" t="str">
         <v>People's Republic of China</v>
       </c>
-      <c r="CO2" s="13" t="str">
+      <c r="CO2" s="12" t="str">
         <v>Peru</v>
       </c>
-      <c r="CP2" s="13" t="str">
+      <c r="CP2" s="12" t="str">
         <v>Philippines</v>
       </c>
-      <c r="CQ2" s="13" t="str">
+      <c r="CQ2" s="12" t="str">
         <v>Poland</v>
       </c>
-      <c r="CR2" s="13" t="str">
+      <c r="CR2" s="12" t="str">
         <v>Portugal</v>
       </c>
-      <c r="CS2" s="13" t="str">
+      <c r="CS2" s="12" t="str">
         <v>Qatar</v>
       </c>
-      <c r="CT2" s="13" t="str">
+      <c r="CT2" s="12" t="str">
         <v>Romania</v>
       </c>
-      <c r="CU2" s="13" t="str">
+      <c r="CU2" s="12" t="str">
         <v>Russia</v>
       </c>
-      <c r="CV2" s="13" t="str">
+      <c r="CV2" s="12" t="str">
         <v>Saudi Arabia</v>
       </c>
-      <c r="CW2" s="13" t="str">
+      <c r="CW2" s="12" t="str">
         <v>Serbia</v>
       </c>
-      <c r="CX2" s="13" t="str">
+      <c r="CX2" s="12" t="str">
         <v>Singapore</v>
       </c>
-      <c r="CY2" s="13" t="str">
+      <c r="CY2" s="12" t="str">
         <v>Slovakia</v>
       </c>
-      <c r="CZ2" s="13" t="str">
+      <c r="CZ2" s="12" t="str">
         <v>Slovenia</v>
       </c>
-      <c r="DA2" s="13" t="str">
+      <c r="DA2" s="12" t="str">
         <v>South Africa</v>
       </c>
-      <c r="DB2" s="13" t="str">
+      <c r="DB2" s="12" t="str">
         <v>South Korea</v>
       </c>
-      <c r="DC2" s="13" t="str">
+      <c r="DC2" s="12" t="str">
         <v>Spain</v>
       </c>
-      <c r="DD2" s="13" t="str">
+      <c r="DD2" s="12" t="str">
         <v>Sri Lanka</v>
       </c>
-      <c r="DE2" s="13" t="str">
+      <c r="DE2" s="12" t="str">
         <v>Sudan</v>
       </c>
-      <c r="DF2" s="13" t="str">
+      <c r="DF2" s="12" t="str">
         <v>Suriname</v>
       </c>
-      <c r="DG2" s="13" t="str">
+      <c r="DG2" s="12" t="str">
         <v>Sweden</v>
       </c>
-      <c r="DH2" s="13" t="str">
+      <c r="DH2" s="12" t="str">
         <v>Switzerland</v>
       </c>
-      <c r="DI2" s="13" t="str">
+      <c r="DI2" s="12" t="str">
         <v>Taiwan</v>
       </c>
-      <c r="DJ2" s="13" t="str">
+      <c r="DJ2" s="12" t="str">
         <v>Tanzania</v>
       </c>
-      <c r="DK2" s="13" t="str">
+      <c r="DK2" s="12" t="str">
         <v>Thailand</v>
       </c>
-      <c r="DL2" s="13" t="str">
+      <c r="DL2" s="12" t="str">
         <v>The Bahamas</v>
       </c>
-      <c r="DM2" s="13" t="str">
+      <c r="DM2" s="12" t="str">
         <v>Trinidad and Tobago</v>
       </c>
-      <c r="DN2" s="13" t="str">
+      <c r="DN2" s="12" t="str">
         <v>Tunisia</v>
       </c>
-      <c r="DO2" s="13" t="str">
+      <c r="DO2" s="12" t="str">
         <v>Turkey</v>
       </c>
-      <c r="DP2" s="13" t="str">
+      <c r="DP2" s="12" t="str">
         <v>Uganda</v>
       </c>
-      <c r="DQ2" s="13" t="str">
+      <c r="DQ2" s="12" t="str">
         <v>Ukraine</v>
       </c>
-      <c r="DR2" s="13" t="str">
+      <c r="DR2" s="12" t="str">
         <v>United Arab Emirates</v>
       </c>
-      <c r="DS2" s="13" t="str">
+      <c r="DS2" s="12" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="DT2" s="13" t="str">
+      <c r="DT2" s="12" t="str">
         <v>United States</v>
       </c>
-      <c r="DU2" s="13" t="str">
+      <c r="DU2" s="12" t="str">
         <v>Uruguay</v>
       </c>
-      <c r="DV2" s="13" t="str">
+      <c r="DV2" s="12" t="str">
         <v>Uzbekistan</v>
       </c>
-      <c r="DW2" s="13" t="str">
+      <c r="DW2" s="12" t="str">
         <v>Venezuela</v>
       </c>
-      <c r="DX2" s="13" t="str">
+      <c r="DX2" s="12" t="str">
         <v>Vietnam</v>
       </c>
-      <c r="DY2" s="13" t="str">
+      <c r="DY2" s="12" t="str">
         <v>Zimbabwe</v>
       </c>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>92580035</v>
       </c>
@@ -4616,488 +4678,504 @@
       <c r="F3" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="J3" s="12" cm="1">
+      <c r="J3" s="11" cm="1">
         <f t="array" ref="J3:J13">_xlfn._xlws.SORT(_xlfn.UNIQUE(Table1[YEAR]))</f>
         <v>2010</v>
       </c>
-      <c r="K3" s="12" t="str" cm="1">
+      <c r="K3" s="11" t="str" cm="1">
         <f t="array" ref="K3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="L3" s="12" t="str" cm="1">
+      <c r="L3" s="11" t="str" cm="1">
         <f t="array" ref="L3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="M3" s="12" cm="1">
+      <c r="M3" s="11" cm="1">
         <f t="array" ref="M3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J3))),"")</f>
         <v>34.594819999999999</v>
       </c>
-      <c r="N3" s="12" t="str" cm="1">
+      <c r="N3" s="11" t="str" cm="1">
         <f t="array" ref="N3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="O3" s="12" cm="1">
+      <c r="O3" s="11" cm="1">
         <f t="array" ref="O3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J3))),"")</f>
         <v>43.328389830508456</v>
       </c>
-      <c r="P3" s="12" cm="1">
+      <c r="P3" s="11" cm="1">
         <f t="array" ref="P3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J3))),"")</f>
         <v>43.209876543209901</v>
       </c>
-      <c r="Q3" s="12" t="str" cm="1">
+      <c r="Q3" s="11" t="str" cm="1">
         <f t="array" ref="Q3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="R3" s="12" t="str" cm="1">
+      <c r="R3" s="11" t="str" cm="1">
         <f t="array" ref="R3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="S3" s="12" t="str" cm="1">
+      <c r="S3" s="11" t="str" cm="1">
         <f t="array" ref="S3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="T3" s="12" t="str" cm="1">
+      <c r="T3" s="11" t="str" cm="1">
         <f t="array" ref="T3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="U3" s="12" t="str" cm="1">
+      <c r="U3" s="11" t="str" cm="1">
         <f t="array" ref="U3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="V3" s="12" t="str" cm="1">
+      <c r="V3" s="11" t="str" cm="1">
         <f t="array" ref="V3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="W3" s="12" cm="1">
+      <c r="W3" s="11" cm="1">
         <f t="array" ref="W3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J3))),"")</f>
         <v>21.3991769547325</v>
       </c>
-      <c r="X3" s="12" t="str" cm="1">
+      <c r="X3" s="11" t="str" cm="1">
         <f t="array" ref="X3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="Y3" s="12" cm="1">
+      <c r="Y3" s="11" cm="1">
         <f t="array" ref="Y3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J3))),"")</f>
         <v>34.34065934065935</v>
       </c>
-      <c r="Z3" s="12" t="str" cm="1">
+      <c r="Z3" s="11" t="str" cm="1">
         <f t="array" ref="Z3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AA3" s="12" cm="1">
+      <c r="AA3" s="11" cm="1">
         <f t="array" ref="AA3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J3))),"")</f>
         <v>11.320754716981099</v>
       </c>
-      <c r="AB3" s="12" t="str" cm="1">
+      <c r="AB3" s="11" t="str" cm="1">
         <f t="array" ref="AB3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AC3" s="12" cm="1">
+      <c r="AC3" s="11" cm="1">
         <f t="array" ref="AC3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J3))),"")</f>
         <v>39.879807692307715</v>
       </c>
-      <c r="AD3" s="12" cm="1">
+      <c r="AD3" s="11" cm="1">
         <f t="array" ref="AD3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J3))),"")</f>
         <v>53.7592</v>
       </c>
-      <c r="AE3" s="12" t="str" cm="1">
+      <c r="AE3" s="11" t="str" cm="1">
         <f t="array" ref="AE3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AF3" s="12" t="str" cm="1">
+      <c r="AF3" s="11" t="str" cm="1">
         <f t="array" ref="AF3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="12" t="str" cm="1">
+      <c r="AG3" s="11" t="str" cm="1">
         <f t="array" ref="AG3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="12" cm="1">
+      <c r="AH3" s="11" cm="1">
         <f t="array" ref="AH3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J3))),"")</f>
         <v>24.6913580246914</v>
       </c>
-      <c r="AI3" s="12" t="str" cm="1">
+      <c r="AI3" s="11" t="str" cm="1">
         <f t="array" ref="AI3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="12" t="str" cm="1">
+      <c r="AJ3" s="11" t="str" cm="1">
         <f t="array" ref="AJ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="12" t="str" cm="1">
+      <c r="AK3" s="11" t="str" cm="1">
         <f t="array" ref="AK3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AL3" s="12" t="str" cm="1">
+      <c r="AL3" s="11" t="str" cm="1">
         <f t="array" ref="AL3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AM3" s="12" cm="1">
+      <c r="AM3" s="11" cm="1">
         <f t="array" ref="AM3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J3))),"")</f>
         <v>47</v>
       </c>
-      <c r="AN3" s="12" t="str" cm="1">
+      <c r="AN3" s="11" t="str" cm="1">
         <f t="array" ref="AN3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AO3" s="12" cm="1">
+      <c r="AO3" s="11" cm="1">
         <f t="array" ref="AO3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J3))),"")</f>
         <v>17.753235704739598</v>
       </c>
-      <c r="AP3" s="12" t="str" cm="1">
+      <c r="AP3" s="11" t="str" cm="1">
         <f t="array" ref="AP3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AQ3" s="12" cm="1">
+      <c r="AQ3" s="11" cm="1">
         <f t="array" ref="AQ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J3))),"")</f>
         <v>29.506172839506199</v>
       </c>
-      <c r="AR3" s="12" cm="1">
+      <c r="AR3" s="11" cm="1">
         <f t="array" ref="AR3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J3))),"")</f>
         <v>37.037037037037003</v>
       </c>
-      <c r="AS3" s="12" t="str" cm="1">
+      <c r="AS3" s="11" t="str" cm="1">
         <f t="array" ref="AS3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AT3" s="12" cm="1">
+      <c r="AT3" s="11" cm="1">
         <f t="array" ref="AT3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J3))),"")</f>
         <v>33.33333333333335</v>
       </c>
-      <c r="AU3" s="12" t="str" cm="1">
+      <c r="AU3" s="11" t="str" cm="1">
         <f t="array" ref="AU3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AV3" s="12" cm="1">
+      <c r="AV3" s="11" cm="1">
         <f t="array" ref="AV3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J3))),"")</f>
         <v>22.839506172839499</v>
       </c>
-      <c r="AW3" s="12" t="str" cm="1">
+      <c r="AW3" s="11" t="str" cm="1">
         <f t="array" ref="AW3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AX3" s="12" t="str" cm="1">
+      <c r="AX3" s="11" t="str" cm="1">
         <f t="array" ref="AX3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="AY3" s="12" cm="1">
+      <c r="AY3" s="11" cm="1">
         <f t="array" ref="AY3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J3))),"")</f>
         <v>29.134659810716101</v>
       </c>
-      <c r="AZ3" s="12" t="str" cm="1">
+      <c r="AZ3" s="11" t="str" cm="1">
         <f t="array" ref="AZ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BA3" s="12" cm="1">
+      <c r="BA3" s="11" cm="1">
         <f t="array" ref="BA3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J3))),"")</f>
         <v>21.659328906282099</v>
       </c>
-      <c r="BB3" s="12" cm="1">
+      <c r="BB3" s="11" cm="1">
         <f t="array" ref="BB3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J3))),"")</f>
         <v>24.555735056542801</v>
       </c>
-      <c r="BC3" s="12" cm="1">
+      <c r="BC3" s="11" cm="1">
         <f t="array" ref="BC3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J3))),"")</f>
         <v>23</v>
       </c>
-      <c r="BD3" s="12" t="str" cm="1">
+      <c r="BD3" s="11" t="str" cm="1">
         <f t="array" ref="BD3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BE3" s="12" cm="1">
+      <c r="BE3" s="11" cm="1">
         <f t="array" ref="BE3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J3))),"")</f>
         <v>33.950617283950599</v>
       </c>
-      <c r="BF3" s="12" t="str" cm="1">
+      <c r="BF3" s="11" t="str" cm="1">
         <f t="array" ref="BF3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BG3" s="12" t="str" cm="1">
+      <c r="BG3" s="11" t="str" cm="1">
         <f t="array" ref="BG3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BH3" s="12" t="str" cm="1">
+      <c r="BH3" s="11" t="str" cm="1">
         <f t="array" ref="BH3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BI3" s="12" cm="1">
+      <c r="BI3" s="11" cm="1">
         <f t="array" ref="BI3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J3))),"")</f>
         <v>26.687138992469102</v>
       </c>
-      <c r="BJ3" s="12" cm="1">
+      <c r="BJ3" s="11" cm="1">
         <f t="array" ref="BJ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J3))),"")</f>
         <v>63.175806000000001</v>
       </c>
-      <c r="BK3" s="12" t="str" cm="1">
+      <c r="BK3" s="11" t="str" cm="1">
         <f t="array" ref="BK3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BL3" s="12" t="str" cm="1">
+      <c r="BL3" s="11" t="str" cm="1">
         <f t="array" ref="BL3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BM3" s="12" t="str" cm="1">
+      <c r="BM3" s="11" t="str" cm="1">
         <f t="array" ref="BM3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BN3" s="12" t="str" cm="1">
+      <c r="BN3" s="11" t="str" cm="1">
         <f t="array" ref="BN3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BO3" s="12" t="str" cm="1">
+      <c r="BO3" s="11" t="str" cm="1">
         <f t="array" ref="BO3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BP3" s="12" cm="1">
+      <c r="BP3" s="11" cm="1">
         <f t="array" ref="BP3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J3))),"")</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="BQ3" s="12" t="str" cm="1">
+      <c r="BQ3" s="11" t="str" cm="1">
         <f t="array" ref="BQ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BR3" s="12" cm="1">
+      <c r="BR3" s="11" cm="1">
         <f t="array" ref="BR3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J3))),"")</f>
         <v>16.328371415386101</v>
       </c>
-      <c r="BS3" s="12" t="str" cm="1">
+      <c r="BS3" s="11" t="str" cm="1">
         <f t="array" ref="BS3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BT3" s="12" cm="1">
+      <c r="BT3" s="11" cm="1">
         <f t="array" ref="BT3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J3))),"")</f>
         <v>38.343558282208598</v>
       </c>
-      <c r="BU3" s="12" t="str" cm="1">
+      <c r="BU3" s="11" t="str" cm="1">
         <f t="array" ref="BU3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BV3" s="12" t="str" cm="1">
+      <c r="BV3" s="11" t="str" cm="1">
         <f t="array" ref="BV3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BW3" s="12" t="str" cm="1">
+      <c r="BW3" s="11" t="str" cm="1">
         <f t="array" ref="BW3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BX3" s="12" cm="1">
+      <c r="BX3" s="11" cm="1">
         <f t="array" ref="BX3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J3))),"")</f>
         <v>47.921826625386998</v>
       </c>
-      <c r="BY3" s="12" t="str" cm="1">
+      <c r="BY3" s="11" t="str" cm="1">
         <f t="array" ref="BY3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="BZ3" s="12" t="str" cm="1">
+      <c r="BZ3" s="11" t="str" cm="1">
         <f t="array" ref="BZ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CA3" s="12" t="str" cm="1">
+      <c r="CA3" s="11" t="str" cm="1">
         <f t="array" ref="CA3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CB3" s="12" t="str" cm="1">
+      <c r="CB3" s="11" t="str" cm="1">
         <f t="array" ref="CB3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CC3" s="12" t="str" cm="1">
+      <c r="CC3" s="11" t="str" cm="1">
         <f t="array" ref="CC3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CD3" s="12" t="str" cm="1">
+      <c r="CD3" s="11" t="str" cm="1">
         <f t="array" ref="CD3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CE3" s="12" cm="1">
+      <c r="CE3" s="11" cm="1">
         <f t="array" ref="CE3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J3))),"")</f>
         <v>40.826404635928398</v>
       </c>
-      <c r="CF3" s="12" t="str" cm="1">
+      <c r="CF3" s="11" t="str" cm="1">
         <f t="array" ref="CF3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CG3" s="12" t="str" cm="1">
+      <c r="CG3" s="11" t="str" cm="1">
         <f t="array" ref="CG3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CH3" s="12" t="str" cm="1">
+      <c r="CH3" s="11" t="str" cm="1">
         <f t="array" ref="CH3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CI3" s="12" cm="1">
+      <c r="CI3" s="11" cm="1">
         <f t="array" ref="CI3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J3))),"")</f>
         <v>44.193714580113301</v>
       </c>
-      <c r="CJ3" s="12" t="str" cm="1">
+      <c r="CJ3" s="11" t="str" cm="1">
         <f t="array" ref="CJ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CK3" s="12" cm="1">
+      <c r="CK3" s="11" cm="1">
         <f t="array" ref="CK3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J3))),"")</f>
         <v>17.1666666666667</v>
       </c>
-      <c r="CL3" s="12" t="str" cm="1">
+      <c r="CL3" s="11" t="str" cm="1">
         <f t="array" ref="CL3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CM3" s="12" t="str" cm="1">
+      <c r="CM3" s="11" t="str" cm="1">
         <f t="array" ref="CM3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CN3" s="12" cm="1">
+      <c r="CN3" s="11" cm="1">
         <f t="array" ref="CN3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J3))),"")</f>
         <v>19.30596285434995</v>
       </c>
-      <c r="CO3" s="12" t="str" cm="1">
+      <c r="CO3" s="11" t="str" cm="1">
         <f t="array" ref="CO3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CP3" s="12" cm="1">
+      <c r="CP3" s="11" cm="1">
         <f t="array" ref="CP3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J3))),"")</f>
         <v>31.751172599784301</v>
       </c>
-      <c r="CQ3" s="12" t="str" cm="1">
+      <c r="CQ3" s="11" t="str" cm="1">
         <f t="array" ref="CQ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CR3" s="12" cm="1">
+      <c r="CR3" s="11" cm="1">
         <f t="array" ref="CR3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J3))),"")</f>
         <v>19.7530864197531</v>
       </c>
-      <c r="CS3" s="12" cm="1">
+      <c r="CS3" s="11" cm="1">
         <f t="array" ref="CS3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J3))),"")</f>
         <v>82.283710428976306</v>
       </c>
-      <c r="CT3" s="12" cm="1">
+      <c r="CT3" s="11" cm="1">
         <f t="array" ref="CT3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J3))),"")</f>
         <v>8.3210691385336002</v>
       </c>
-      <c r="CU3" s="12" cm="1">
+      <c r="CU3" s="11" cm="1">
         <f t="array" ref="CU3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J3))),"")</f>
         <v>16.271716844717801</v>
       </c>
-      <c r="CV3" s="12" t="str" cm="1">
+      <c r="CV3" s="11" t="str" cm="1">
         <f t="array" ref="CV3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="CW3" s="12" cm="1">
+      <c r="CW3" s="11" cm="1">
         <f t="array" ref="CW3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J3))),"")</f>
         <v>16.872427983539101</v>
       </c>
-      <c r="CX3" s="12" cm="1">
+      <c r="CX3" s="11" cm="1">
         <f t="array" ref="CX3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J3))),"")</f>
         <v>30.476190476190499</v>
       </c>
-      <c r="CY3" s="12" cm="1">
+      <c r="CY3" s="11" cm="1">
         <f t="array" ref="CY3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J3))),"")</f>
         <v>18.518518518518501</v>
       </c>
-      <c r="CZ3" s="12" cm="1">
+      <c r="CZ3" s="11" cm="1">
         <f t="array" ref="CZ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J3))),"")</f>
         <v>32.098765432098801</v>
       </c>
-      <c r="DA3" s="12" cm="1">
+      <c r="DA3" s="11" cm="1">
         <f t="array" ref="DA3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J3))),"")</f>
         <v>68.755439512619702</v>
       </c>
-      <c r="DB3" s="12" t="str" cm="1">
+      <c r="DB3" s="11" t="str" cm="1">
         <f t="array" ref="DB3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DC3" s="12" cm="1">
+      <c r="DC3" s="11" cm="1">
         <f t="array" ref="DC3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J3))),"")</f>
         <v>37.037037037037052</v>
       </c>
-      <c r="DD3" s="12" t="str" cm="1">
+      <c r="DD3" s="11" t="str" cm="1">
         <f t="array" ref="DD3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DE3" s="12" t="str" cm="1">
+      <c r="DE3" s="11" t="str" cm="1">
         <f t="array" ref="DE3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DF3" s="12" t="str" cm="1">
+      <c r="DF3" s="11" t="str" cm="1">
         <f t="array" ref="DF3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DG3" s="12" cm="1">
+      <c r="DG3" s="11" cm="1">
         <f t="array" ref="DG3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J3))),"")</f>
         <v>27.6641091219096</v>
       </c>
-      <c r="DH3" s="12" cm="1">
+      <c r="DH3" s="11" cm="1">
         <f t="array" ref="DH3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J3))),"")</f>
         <v>47.844827586206904</v>
       </c>
-      <c r="DI3" s="12" cm="1">
+      <c r="DI3" s="11" cm="1">
         <f t="array" ref="DI3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J3))),"")</f>
         <v>21</v>
       </c>
-      <c r="DJ3" s="12" t="str" cm="1">
+      <c r="DJ3" s="11" t="str" cm="1">
         <f t="array" ref="DJ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DK3" s="12" cm="1">
+      <c r="DK3" s="11" cm="1">
         <f t="array" ref="DK3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J3))),"")</f>
         <v>17.414945009764601</v>
       </c>
-      <c r="DL3" s="12" t="str" cm="1">
+      <c r="DL3" s="11" t="str" cm="1">
         <f t="array" ref="DL3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DM3" s="12" t="str" cm="1">
+      <c r="DM3" s="11" t="str" cm="1">
         <f t="array" ref="DM3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DN3" s="12" t="str" cm="1">
+      <c r="DN3" s="11" t="str" cm="1">
         <f t="array" ref="DN3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DO3" s="12" t="str" cm="1">
+      <c r="DO3" s="11" t="str" cm="1">
         <f t="array" ref="DO3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DP3" s="12" t="str" cm="1">
+      <c r="DP3" s="11" t="str" cm="1">
         <f t="array" ref="DP3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DQ3" s="12" t="str" cm="1">
+      <c r="DQ3" s="11" t="str" cm="1">
         <f t="array" ref="DQ3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DR3" s="12" cm="1">
+      <c r="DR3" s="11" cm="1">
         <f t="array" ref="DR3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J3))),"")</f>
         <v>95.351093201999802</v>
       </c>
-      <c r="DS3" s="12" cm="1">
+      <c r="DS3" s="11" cm="1">
         <f t="array" ref="DS3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J3))),"")</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="DT3" s="12" cm="1">
+      <c r="DT3" s="11" cm="1">
         <f t="array" ref="DT3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J3))),"")</f>
         <v>39.992000000000004</v>
       </c>
-      <c r="DU3" s="12" t="str" cm="1">
+      <c r="DU3" s="11" t="str" cm="1">
         <f t="array" ref="DU3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DV3" s="12" t="str" cm="1">
+      <c r="DV3" s="11" t="str" cm="1">
         <f t="array" ref="DV3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DW3" s="12" t="str" cm="1">
+      <c r="DW3" s="11" t="str" cm="1">
         <f t="array" ref="DW3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DX3" s="12" t="str" cm="1">
+      <c r="DX3" s="11" t="str" cm="1">
         <f t="array" ref="DX3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-      <c r="DY3" s="12" t="str" cm="1">
+      <c r="DY3" s="11" t="str" cm="1">
         <f t="array" ref="DY3">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J3))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB3">
+        <f>MAX(K3:DY3)</f>
+        <v>95.351093201999802</v>
+      </c>
+      <c r="EC3" t="str" cm="1">
+        <f t="array" ref="EC3">INDEX($K$2:$DY$2,0,MATCH(EB3,K3:DY3,0))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="EF3">
+        <f>_xlfn.MINIFS(K3:DY3,K3:DY3,"&gt;=0")</f>
+        <v>8.3210691385336002</v>
+      </c>
+      <c r="EG3" t="str" cm="1">
+        <f t="array" ref="EG3">INDEX($K$2:$DY$2,0,MATCH($EF3,$K3:$DY3,0))</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="4" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>79803219</v>
       </c>
@@ -5116,487 +5194,503 @@
       <c r="F4" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>2011</v>
       </c>
-      <c r="K4" s="12" cm="1">
+      <c r="K4" s="11" cm="1">
         <f t="array" ref="K4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J4))),"")</f>
         <v>46.887617267579103</v>
       </c>
-      <c r="L4" s="12" t="str" cm="1">
+      <c r="L4" s="11" t="str" cm="1">
         <f t="array" ref="L4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="M4" s="12" cm="1">
+      <c r="M4" s="11" cm="1">
         <f t="array" ref="M4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J4))),"")</f>
         <v>33.490499999999997</v>
       </c>
-      <c r="N4" s="12" t="str" cm="1">
+      <c r="N4" s="11" t="str" cm="1">
         <f t="array" ref="N4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="O4" s="12" cm="1">
+      <c r="O4" s="11" cm="1">
         <f t="array" ref="O4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J4))),"")</f>
         <v>56.077760891590664</v>
       </c>
-      <c r="P4" s="12" cm="1">
+      <c r="P4" s="11" cm="1">
         <f t="array" ref="P4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J4))),"")</f>
         <v>23.913043478260899</v>
       </c>
-      <c r="Q4" s="12" cm="1">
+      <c r="Q4" s="11" cm="1">
         <f t="array" ref="Q4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J4))),"")</f>
         <v>43.478260869565197</v>
       </c>
-      <c r="R4" s="12" t="str" cm="1">
+      <c r="R4" s="11" t="str" cm="1">
         <f t="array" ref="R4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="S4" s="12" cm="1">
+      <c r="S4" s="11" cm="1">
         <f t="array" ref="S4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J4))),"")</f>
         <v>30</v>
       </c>
-      <c r="T4" s="12" t="str" cm="1">
+      <c r="T4" s="11" t="str" cm="1">
         <f t="array" ref="T4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="U4" s="12" cm="1">
+      <c r="U4" s="11" cm="1">
         <f t="array" ref="U4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J4))),"")</f>
         <v>56.582125603864753</v>
       </c>
-      <c r="V4" s="12" t="str" cm="1">
+      <c r="V4" s="11" t="str" cm="1">
         <f t="array" ref="V4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="W4" s="12" cm="1">
+      <c r="W4" s="11" cm="1">
         <f t="array" ref="W4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J4))),"")</f>
         <v>24.758454106280197</v>
       </c>
-      <c r="X4" s="12" t="str" cm="1">
+      <c r="X4" s="11" t="str" cm="1">
         <f t="array" ref="X4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="Y4" s="12" cm="1">
+      <c r="Y4" s="11" cm="1">
         <f t="array" ref="Y4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J4))),"")</f>
         <v>59.002195815034881</v>
       </c>
-      <c r="Z4" s="12" t="str" cm="1">
+      <c r="Z4" s="11" t="str" cm="1">
         <f t="array" ref="Z4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AA4" s="12" cm="1">
+      <c r="AA4" s="11" cm="1">
         <f t="array" ref="AA4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J4))),"")</f>
         <v>14.5460358056266</v>
       </c>
-      <c r="AB4" s="12" t="str" cm="1">
+      <c r="AB4" s="11" t="str" cm="1">
         <f t="array" ref="AB4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AC4" s="12" cm="1">
+      <c r="AC4" s="11" cm="1">
         <f t="array" ref="AC4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J4))),"")</f>
         <v>47.073596792668958</v>
       </c>
-      <c r="AD4" s="12" cm="1">
+      <c r="AD4" s="11" cm="1">
         <f t="array" ref="AD4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J4))),"")</f>
         <v>40.75</v>
       </c>
-      <c r="AE4" s="12" cm="1">
+      <c r="AE4" s="11" cm="1">
         <f t="array" ref="AE4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J4))),"")</f>
         <v>27.2543333333333</v>
       </c>
-      <c r="AF4" s="12" cm="1">
+      <c r="AF4" s="11" cm="1">
         <f t="array" ref="AF4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J4))),"")</f>
         <v>47.5</v>
       </c>
-      <c r="AG4" s="12" t="str" cm="1">
+      <c r="AG4" s="11" t="str" cm="1">
         <f t="array" ref="AG4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AH4" s="12" cm="1">
+      <c r="AH4" s="11" cm="1">
         <f t="array" ref="AH4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J4))),"")</f>
         <v>28.0385322092521</v>
       </c>
-      <c r="AI4" s="12" t="str" cm="1">
+      <c r="AI4" s="11" t="str" cm="1">
         <f t="array" ref="AI4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AJ4" s="12" cm="1">
+      <c r="AJ4" s="11" cm="1">
         <f t="array" ref="AJ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J4))),"")</f>
         <v>28.109935332157551</v>
       </c>
-      <c r="AK4" s="12" t="str" cm="1">
+      <c r="AK4" s="11" t="str" cm="1">
         <f t="array" ref="AK4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AL4" s="12" cm="1">
+      <c r="AL4" s="11" cm="1">
         <f t="array" ref="AL4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J4))),"")</f>
         <v>47</v>
       </c>
-      <c r="AM4" s="12" cm="1">
+      <c r="AM4" s="11" cm="1">
         <f t="array" ref="AM4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J4))),"")</f>
         <v>40</v>
       </c>
-      <c r="AN4" s="12" t="str" cm="1">
+      <c r="AN4" s="11" t="str" cm="1">
         <f t="array" ref="AN4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AO4" s="12" cm="1">
+      <c r="AO4" s="11" cm="1">
         <f t="array" ref="AO4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J4))),"")</f>
         <v>28.198067632850201</v>
       </c>
-      <c r="AP4" s="12" t="str" cm="1">
+      <c r="AP4" s="11" t="str" cm="1">
         <f t="array" ref="AP4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AQ4" s="12" cm="1">
+      <c r="AQ4" s="11" cm="1">
         <f t="array" ref="AQ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J4))),"")</f>
         <v>28.985507246376802</v>
       </c>
-      <c r="AR4" s="12" cm="1">
+      <c r="AR4" s="11" cm="1">
         <f t="array" ref="AR4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J4))),"")</f>
         <v>42.751811594202898</v>
       </c>
-      <c r="AS4" s="12" t="str" cm="1">
+      <c r="AS4" s="11" t="str" cm="1">
         <f t="array" ref="AS4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AT4" s="12" cm="1">
+      <c r="AT4" s="11" cm="1">
         <f t="array" ref="AT4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J4))),"")</f>
         <v>31.113727858293061</v>
       </c>
-      <c r="AU4" s="12" t="str" cm="1">
+      <c r="AU4" s="11" t="str" cm="1">
         <f t="array" ref="AU4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AV4" s="12" cm="1">
+      <c r="AV4" s="11" cm="1">
         <f t="array" ref="AV4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J4))),"")</f>
         <v>32.171900161030599</v>
       </c>
-      <c r="AW4" s="12" t="str" cm="1">
+      <c r="AW4" s="11" t="str" cm="1">
         <f t="array" ref="AW4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AX4" s="12" t="str" cm="1">
+      <c r="AX4" s="11" t="str" cm="1">
         <f t="array" ref="AX4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="AY4" s="12" cm="1">
+      <c r="AY4" s="11" cm="1">
         <f t="array" ref="AY4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J4))),"")</f>
         <v>28.430601905908699</v>
       </c>
-      <c r="AZ4" s="12" cm="1">
+      <c r="AZ4" s="11" cm="1">
         <f t="array" ref="AZ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J4))),"")</f>
         <v>36.222130423307703</v>
       </c>
-      <c r="BA4" s="12" cm="1">
+      <c r="BA4" s="11" cm="1">
         <f t="array" ref="BA4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J4))),"")</f>
         <v>20.931382716441664</v>
       </c>
-      <c r="BB4" s="12" cm="1">
+      <c r="BB4" s="11" cm="1">
         <f t="array" ref="BB4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J4))),"")</f>
         <v>42.935458248194301</v>
       </c>
-      <c r="BC4" s="12" cm="1">
+      <c r="BC4" s="11" cm="1">
         <f t="array" ref="BC4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J4))),"")</f>
         <v>32.3333333333333</v>
       </c>
-      <c r="BD4" s="12" t="str" cm="1">
+      <c r="BD4" s="11" t="str" cm="1">
         <f t="array" ref="BD4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BE4" s="12" cm="1">
+      <c r="BE4" s="11" cm="1">
         <f t="array" ref="BE4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J4))),"")</f>
         <v>53.3333333333333</v>
       </c>
-      <c r="BF4" s="12" cm="1">
+      <c r="BF4" s="11" cm="1">
         <f t="array" ref="BF4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J4))),"")</f>
         <v>43.859649122806999</v>
       </c>
-      <c r="BG4" s="12" cm="1">
+      <c r="BG4" s="11" cm="1">
         <f t="array" ref="BG4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J4))),"")</f>
         <v>34.855072463768096</v>
       </c>
-      <c r="BH4" s="12" t="str" cm="1">
+      <c r="BH4" s="11" t="str" cm="1">
         <f t="array" ref="BH4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BI4" s="12" cm="1">
+      <c r="BI4" s="11" cm="1">
         <f t="array" ref="BI4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J4))),"")</f>
         <v>33.3726357160403</v>
       </c>
-      <c r="BJ4" s="12" cm="1">
+      <c r="BJ4" s="11" cm="1">
         <f t="array" ref="BJ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J4))),"")</f>
         <v>47.5</v>
       </c>
-      <c r="BK4" s="12" t="str" cm="1">
+      <c r="BK4" s="11" t="str" cm="1">
         <f t="array" ref="BK4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="12" t="str" cm="1">
+      <c r="BL4" s="11" t="str" cm="1">
         <f t="array" ref="BL4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BM4" s="12" t="str" cm="1">
+      <c r="BM4" s="11" t="str" cm="1">
         <f t="array" ref="BM4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BN4" s="12" t="str" cm="1">
+      <c r="BN4" s="11" t="str" cm="1">
         <f t="array" ref="BN4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BO4" s="12" cm="1">
+      <c r="BO4" s="11" cm="1">
         <f t="array" ref="BO4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J4))),"")</f>
         <v>20.557030133475099</v>
       </c>
-      <c r="BP4" s="12" cm="1">
+      <c r="BP4" s="11" cm="1">
         <f t="array" ref="BP4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J4))),"")</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="BQ4" s="12" t="str" cm="1">
+      <c r="BQ4" s="11" t="str" cm="1">
         <f t="array" ref="BQ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BR4" s="12" cm="1">
+      <c r="BR4" s="11" cm="1">
         <f t="array" ref="BR4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J4))),"")</f>
         <v>18.2586533424669</v>
       </c>
-      <c r="BS4" s="12" t="str" cm="1">
+      <c r="BS4" s="11" t="str" cm="1">
         <f t="array" ref="BS4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BT4" s="12" cm="1">
+      <c r="BT4" s="11" cm="1">
         <f t="array" ref="BT4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J4))),"")</f>
         <v>33.97916666666665</v>
       </c>
-      <c r="BU4" s="12" t="str" cm="1">
+      <c r="BU4" s="11" t="str" cm="1">
         <f t="array" ref="BU4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BV4" s="12" t="str" cm="1">
+      <c r="BV4" s="11" t="str" cm="1">
         <f t="array" ref="BV4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BW4" s="12" t="str" cm="1">
+      <c r="BW4" s="11" t="str" cm="1">
         <f t="array" ref="BW4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="12" cm="1">
+      <c r="BX4" s="11" cm="1">
         <f t="array" ref="BX4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J4))),"")</f>
         <v>50.547392682224149</v>
       </c>
-      <c r="BY4" s="12" t="str" cm="1">
+      <c r="BY4" s="11" t="str" cm="1">
         <f t="array" ref="BY4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="BZ4" s="12" t="str" cm="1">
+      <c r="BZ4" s="11" t="str" cm="1">
         <f t="array" ref="BZ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CA4" s="12" t="str" cm="1">
+      <c r="CA4" s="11" t="str" cm="1">
         <f t="array" ref="CA4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CB4" s="12" t="str" cm="1">
+      <c r="CB4" s="11" t="str" cm="1">
         <f t="array" ref="CB4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CC4" s="12" t="str" cm="1">
+      <c r="CC4" s="11" t="str" cm="1">
         <f t="array" ref="CC4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CD4" s="12" t="str" cm="1">
+      <c r="CD4" s="11" t="str" cm="1">
         <f t="array" ref="CD4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CE4" s="12" cm="1">
+      <c r="CE4" s="11" cm="1">
         <f t="array" ref="CE4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J4))),"")</f>
         <v>61.185950413223168</v>
       </c>
-      <c r="CF4" s="12" t="str" cm="1">
+      <c r="CF4" s="11" t="str" cm="1">
         <f t="array" ref="CF4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CG4" s="12" t="str" cm="1">
+      <c r="CG4" s="11" t="str" cm="1">
         <f t="array" ref="CG4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CH4" s="12" cm="1">
+      <c r="CH4" s="11" cm="1">
         <f t="array" ref="CH4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J4))),"")</f>
         <v>10.144927536231901</v>
       </c>
-      <c r="CI4" s="12" cm="1">
+      <c r="CI4" s="11" cm="1">
         <f t="array" ref="CI4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J4))),"")</f>
         <v>52.164054726368171</v>
       </c>
-      <c r="CJ4" s="12" cm="1">
+      <c r="CJ4" s="11" cm="1">
         <f t="array" ref="CJ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J4))),"")</f>
         <v>52</v>
       </c>
-      <c r="CK4" s="12" cm="1">
+      <c r="CK4" s="11" cm="1">
         <f t="array" ref="CK4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J4))),"")</f>
         <v>23.628977777777767</v>
       </c>
-      <c r="CL4" s="12" cm="1">
+      <c r="CL4" s="11" cm="1">
         <f t="array" ref="CL4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J4))),"")</f>
         <v>34.99</v>
       </c>
-      <c r="CM4" s="12" t="str" cm="1">
+      <c r="CM4" s="11" t="str" cm="1">
         <f t="array" ref="CM4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CN4" s="12" cm="1">
+      <c r="CN4" s="11" cm="1">
         <f t="array" ref="CN4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J4))),"")</f>
         <v>21.212744289884899</v>
       </c>
-      <c r="CO4" s="12" t="str" cm="1">
+      <c r="CO4" s="11" t="str" cm="1">
         <f t="array" ref="CO4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="CP4" s="12" cm="1">
+      <c r="CP4" s="11" cm="1">
         <f t="array" ref="CP4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J4))),"")</f>
         <v>27.062553158586599</v>
       </c>
-      <c r="CQ4" s="12" cm="1">
+      <c r="CQ4" s="11" cm="1">
         <f t="array" ref="CQ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J4))),"")</f>
         <v>23.553509548035084</v>
       </c>
-      <c r="CR4" s="12" cm="1">
+      <c r="CR4" s="11" cm="1">
         <f t="array" ref="CR4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J4))),"")</f>
         <v>29.371980676328501</v>
       </c>
-      <c r="CS4" s="12" cm="1">
+      <c r="CS4" s="11" cm="1">
         <f t="array" ref="CS4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J4))),"")</f>
         <v>93.659000000000006</v>
       </c>
-      <c r="CT4" s="12" cm="1">
+      <c r="CT4" s="11" cm="1">
         <f t="array" ref="CT4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J4))),"")</f>
         <v>11.063357938357949</v>
       </c>
-      <c r="CU4" s="12" cm="1">
+      <c r="CU4" s="11" cm="1">
         <f t="array" ref="CU4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J4))),"")</f>
         <v>14.32817900131095</v>
       </c>
-      <c r="CV4" s="12" cm="1">
+      <c r="CV4" s="11" cm="1">
         <f t="array" ref="CV4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J4))),"")</f>
         <v>79</v>
       </c>
-      <c r="CW4" s="12" cm="1">
+      <c r="CW4" s="11" cm="1">
         <f t="array" ref="CW4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J4))),"")</f>
         <v>26.3285024154589</v>
       </c>
-      <c r="CX4" s="12" cm="1">
+      <c r="CX4" s="11" cm="1">
         <f t="array" ref="CX4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J4))),"")</f>
         <v>32.255784865541003</v>
       </c>
-      <c r="CY4" s="12" cm="1">
+      <c r="CY4" s="11" cm="1">
         <f t="array" ref="CY4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J4))),"")</f>
         <v>21.739130434782599</v>
       </c>
-      <c r="CZ4" s="12" cm="1">
+      <c r="CZ4" s="11" cm="1">
         <f t="array" ref="CZ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J4))),"")</f>
         <v>28.985507246376802</v>
       </c>
-      <c r="DA4" s="12" cm="1">
+      <c r="DA4" s="11" cm="1">
         <f t="array" ref="DA4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J4))),"")</f>
         <v>78.929971988795543</v>
       </c>
-      <c r="DB4" s="12" cm="1">
+      <c r="DB4" s="11" cm="1">
         <f t="array" ref="DB4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J4))),"")</f>
         <v>20.5907015745831</v>
       </c>
-      <c r="DC4" s="12" cm="1">
+      <c r="DC4" s="11" cm="1">
         <f t="array" ref="DC4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J4))),"")</f>
         <v>46.541867954911439</v>
       </c>
-      <c r="DD4" s="12" cm="1">
+      <c r="DD4" s="11" cm="1">
         <f t="array" ref="DD4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J4))),"")</f>
         <v>21.344999999999999</v>
       </c>
-      <c r="DE4" s="12" cm="1">
+      <c r="DE4" s="11" cm="1">
         <f t="array" ref="DE4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J4))),"")</f>
         <v>67.5</v>
       </c>
-      <c r="DF4" s="12" t="str" cm="1">
+      <c r="DF4" s="11" t="str" cm="1">
         <f t="array" ref="DF4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DG4" s="12" cm="1">
+      <c r="DG4" s="11" cm="1">
         <f t="array" ref="DG4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J4))),"")</f>
         <v>33.744849092326554</v>
       </c>
-      <c r="DH4" s="12" cm="1">
+      <c r="DH4" s="11" cm="1">
         <f t="array" ref="DH4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J4))),"")</f>
         <v>58.267973856209132</v>
       </c>
-      <c r="DI4" s="12" cm="1">
+      <c r="DI4" s="11" cm="1">
         <f t="array" ref="DI4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J4))),"")</f>
         <v>20</v>
       </c>
-      <c r="DJ4" s="12" t="str" cm="1">
+      <c r="DJ4" s="11" t="str" cm="1">
         <f t="array" ref="DJ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DK4" s="12" cm="1">
+      <c r="DK4" s="11" cm="1">
         <f t="array" ref="DK4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J4))),"")</f>
         <v>21.154016130814249</v>
       </c>
-      <c r="DL4" s="12" t="str" cm="1">
+      <c r="DL4" s="11" t="str" cm="1">
         <f t="array" ref="DL4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DM4" s="12" t="str" cm="1">
+      <c r="DM4" s="11" t="str" cm="1">
         <f t="array" ref="DM4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DN4" s="12" t="str" cm="1">
+      <c r="DN4" s="11" t="str" cm="1">
         <f t="array" ref="DN4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DO4" s="12" cm="1">
+      <c r="DO4" s="11" cm="1">
         <f t="array" ref="DO4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J4))),"")</f>
         <v>30.943914169441399</v>
       </c>
-      <c r="DP4" s="12" t="str" cm="1">
+      <c r="DP4" s="11" t="str" cm="1">
         <f t="array" ref="DP4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DQ4" s="12" t="str" cm="1">
+      <c r="DQ4" s="11" t="str" cm="1">
         <f t="array" ref="DQ4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DR4" s="12" cm="1">
+      <c r="DR4" s="11" cm="1">
         <f t="array" ref="DR4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J4))),"")</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="DS4" s="12" cm="1">
+      <c r="DS4" s="11" cm="1">
         <f t="array" ref="DS4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J4))),"")</f>
         <v>33.809289617486343</v>
       </c>
-      <c r="DT4" s="12" cm="1">
+      <c r="DT4" s="11" cm="1">
         <f t="array" ref="DT4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J4))),"")</f>
         <v>46.239931034482751</v>
       </c>
-      <c r="DU4" s="12" cm="1">
+      <c r="DU4" s="11" cm="1">
         <f t="array" ref="DU4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J4))),"")</f>
         <v>55.012</v>
       </c>
-      <c r="DV4" s="12" t="str" cm="1">
+      <c r="DV4" s="11" t="str" cm="1">
         <f t="array" ref="DV4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-      <c r="DW4" s="12" cm="1">
+      <c r="DW4" s="11" cm="1">
         <f t="array" ref="DW4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J4))),"")</f>
         <v>57.5</v>
       </c>
-      <c r="DX4" s="12" cm="1">
+      <c r="DX4" s="11" cm="1">
         <f t="array" ref="DX4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J4))),"")</f>
         <v>23</v>
       </c>
-      <c r="DY4" s="12" t="str" cm="1">
+      <c r="DY4" s="11" t="str" cm="1">
         <f t="array" ref="DY4">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J4))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB4">
+        <f t="shared" ref="EB4:EB12" si="0">MAX(K4:DY4)</f>
+        <v>93.659000000000006</v>
+      </c>
+      <c r="EC4" t="str" cm="1">
+        <f t="array" ref="EC4">INDEX($K$2:$DY$2,0,MATCH(EB4,K4:DY4,0))</f>
+        <v>Qatar</v>
+      </c>
+      <c r="EF4">
+        <f t="shared" ref="EF4:EF13" si="1">_xlfn.MINIFS(K4:DY4,K4:DY4,"&gt;=0")</f>
+        <v>10.144927536231901</v>
+      </c>
+      <c r="EG4" t="str" cm="1">
+        <f t="array" ref="EG4">INDEX($K$2:$DY$2,0,MATCH($EF4,$K4:$DY4,0))</f>
+        <v>North Macedonia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>56775168</v>
       </c>
@@ -5615,487 +5709,503 @@
       <c r="F5" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>2012</v>
       </c>
-      <c r="K5" s="12" cm="1">
+      <c r="K5" s="11" cm="1">
         <f t="array" ref="K5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J5))),"")</f>
         <v>24.351196258873799</v>
       </c>
-      <c r="L5" s="12" t="str" cm="1">
+      <c r="L5" s="11" t="str" cm="1">
         <f t="array" ref="L5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="M5" s="12" cm="1">
+      <c r="M5" s="11" cm="1">
         <f t="array" ref="M5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J5))),"")</f>
         <v>35.036987322893403</v>
       </c>
-      <c r="N5" s="12" cm="1">
+      <c r="N5" s="11" cm="1">
         <f t="array" ref="N5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J5))),"")</f>
         <v>24.2749428593476</v>
       </c>
-      <c r="O5" s="12" cm="1">
+      <c r="O5" s="11" cm="1">
         <f t="array" ref="O5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J5))),"")</f>
         <v>59.475979454741598</v>
       </c>
-      <c r="P5" s="12" cm="1">
+      <c r="P5" s="11" cm="1">
         <f t="array" ref="P5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J5))),"")</f>
         <v>21.584362139917701</v>
       </c>
-      <c r="Q5" s="12" cm="1">
+      <c r="Q5" s="11" cm="1">
         <f t="array" ref="Q5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J5))),"")</f>
         <v>37.935784999375699</v>
       </c>
-      <c r="R5" s="12" cm="1">
+      <c r="R5" s="11" cm="1">
         <f t="array" ref="R5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J5))),"")</f>
         <v>60.192322861465897</v>
       </c>
-      <c r="S5" s="12" cm="1">
+      <c r="S5" s="11" cm="1">
         <f t="array" ref="S5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J5))),"")</f>
         <v>37.965530068195903</v>
       </c>
-      <c r="T5" s="12" cm="1">
+      <c r="T5" s="11" cm="1">
         <f t="array" ref="T5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J5))),"")</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="U5" s="12" cm="1">
+      <c r="U5" s="11" cm="1">
         <f t="array" ref="U5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J5))),"")</f>
         <v>51.984126984127002</v>
       </c>
-      <c r="V5" s="12" t="str" cm="1">
+      <c r="V5" s="11" t="str" cm="1">
         <f t="array" ref="V5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="W5" s="12" cm="1">
+      <c r="W5" s="11" cm="1">
         <f t="array" ref="W5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J5))),"")</f>
         <v>22.138670648776351</v>
       </c>
-      <c r="X5" s="12" t="str" cm="1">
+      <c r="X5" s="11" t="str" cm="1">
         <f t="array" ref="X5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="Y5" s="12" cm="1">
+      <c r="Y5" s="11" cm="1">
         <f t="array" ref="Y5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J5))),"")</f>
         <v>37.947044334975395</v>
       </c>
-      <c r="Z5" s="12" t="str" cm="1">
+      <c r="Z5" s="11" t="str" cm="1">
         <f t="array" ref="Z5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AA5" s="12" cm="1">
+      <c r="AA5" s="11" cm="1">
         <f t="array" ref="AA5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J5))),"")</f>
         <v>9.9849306811332106</v>
       </c>
-      <c r="AB5" s="12" cm="1">
+      <c r="AB5" s="11" cm="1">
         <f t="array" ref="AB5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J5))),"")</f>
         <v>53.3333333333333</v>
       </c>
-      <c r="AC5" s="12" cm="1">
+      <c r="AC5" s="11" cm="1">
         <f t="array" ref="AC5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J5))),"")</f>
         <v>44.018984215045236</v>
       </c>
-      <c r="AD5" s="12" cm="1">
+      <c r="AD5" s="11" cm="1">
         <f t="array" ref="AD5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J5))),"")</f>
         <v>40.066615176675</v>
       </c>
-      <c r="AE5" s="12" cm="1">
+      <c r="AE5" s="11" cm="1">
         <f t="array" ref="AE5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J5))),"")</f>
         <v>40.444255985679149</v>
       </c>
-      <c r="AF5" s="12" cm="1">
+      <c r="AF5" s="11" cm="1">
         <f t="array" ref="AF5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J5))),"")</f>
         <v>51.922503446917503</v>
       </c>
-      <c r="AG5" s="12" t="str" cm="1">
+      <c r="AG5" s="11" t="str" cm="1">
         <f t="array" ref="AG5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AH5" s="12" cm="1">
+      <c r="AH5" s="11" cm="1">
         <f t="array" ref="AH5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J5))),"")</f>
         <v>25.583970856101967</v>
       </c>
-      <c r="AI5" s="12" cm="1">
+      <c r="AI5" s="11" cm="1">
         <f t="array" ref="AI5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J5))),"")</f>
         <v>58.641975308642003</v>
       </c>
-      <c r="AJ5" s="12" cm="1">
+      <c r="AJ5" s="11" cm="1">
         <f t="array" ref="AJ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J5))),"")</f>
         <v>20.0094211344211</v>
       </c>
-      <c r="AK5" s="12" t="str" cm="1">
+      <c r="AK5" s="11" t="str" cm="1">
         <f t="array" ref="AK5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AL5" s="12" cm="1">
+      <c r="AL5" s="11" cm="1">
         <f t="array" ref="AL5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J5))),"")</f>
         <v>48.714285714285701</v>
       </c>
-      <c r="AM5" s="12" cm="1">
+      <c r="AM5" s="11" cm="1">
         <f t="array" ref="AM5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J5))),"")</f>
         <v>53.630059397966399</v>
       </c>
-      <c r="AN5" s="12" t="str" cm="1">
+      <c r="AN5" s="11" t="str" cm="1">
         <f t="array" ref="AN5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AO5" s="12" cm="1">
+      <c r="AO5" s="11" cm="1">
         <f t="array" ref="AO5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J5))),"")</f>
         <v>19.7530864197531</v>
       </c>
-      <c r="AP5" s="12" t="str" cm="1">
+      <c r="AP5" s="11" t="str" cm="1">
         <f t="array" ref="AP5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AQ5" s="12" cm="1">
+      <c r="AQ5" s="11" cm="1">
         <f t="array" ref="AQ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J5))),"")</f>
         <v>24.6913580246914</v>
       </c>
-      <c r="AR5" s="12" cm="1">
+      <c r="AR5" s="11" cm="1">
         <f t="array" ref="AR5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J5))),"")</f>
         <v>37.035914702581401</v>
       </c>
-      <c r="AS5" s="12" cm="1">
+      <c r="AS5" s="11" cm="1">
         <f t="array" ref="AS5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J5))),"")</f>
         <v>18.565932058931001</v>
       </c>
-      <c r="AT5" s="12" cm="1">
+      <c r="AT5" s="11" cm="1">
         <f t="array" ref="AT5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J5))),"")</f>
         <v>27.926954732510296</v>
       </c>
-      <c r="AU5" s="12" cm="1">
+      <c r="AU5" s="11" cm="1">
         <f t="array" ref="AU5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J5))),"")</f>
         <v>45.361597749577903</v>
       </c>
-      <c r="AV5" s="12" cm="1">
+      <c r="AV5" s="11" cm="1">
         <f t="array" ref="AV5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J5))),"")</f>
         <v>23.458527069638201</v>
       </c>
-      <c r="AW5" s="12" t="str" cm="1">
+      <c r="AW5" s="11" t="str" cm="1">
         <f t="array" ref="AW5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AX5" s="12" t="str" cm="1">
+      <c r="AX5" s="11" t="str" cm="1">
         <f t="array" ref="AX5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="AY5" s="12" cm="1">
+      <c r="AY5" s="11" cm="1">
         <f t="array" ref="AY5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J5))),"")</f>
         <v>19.434846989141199</v>
       </c>
-      <c r="AZ5" s="12" cm="1">
+      <c r="AZ5" s="11" cm="1">
         <f t="array" ref="AZ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J5))),"")</f>
         <v>50.511349463706701</v>
       </c>
-      <c r="BA5" s="12" cm="1">
+      <c r="BA5" s="11" cm="1">
         <f t="array" ref="BA5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J5))),"")</f>
         <v>24.430915759969253</v>
       </c>
-      <c r="BB5" s="12" cm="1">
+      <c r="BB5" s="11" cm="1">
         <f t="array" ref="BB5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J5))),"")</f>
         <v>44.221136178226402</v>
       </c>
-      <c r="BC5" s="12" cm="1">
+      <c r="BC5" s="11" cm="1">
         <f t="array" ref="BC5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J5))),"")</f>
         <v>37.3978272613288</v>
       </c>
-      <c r="BD5" s="12" t="str" cm="1">
+      <c r="BD5" s="11" t="str" cm="1">
         <f t="array" ref="BD5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BE5" s="12" cm="1">
+      <c r="BE5" s="11" cm="1">
         <f t="array" ref="BE5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J5))),"")</f>
         <v>46.5277777777778</v>
       </c>
-      <c r="BF5" s="12" cm="1">
+      <c r="BF5" s="11" cm="1">
         <f t="array" ref="BF5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J5))),"")</f>
         <v>22.948717948717949</v>
       </c>
-      <c r="BG5" s="12" cm="1">
+      <c r="BG5" s="11" cm="1">
         <f t="array" ref="BG5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J5))),"")</f>
         <v>33.268312757201656</v>
       </c>
-      <c r="BH5" s="12" t="str" cm="1">
+      <c r="BH5" s="11" t="str" cm="1">
         <f t="array" ref="BH5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BI5" s="12" cm="1">
+      <c r="BI5" s="11" cm="1">
         <f t="array" ref="BI5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J5))),"")</f>
         <v>48.128342245989302</v>
       </c>
-      <c r="BJ5" s="12" cm="1">
+      <c r="BJ5" s="11" cm="1">
         <f t="array" ref="BJ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J5))),"")</f>
         <v>43.147345612134302</v>
       </c>
-      <c r="BK5" s="12" cm="1">
+      <c r="BK5" s="11" cm="1">
         <f t="array" ref="BK5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J5))),"")</f>
         <v>32.250252429635196</v>
       </c>
-      <c r="BL5" s="12" cm="1">
+      <c r="BL5" s="11" cm="1">
         <f t="array" ref="BL5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J5))),"")</f>
         <v>45.692689264202201</v>
       </c>
-      <c r="BM5" s="12" t="str" cm="1">
+      <c r="BM5" s="11" t="str" cm="1">
         <f t="array" ref="BM5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BN5" s="12" t="str" cm="1">
+      <c r="BN5" s="11" t="str" cm="1">
         <f t="array" ref="BN5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BO5" s="12" cm="1">
+      <c r="BO5" s="11" cm="1">
         <f t="array" ref="BO5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J5))),"")</f>
         <v>17.723515932250901</v>
       </c>
-      <c r="BP5" s="12" cm="1">
+      <c r="BP5" s="11" cm="1">
         <f t="array" ref="BP5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J5))),"")</f>
         <v>60.210830004438499</v>
       </c>
-      <c r="BQ5" s="12" t="str" cm="1">
+      <c r="BQ5" s="11" t="str" cm="1">
         <f t="array" ref="BQ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BR5" s="12" cm="1">
+      <c r="BR5" s="11" cm="1">
         <f t="array" ref="BR5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J5))),"")</f>
         <v>12.4463229309396</v>
       </c>
-      <c r="BS5" s="12" cm="1">
+      <c r="BS5" s="11" cm="1">
         <f t="array" ref="BS5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J5))),"")</f>
         <v>52.469135802469097</v>
       </c>
-      <c r="BT5" s="12" cm="1">
+      <c r="BT5" s="11" cm="1">
         <f t="array" ref="BT5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J5))),"")</f>
         <v>43.1027253668763</v>
       </c>
-      <c r="BU5" s="12" t="str" cm="1">
+      <c r="BU5" s="11" t="str" cm="1">
         <f t="array" ref="BU5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BV5" s="12" t="str" cm="1">
+      <c r="BV5" s="11" t="str" cm="1">
         <f t="array" ref="BV5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BW5" s="12" t="str" cm="1">
+      <c r="BW5" s="11" t="str" cm="1">
         <f t="array" ref="BW5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BX5" s="12" cm="1">
+      <c r="BX5" s="11" cm="1">
         <f t="array" ref="BX5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J5))),"")</f>
         <v>25.938830816879562</v>
       </c>
-      <c r="BY5" s="12" t="str" cm="1">
+      <c r="BY5" s="11" t="str" cm="1">
         <f t="array" ref="BY5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="BZ5" s="12" t="str" cm="1">
+      <c r="BZ5" s="11" t="str" cm="1">
         <f t="array" ref="BZ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CA5" s="12" t="str" cm="1">
+      <c r="CA5" s="11" t="str" cm="1">
         <f t="array" ref="CA5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CB5" s="12" t="str" cm="1">
+      <c r="CB5" s="11" t="str" cm="1">
         <f t="array" ref="CB5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CC5" s="12" t="str" cm="1">
+      <c r="CC5" s="11" t="str" cm="1">
         <f t="array" ref="CC5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CD5" s="12" cm="1">
+      <c r="CD5" s="11" cm="1">
         <f t="array" ref="CD5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J5))),"")</f>
         <v>26.735118488725298</v>
       </c>
-      <c r="CE5" s="12" cm="1">
+      <c r="CE5" s="11" cm="1">
         <f t="array" ref="CE5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J5))),"")</f>
         <v>55.964912280701732</v>
       </c>
-      <c r="CF5" s="12" t="str" cm="1">
+      <c r="CF5" s="11" t="str" cm="1">
         <f t="array" ref="CF5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CG5" s="12" cm="1">
+      <c r="CG5" s="11" cm="1">
         <f t="array" ref="CG5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J5))),"")</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="CH5" s="12" cm="1">
+      <c r="CH5" s="11" cm="1">
         <f t="array" ref="CH5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J5))),"")</f>
         <v>14.032781220942599</v>
       </c>
-      <c r="CI5" s="12" cm="1">
+      <c r="CI5" s="11" cm="1">
         <f t="array" ref="CI5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J5))),"")</f>
         <v>58.285409765672924</v>
       </c>
-      <c r="CJ5" s="12" cm="1">
+      <c r="CJ5" s="11" cm="1">
         <f t="array" ref="CJ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J5))),"")</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="CK5" s="12" cm="1">
+      <c r="CK5" s="11" cm="1">
         <f t="array" ref="CK5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J5))),"")</f>
         <v>31.050475892649501</v>
       </c>
-      <c r="CL5" s="12" cm="1">
+      <c r="CL5" s="11" cm="1">
         <f t="array" ref="CL5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J5))),"")</f>
         <v>40</v>
       </c>
-      <c r="CM5" s="12" t="str" cm="1">
+      <c r="CM5" s="11" t="str" cm="1">
         <f t="array" ref="CM5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="CN5" s="12" cm="1">
+      <c r="CN5" s="11" cm="1">
         <f t="array" ref="CN5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J5))),"")</f>
         <v>28.327446363160647</v>
       </c>
-      <c r="CO5" s="12" cm="1">
+      <c r="CO5" s="11" cm="1">
         <f t="array" ref="CO5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J5))),"")</f>
         <v>46.25</v>
       </c>
-      <c r="CP5" s="12" cm="1">
+      <c r="CP5" s="11" cm="1">
         <f t="array" ref="CP5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J5))),"")</f>
         <v>67.834997439836144</v>
       </c>
-      <c r="CQ5" s="12" cm="1">
+      <c r="CQ5" s="11" cm="1">
         <f t="array" ref="CQ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J5))),"")</f>
         <v>15.060894671621718</v>
       </c>
-      <c r="CR5" s="12" cm="1">
+      <c r="CR5" s="11" cm="1">
         <f t="array" ref="CR5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J5))),"")</f>
         <v>26.848640728270336</v>
       </c>
-      <c r="CS5" s="12" cm="1">
+      <c r="CS5" s="11" cm="1">
         <f t="array" ref="CS5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J5))),"")</f>
         <v>100.68089743589699</v>
       </c>
-      <c r="CT5" s="12" cm="1">
+      <c r="CT5" s="11" cm="1">
         <f t="array" ref="CT5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J5))),"")</f>
         <v>9.0805088316318301</v>
       </c>
-      <c r="CU5" s="12" cm="1">
+      <c r="CU5" s="11" cm="1">
         <f t="array" ref="CU5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J5))),"")</f>
         <v>11.536801231010749</v>
       </c>
-      <c r="CV5" s="12" cm="1">
+      <c r="CV5" s="11" cm="1">
         <f t="array" ref="CV5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J5))),"")</f>
         <v>49.930491428571443</v>
       </c>
-      <c r="CW5" s="12" cm="1">
+      <c r="CW5" s="11" cm="1">
         <f t="array" ref="CW5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J5))),"")</f>
         <v>22.3200280628737</v>
       </c>
-      <c r="CX5" s="12" cm="1">
+      <c r="CX5" s="11" cm="1">
         <f t="array" ref="CX5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J5))),"")</f>
         <v>34.500596302921899</v>
       </c>
-      <c r="CY5" s="12" cm="1">
+      <c r="CY5" s="11" cm="1">
         <f t="array" ref="CY5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J5))),"")</f>
         <v>16.872427983539101</v>
       </c>
-      <c r="CZ5" s="12" cm="1">
+      <c r="CZ5" s="11" cm="1">
         <f t="array" ref="CZ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J5))),"")</f>
         <v>33.086419753086403</v>
       </c>
-      <c r="DA5" s="12" cm="1">
+      <c r="DA5" s="11" cm="1">
         <f t="array" ref="DA5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J5))),"")</f>
         <v>80.874183006535944</v>
       </c>
-      <c r="DB5" s="12" cm="1">
+      <c r="DB5" s="11" cm="1">
         <f t="array" ref="DB5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J5))),"")</f>
         <v>20.5813706768513</v>
       </c>
-      <c r="DC5" s="12" cm="1">
+      <c r="DC5" s="11" cm="1">
         <f t="array" ref="DC5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J5))),"")</f>
         <v>41.854865527705037</v>
       </c>
-      <c r="DD5" s="12" cm="1">
+      <c r="DD5" s="11" cm="1">
         <f t="array" ref="DD5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J5))),"")</f>
         <v>23.983956769247602</v>
       </c>
-      <c r="DE5" s="12" t="str" cm="1">
+      <c r="DE5" s="11" t="str" cm="1">
         <f t="array" ref="DE5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DF5" s="12" t="str" cm="1">
+      <c r="DF5" s="11" t="str" cm="1">
         <f t="array" ref="DF5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DG5" s="12" cm="1">
+      <c r="DG5" s="11" cm="1">
         <f t="array" ref="DG5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J5))),"")</f>
         <v>27.06327372764785</v>
       </c>
-      <c r="DH5" s="12" cm="1">
+      <c r="DH5" s="11" cm="1">
         <f t="array" ref="DH5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J5))),"")</f>
         <v>49.785223367697604</v>
       </c>
-      <c r="DI5" s="12" cm="1">
+      <c r="DI5" s="11" cm="1">
         <f t="array" ref="DI5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J5))),"")</f>
         <v>26.818638954073101</v>
       </c>
-      <c r="DJ5" s="12" cm="1">
+      <c r="DJ5" s="11" cm="1">
         <f t="array" ref="DJ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J5))),"")</f>
         <v>19.197542714532499</v>
       </c>
-      <c r="DK5" s="12" cm="1">
+      <c r="DK5" s="11" cm="1">
         <f t="array" ref="DK5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J5))),"")</f>
         <v>21.865235398972398</v>
       </c>
-      <c r="DL5" s="12" t="str" cm="1">
+      <c r="DL5" s="11" t="str" cm="1">
         <f t="array" ref="DL5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DM5" s="12" t="str" cm="1">
+      <c r="DM5" s="11" t="str" cm="1">
         <f t="array" ref="DM5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DN5" s="12" cm="1">
+      <c r="DN5" s="11" cm="1">
         <f t="array" ref="DN5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J5))),"")</f>
         <v>24.970363553040698</v>
       </c>
-      <c r="DO5" s="12" cm="1">
+      <c r="DO5" s="11" cm="1">
         <f t="array" ref="DO5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J5))),"")</f>
         <v>30.246561234464451</v>
       </c>
-      <c r="DP5" s="12" t="str" cm="1">
+      <c r="DP5" s="11" t="str" cm="1">
         <f t="array" ref="DP5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DQ5" s="12" cm="1">
+      <c r="DQ5" s="11" cm="1">
         <f t="array" ref="DQ5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J5))),"")</f>
         <v>12.467972256222</v>
       </c>
-      <c r="DR5" s="12" cm="1">
+      <c r="DR5" s="11" cm="1">
         <f t="array" ref="DR5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J5))),"")</f>
         <v>72.627475022706648</v>
       </c>
-      <c r="DS5" s="12" cm="1">
+      <c r="DS5" s="11" cm="1">
         <f t="array" ref="DS5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J5))),"")</f>
         <v>32.275022803283697</v>
       </c>
-      <c r="DT5" s="12" cm="1">
+      <c r="DT5" s="11" cm="1">
         <f t="array" ref="DT5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J5))),"")</f>
         <v>44.080687127976176</v>
       </c>
-      <c r="DU5" s="12" cm="1">
+      <c r="DU5" s="11" cm="1">
         <f t="array" ref="DU5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J5))),"")</f>
         <v>36.817038697890695</v>
       </c>
-      <c r="DV5" s="12" t="str" cm="1">
+      <c r="DV5" s="11" t="str" cm="1">
         <f t="array" ref="DV5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-      <c r="DW5" s="12" cm="1">
+      <c r="DW5" s="11" cm="1">
         <f t="array" ref="DW5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J5))),"")</f>
         <v>40.052170506797196</v>
       </c>
-      <c r="DX5" s="12" cm="1">
+      <c r="DX5" s="11" cm="1">
         <f t="array" ref="DX5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J5))),"")</f>
         <v>14.81767918998135</v>
       </c>
-      <c r="DY5" s="12" t="str" cm="1">
+      <c r="DY5" s="11" t="str" cm="1">
         <f t="array" ref="DY5">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J5))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB5">
+        <f t="shared" si="0"/>
+        <v>100.68089743589699</v>
+      </c>
+      <c r="EC5" t="str" cm="1">
+        <f t="array" ref="EC5">INDEX($K$2:$DY$2,0,MATCH(EB5,K5:DY5,0))</f>
+        <v>Qatar</v>
+      </c>
+      <c r="EF5">
+        <f t="shared" si="1"/>
+        <v>9.0805088316318301</v>
+      </c>
+      <c r="EG5" t="str" cm="1">
+        <f t="array" ref="EG5">INDEX($K$2:$DY$2,0,MATCH($EF5,$K5:$DY5,0))</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="6" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>81625353</v>
       </c>
@@ -6114,487 +6224,503 @@
       <c r="F6" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>2013</v>
       </c>
-      <c r="K6" s="12" cm="1">
+      <c r="K6" s="11" cm="1">
         <f t="array" ref="K6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J6))),"")</f>
         <v>22.4740495296723</v>
       </c>
-      <c r="L6" s="12" cm="1">
+      <c r="L6" s="11" cm="1">
         <f t="array" ref="L6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J6))),"")</f>
         <v>34.263959390862901</v>
       </c>
-      <c r="M6" s="12" cm="1">
+      <c r="M6" s="11" cm="1">
         <f t="array" ref="M6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J6))),"")</f>
         <v>34.451896551724097</v>
       </c>
-      <c r="N6" s="12" cm="1">
+      <c r="N6" s="11" cm="1">
         <f t="array" ref="N6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J6))),"")</f>
         <v>20.498809238813301</v>
       </c>
-      <c r="O6" s="12" cm="1">
+      <c r="O6" s="11" cm="1">
         <f t="array" ref="O6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J6))),"")</f>
         <v>67.628863324175796</v>
       </c>
-      <c r="P6" s="12" cm="1">
+      <c r="P6" s="11" cm="1">
         <f t="array" ref="P6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J6))),"")</f>
         <v>27.625231910946201</v>
       </c>
-      <c r="Q6" s="12" cm="1">
+      <c r="Q6" s="11" cm="1">
         <f t="array" ref="Q6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J6))),"")</f>
         <v>34.170541492387898</v>
       </c>
-      <c r="R6" s="12" cm="1">
+      <c r="R6" s="11" cm="1">
         <f t="array" ref="R6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J6))),"")</f>
         <v>51.351351351351397</v>
       </c>
-      <c r="S6" s="12" cm="1">
+      <c r="S6" s="11" cm="1">
         <f t="array" ref="S6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J6))),"")</f>
         <v>40.591855440617998</v>
       </c>
-      <c r="T6" s="12" cm="1">
+      <c r="T6" s="11" cm="1">
         <f t="array" ref="T6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J6))),"")</f>
         <v>18.890597539210301</v>
       </c>
-      <c r="U6" s="12" cm="1">
+      <c r="U6" s="11" cm="1">
         <f t="array" ref="U6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J6))),"")</f>
         <v>39.716646989374254</v>
       </c>
-      <c r="V6" s="12" t="str" cm="1">
+      <c r="V6" s="11" t="str" cm="1">
         <f t="array" ref="V6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="W6" s="12" cm="1">
+      <c r="W6" s="11" cm="1">
         <f t="array" ref="W6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J6))),"")</f>
         <v>19.793912186738403</v>
       </c>
-      <c r="X6" s="12" t="str" cm="1">
+      <c r="X6" s="11" t="str" cm="1">
         <f t="array" ref="X6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="Y6" s="12" cm="1">
+      <c r="Y6" s="11" cm="1">
         <f t="array" ref="Y6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J6))),"")</f>
         <v>39.761432752086954</v>
       </c>
-      <c r="Z6" s="12" t="str" cm="1">
+      <c r="Z6" s="11" t="str" cm="1">
         <f t="array" ref="Z6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AA6" s="12" cm="1">
+      <c r="AA6" s="11" cm="1">
         <f t="array" ref="AA6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J6))),"")</f>
         <v>9.9470588235294244</v>
       </c>
-      <c r="AB6" s="12" cm="1">
+      <c r="AB6" s="11" cm="1">
         <f t="array" ref="AB6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J6))),"")</f>
         <v>86.25</v>
       </c>
-      <c r="AC6" s="12" cm="1">
+      <c r="AC6" s="11" cm="1">
         <f t="array" ref="AC6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J6))),"")</f>
         <v>49.129793504461951</v>
       </c>
-      <c r="AD6" s="12" cm="1">
+      <c r="AD6" s="11" cm="1">
         <f t="array" ref="AD6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J6))),"")</f>
         <v>36.615405099527301</v>
       </c>
-      <c r="AE6" s="12" cm="1">
+      <c r="AE6" s="11" cm="1">
         <f t="array" ref="AE6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J6))),"")</f>
         <v>31.237418902332102</v>
       </c>
-      <c r="AF6" s="12" t="str" cm="1">
+      <c r="AF6" s="11" t="str" cm="1">
         <f t="array" ref="AF6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AG6" s="12" t="str" cm="1">
+      <c r="AG6" s="11" t="str" cm="1">
         <f t="array" ref="AG6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AH6" s="12" cm="1">
+      <c r="AH6" s="11" cm="1">
         <f t="array" ref="AH6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J6))),"")</f>
         <v>26.329185520362</v>
       </c>
-      <c r="AI6" s="12" cm="1">
+      <c r="AI6" s="11" cm="1">
         <f t="array" ref="AI6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J6))),"")</f>
         <v>42.135642135642101</v>
       </c>
-      <c r="AJ6" s="12" cm="1">
+      <c r="AJ6" s="11" cm="1">
         <f t="array" ref="AJ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J6))),"")</f>
         <v>20.53782505910165</v>
       </c>
-      <c r="AK6" s="12" cm="1">
+      <c r="AK6" s="11" cm="1">
         <f t="array" ref="AK6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J6))),"")</f>
         <v>72.677999507267799</v>
       </c>
-      <c r="AL6" s="12" cm="1">
+      <c r="AL6" s="11" cm="1">
         <f t="array" ref="AL6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J6))),"")</f>
         <v>60</v>
       </c>
-      <c r="AM6" s="12" cm="1">
+      <c r="AM6" s="11" cm="1">
         <f t="array" ref="AM6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J6))),"")</f>
         <v>54.039301310043655</v>
       </c>
-      <c r="AN6" s="12" t="str" cm="1">
+      <c r="AN6" s="11" t="str" cm="1">
         <f t="array" ref="AN6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AO6" s="12" t="str" cm="1">
+      <c r="AO6" s="11" t="str" cm="1">
         <f t="array" ref="AO6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AP6" s="12" t="str" cm="1">
+      <c r="AP6" s="11" t="str" cm="1">
         <f t="array" ref="AP6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AQ6" s="12" cm="1">
+      <c r="AQ6" s="11" cm="1">
         <f t="array" ref="AQ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J6))),"")</f>
         <v>27.05627705627705</v>
       </c>
-      <c r="AR6" s="12" cm="1">
+      <c r="AR6" s="11" cm="1">
         <f t="array" ref="AR6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J6))),"")</f>
         <v>37.425029515938597</v>
       </c>
-      <c r="AS6" s="12" cm="1">
+      <c r="AS6" s="11" cm="1">
         <f t="array" ref="AS6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J6))),"")</f>
         <v>15.799446069422499</v>
       </c>
-      <c r="AT6" s="12" cm="1">
+      <c r="AT6" s="11" cm="1">
         <f t="array" ref="AT6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J6))),"")</f>
         <v>31.846165739022883</v>
       </c>
-      <c r="AU6" s="12" t="str" cm="1">
+      <c r="AU6" s="11" t="str" cm="1">
         <f t="array" ref="AU6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AV6" s="12" cm="1">
+      <c r="AV6" s="11" cm="1">
         <f t="array" ref="AV6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J6))),"")</f>
         <v>23.958874458874448</v>
       </c>
-      <c r="AW6" s="12" t="str" cm="1">
+      <c r="AW6" s="11" t="str" cm="1">
         <f t="array" ref="AW6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AX6" s="12" t="str" cm="1">
+      <c r="AX6" s="11" t="str" cm="1">
         <f t="array" ref="AX6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="AY6" s="12" cm="1">
+      <c r="AY6" s="11" cm="1">
         <f t="array" ref="AY6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J6))),"")</f>
         <v>16.2961503087636</v>
       </c>
-      <c r="AZ6" s="12" t="str" cm="1">
+      <c r="AZ6" s="11" t="str" cm="1">
         <f t="array" ref="AZ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BA6" s="12" cm="1">
+      <c r="BA6" s="11" cm="1">
         <f t="array" ref="BA6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J6))),"")</f>
         <v>25.200571928496561</v>
       </c>
-      <c r="BB6" s="12" cm="1">
+      <c r="BB6" s="11" cm="1">
         <f t="array" ref="BB6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J6))),"")</f>
         <v>46.557028527039904</v>
       </c>
-      <c r="BC6" s="12" cm="1">
+      <c r="BC6" s="11" cm="1">
         <f t="array" ref="BC6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J6))),"")</f>
         <v>49.543255859348101</v>
       </c>
-      <c r="BD6" s="12" t="str" cm="1">
+      <c r="BD6" s="11" t="str" cm="1">
         <f t="array" ref="BD6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BE6" s="12" cm="1">
+      <c r="BE6" s="11" cm="1">
         <f t="array" ref="BE6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J6))),"")</f>
         <v>42.665429808286945</v>
       </c>
-      <c r="BF6" s="12" cm="1">
+      <c r="BF6" s="11" cm="1">
         <f t="array" ref="BF6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J6))),"")</f>
         <v>24.456521739130402</v>
       </c>
-      <c r="BG6" s="12" cm="1">
+      <c r="BG6" s="11" cm="1">
         <f t="array" ref="BG6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J6))),"")</f>
         <v>33.397284533648154</v>
       </c>
-      <c r="BH6" s="12" cm="1">
+      <c r="BH6" s="11" cm="1">
         <f t="array" ref="BH6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J6))),"")</f>
         <v>30.5338809034908</v>
       </c>
-      <c r="BI6" s="12" cm="1">
+      <c r="BI6" s="11" cm="1">
         <f t="array" ref="BI6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J6))),"")</f>
         <v>35.370124053313098</v>
       </c>
-      <c r="BJ6" s="12" cm="1">
+      <c r="BJ6" s="11" cm="1">
         <f t="array" ref="BJ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J6))),"")</f>
         <v>44.953051643192502</v>
       </c>
-      <c r="BK6" s="12" cm="1">
+      <c r="BK6" s="11" cm="1">
         <f t="array" ref="BK6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J6))),"")</f>
         <v>27.827346004160201</v>
       </c>
-      <c r="BL6" s="12" cm="1">
+      <c r="BL6" s="11" cm="1">
         <f t="array" ref="BL6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J6))),"")</f>
         <v>43.8544033807758</v>
       </c>
-      <c r="BM6" s="12" cm="1">
+      <c r="BM6" s="11" cm="1">
         <f t="array" ref="BM6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J6))),"")</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="BN6" s="12" t="str" cm="1">
+      <c r="BN6" s="11" t="str" cm="1">
         <f t="array" ref="BN6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BO6" s="12" cm="1">
+      <c r="BO6" s="11" cm="1">
         <f t="array" ref="BO6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J6))),"")</f>
         <v>18.093234322227499</v>
       </c>
-      <c r="BP6" s="12" cm="1">
+      <c r="BP6" s="11" cm="1">
         <f t="array" ref="BP6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J6))),"")</f>
         <v>66.546813584709497</v>
       </c>
-      <c r="BQ6" s="12" cm="1">
+      <c r="BQ6" s="11" cm="1">
         <f t="array" ref="BQ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J6))),"")</f>
         <v>21.1640211640212</v>
       </c>
-      <c r="BR6" s="12" cm="1">
+      <c r="BR6" s="11" cm="1">
         <f t="array" ref="BR6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J6))),"")</f>
         <v>11.6444829206209</v>
       </c>
-      <c r="BS6" s="12" t="str" cm="1">
+      <c r="BS6" s="11" t="str" cm="1">
         <f t="array" ref="BS6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BT6" s="12" cm="1">
+      <c r="BT6" s="11" cm="1">
         <f t="array" ref="BT6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J6))),"")</f>
         <v>48.28634085213033</v>
       </c>
-      <c r="BU6" s="12" t="str" cm="1">
+      <c r="BU6" s="11" t="str" cm="1">
         <f t="array" ref="BU6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BV6" s="12" t="str" cm="1">
+      <c r="BV6" s="11" t="str" cm="1">
         <f t="array" ref="BV6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BW6" s="12" t="str" cm="1">
+      <c r="BW6" s="11" t="str" cm="1">
         <f t="array" ref="BW6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="BX6" s="12" cm="1">
+      <c r="BX6" s="11" cm="1">
         <f t="array" ref="BX6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J6))),"")</f>
         <v>32.22801788375557</v>
       </c>
-      <c r="BY6" s="12" cm="1">
+      <c r="BY6" s="11" cm="1">
         <f t="array" ref="BY6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J6))),"")</f>
         <v>36.385161135657199</v>
       </c>
-      <c r="BZ6" s="12" t="str" cm="1">
+      <c r="BZ6" s="11" t="str" cm="1">
         <f t="array" ref="BZ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CA6" s="12" t="str" cm="1">
+      <c r="CA6" s="11" t="str" cm="1">
         <f t="array" ref="CA6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CB6" s="12" t="str" cm="1">
+      <c r="CB6" s="11" t="str" cm="1">
         <f t="array" ref="CB6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CC6" s="12" t="str" cm="1">
+      <c r="CC6" s="11" t="str" cm="1">
         <f t="array" ref="CC6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CD6" s="12" cm="1">
+      <c r="CD6" s="11" cm="1">
         <f t="array" ref="CD6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J6))),"")</f>
         <v>29.290336978353</v>
       </c>
-      <c r="CE6" s="12" cm="1">
+      <c r="CE6" s="11" cm="1">
         <f t="array" ref="CE6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J6))),"")</f>
         <v>78.392592592592607</v>
       </c>
-      <c r="CF6" s="12" t="str" cm="1">
+      <c r="CF6" s="11" t="str" cm="1">
         <f t="array" ref="CF6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CG6" s="12" cm="1">
+      <c r="CG6" s="11" cm="1">
         <f t="array" ref="CG6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J6))),"")</f>
         <v>79.1156157119336</v>
       </c>
-      <c r="CH6" s="12" cm="1">
+      <c r="CH6" s="11" cm="1">
         <f t="array" ref="CH6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J6))),"")</f>
         <v>15.3053228707948</v>
       </c>
-      <c r="CI6" s="12" cm="1">
+      <c r="CI6" s="11" cm="1">
         <f t="array" ref="CI6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J6))),"")</f>
         <v>55.240528920256352</v>
       </c>
-      <c r="CJ6" s="12" cm="1">
+      <c r="CJ6" s="11" cm="1">
         <f t="array" ref="CJ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J6))),"")</f>
         <v>63.596491228070199</v>
       </c>
-      <c r="CK6" s="12" cm="1">
+      <c r="CK6" s="11" cm="1">
         <f t="array" ref="CK6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J6))),"")</f>
         <v>31.694477381553252</v>
       </c>
-      <c r="CL6" s="12" cm="1">
+      <c r="CL6" s="11" cm="1">
         <f t="array" ref="CL6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J6))),"")</f>
         <v>38.996666666666698</v>
       </c>
-      <c r="CM6" s="12" t="str" cm="1">
+      <c r="CM6" s="11" t="str" cm="1">
         <f t="array" ref="CM6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="CN6" s="12" cm="1">
+      <c r="CN6" s="11" cm="1">
         <f t="array" ref="CN6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J6))),"")</f>
         <v>19.838338132455775</v>
       </c>
-      <c r="CO6" s="12" cm="1">
+      <c r="CO6" s="11" cm="1">
         <f t="array" ref="CO6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J6))),"")</f>
         <v>60.323383084577102</v>
       </c>
-      <c r="CP6" s="12" cm="1">
+      <c r="CP6" s="11" cm="1">
         <f t="array" ref="CP6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J6))),"")</f>
         <v>57.615966120478106</v>
       </c>
-      <c r="CQ6" s="12" cm="1">
+      <c r="CQ6" s="11" cm="1">
         <f t="array" ref="CQ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J6))),"")</f>
         <v>14.974641559530841</v>
       </c>
-      <c r="CR6" s="12" cm="1">
+      <c r="CR6" s="11" cm="1">
         <f t="array" ref="CR6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J6))),"")</f>
         <v>28.354978354978368</v>
       </c>
-      <c r="CS6" s="12" cm="1">
+      <c r="CS6" s="11" cm="1">
         <f t="array" ref="CS6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J6))),"")</f>
         <v>91.5227629513344</v>
       </c>
-      <c r="CT6" s="12" cm="1">
+      <c r="CT6" s="11" cm="1">
         <f t="array" ref="CT6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J6))),"")</f>
         <v>9.4996894327515999</v>
       </c>
-      <c r="CU6" s="12" cm="1">
+      <c r="CU6" s="11" cm="1">
         <f t="array" ref="CU6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J6))),"")</f>
         <v>12.003351471117575</v>
       </c>
-      <c r="CV6" s="12" cm="1">
+      <c r="CV6" s="11" cm="1">
         <f t="array" ref="CV6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J6))),"")</f>
         <v>61.985185185185202</v>
       </c>
-      <c r="CW6" s="12" cm="1">
+      <c r="CW6" s="11" cm="1">
         <f t="array" ref="CW6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J6))),"")</f>
         <v>21.025517749778402</v>
       </c>
-      <c r="CX6" s="12" cm="1">
+      <c r="CX6" s="11" cm="1">
         <f t="array" ref="CX6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J6))),"")</f>
         <v>32.176527176527202</v>
       </c>
-      <c r="CY6" s="12" cm="1">
+      <c r="CY6" s="11" cm="1">
         <f t="array" ref="CY6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J6))),"")</f>
         <v>15.464285714285699</v>
       </c>
-      <c r="CZ6" s="12" cm="1">
+      <c r="CZ6" s="11" cm="1">
         <f t="array" ref="CZ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J6))),"")</f>
         <v>34.285714285714299</v>
       </c>
-      <c r="DA6" s="12" cm="1">
+      <c r="DA6" s="11" cm="1">
         <f t="array" ref="DA6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J6))),"")</f>
         <v>61.069002650762101</v>
       </c>
-      <c r="DB6" s="12" cm="1">
+      <c r="DB6" s="11" cm="1">
         <f t="array" ref="DB6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J6))),"")</f>
         <v>26.182737450343101</v>
       </c>
-      <c r="DC6" s="12" cm="1">
+      <c r="DC6" s="11" cm="1">
         <f t="array" ref="DC6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J6))),"")</f>
         <v>43.58540764790763</v>
       </c>
-      <c r="DD6" s="12" cm="1">
+      <c r="DD6" s="11" cm="1">
         <f t="array" ref="DD6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J6))),"")</f>
         <v>19.220984792809102</v>
       </c>
-      <c r="DE6" s="12" t="str" cm="1">
+      <c r="DE6" s="11" t="str" cm="1">
         <f t="array" ref="DE6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DF6" s="12" t="str" cm="1">
+      <c r="DF6" s="11" t="str" cm="1">
         <f t="array" ref="DF6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DG6" s="12" cm="1">
+      <c r="DG6" s="11" cm="1">
         <f t="array" ref="DG6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J6))),"")</f>
         <v>31.101040617656899</v>
       </c>
-      <c r="DH6" s="12" cm="1">
+      <c r="DH6" s="11" cm="1">
         <f t="array" ref="DH6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J6))),"")</f>
         <v>52.886904761904781</v>
       </c>
-      <c r="DI6" s="12" cm="1">
+      <c r="DI6" s="11" cm="1">
         <f t="array" ref="DI6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J6))),"")</f>
         <v>38.579720040969605</v>
       </c>
-      <c r="DJ6" s="12" cm="1">
+      <c r="DJ6" s="11" cm="1">
         <f t="array" ref="DJ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J6))),"")</f>
         <v>85.560290799699203</v>
       </c>
-      <c r="DK6" s="12" cm="1">
+      <c r="DK6" s="11" cm="1">
         <f t="array" ref="DK6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J6))),"")</f>
         <v>21.347039658465349</v>
       </c>
-      <c r="DL6" s="12" t="str" cm="1">
+      <c r="DL6" s="11" t="str" cm="1">
         <f t="array" ref="DL6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DM6" s="12" cm="1">
+      <c r="DM6" s="11" cm="1">
         <f t="array" ref="DM6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J6))),"")</f>
         <v>42.260961436872698</v>
       </c>
-      <c r="DN6" s="12" cm="1">
+      <c r="DN6" s="11" cm="1">
         <f t="array" ref="DN6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J6))),"")</f>
         <v>22.967791411042899</v>
       </c>
-      <c r="DO6" s="12" cm="1">
+      <c r="DO6" s="11" cm="1">
         <f t="array" ref="DO6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J6))),"")</f>
         <v>29.662698412698401</v>
       </c>
-      <c r="DP6" s="12" t="str" cm="1">
+      <c r="DP6" s="11" t="str" cm="1">
         <f t="array" ref="DP6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DQ6" s="12" cm="1">
+      <c r="DQ6" s="11" cm="1">
         <f t="array" ref="DQ6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J6))),"")</f>
         <v>7.8216987976782804</v>
       </c>
-      <c r="DR6" s="12" cm="1">
+      <c r="DR6" s="11" cm="1">
         <f t="array" ref="DR6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J6))),"")</f>
         <v>74.083103611283732</v>
       </c>
-      <c r="DS6" s="12" cm="1">
+      <c r="DS6" s="11" cm="1">
         <f t="array" ref="DS6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J6))),"")</f>
         <v>30.22727272727272</v>
       </c>
-      <c r="DT6" s="12" cm="1">
+      <c r="DT6" s="11" cm="1">
         <f t="array" ref="DT6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J6))),"")</f>
         <v>47.285912698412702</v>
       </c>
-      <c r="DU6" s="12" cm="1">
+      <c r="DU6" s="11" cm="1">
         <f t="array" ref="DU6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J6))),"")</f>
         <v>47.008113590263697</v>
       </c>
-      <c r="DV6" s="12" t="str" cm="1">
+      <c r="DV6" s="11" t="str" cm="1">
         <f t="array" ref="DV6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DW6" s="12" cm="1">
+      <c r="DW6" s="11" cm="1">
         <f t="array" ref="DW6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J6))),"")</f>
         <v>63.875176189355201</v>
       </c>
-      <c r="DX6" s="12" t="str" cm="1">
+      <c r="DX6" s="11" t="str" cm="1">
         <f t="array" ref="DX6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J6))),"")</f>
         <v/>
       </c>
-      <c r="DY6" s="12" cm="1">
+      <c r="DY6" s="11" cm="1">
         <f t="array" ref="DY6">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J6))),"")</f>
         <v>86.6666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB6">
+        <f t="shared" si="0"/>
+        <v>91.5227629513344</v>
+      </c>
+      <c r="EC6" t="str" cm="1">
+        <f t="array" ref="EC6">INDEX($K$2:$DY$2,0,MATCH(EB6,K6:DY6,0))</f>
+        <v>Qatar</v>
+      </c>
+      <c r="EF6">
+        <f t="shared" si="1"/>
+        <v>7.8216987976782804</v>
+      </c>
+      <c r="EG6" t="str" cm="1">
+        <f t="array" ref="EG6">INDEX($K$2:$DY$2,0,MATCH($EF6,$K6:$DY6,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="7" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>85035980</v>
       </c>
@@ -6613,487 +6739,503 @@
       <c r="F7" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>2014</v>
       </c>
-      <c r="K7" s="12" cm="1">
+      <c r="K7" s="11" cm="1">
         <f t="array" ref="K7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J7))),"")</f>
         <v>24.886661806585501</v>
       </c>
-      <c r="L7" s="12" t="str" cm="1">
+      <c r="L7" s="11" t="str" cm="1">
         <f t="array" ref="L7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="M7" s="12" cm="1">
+      <c r="M7" s="11" cm="1">
         <f t="array" ref="M7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J7))),"")</f>
         <v>36.875</v>
       </c>
-      <c r="N7" s="12" cm="1">
+      <c r="N7" s="11" cm="1">
         <f t="array" ref="N7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J7))),"")</f>
         <v>16.3270706769061</v>
       </c>
-      <c r="O7" s="12" cm="1">
+      <c r="O7" s="11" cm="1">
         <f t="array" ref="O7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J7))),"")</f>
         <v>65.807001832186799</v>
       </c>
-      <c r="P7" s="12" cm="1">
+      <c r="P7" s="11" cm="1">
         <f t="array" ref="P7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J7))),"")</f>
         <v>27.860933460334699</v>
       </c>
-      <c r="Q7" s="12" cm="1">
+      <c r="Q7" s="11" cm="1">
         <f t="array" ref="Q7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J7))),"")</f>
         <v>32.508924018358002</v>
       </c>
-      <c r="R7" s="12" cm="1">
+      <c r="R7" s="11" cm="1">
         <f t="array" ref="R7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J7))),"")</f>
         <v>46.271735926908299</v>
       </c>
-      <c r="S7" s="12" cm="1">
+      <c r="S7" s="11" cm="1">
         <f t="array" ref="S7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J7))),"")</f>
         <v>40.860215053763397</v>
       </c>
-      <c r="T7" s="12" cm="1">
+      <c r="T7" s="11" cm="1">
         <f t="array" ref="T7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J7))),"")</f>
         <v>20.073334987091499</v>
       </c>
-      <c r="U7" s="12" cm="1">
+      <c r="U7" s="11" cm="1">
         <f t="array" ref="U7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J7))),"")</f>
         <v>49.240032657504401</v>
       </c>
-      <c r="V7" s="12" t="str" cm="1">
+      <c r="V7" s="11" t="str" cm="1">
         <f t="array" ref="V7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="W7" s="12" cm="1">
+      <c r="W7" s="11" cm="1">
         <f t="array" ref="W7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J7))),"")</f>
         <v>17.931098308692551</v>
       </c>
-      <c r="X7" s="12" t="str" cm="1">
+      <c r="X7" s="11" t="str" cm="1">
         <f t="array" ref="X7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="12" cm="1">
+      <c r="Y7" s="11" cm="1">
         <f t="array" ref="Y7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J7))),"")</f>
         <v>33.856288162461674</v>
       </c>
-      <c r="Z7" s="12" t="str" cm="1">
+      <c r="Z7" s="11" t="str" cm="1">
         <f t="array" ref="Z7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AA7" s="12" cm="1">
+      <c r="AA7" s="11" cm="1">
         <f t="array" ref="AA7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J7))),"")</f>
         <v>10.734963640585542</v>
       </c>
-      <c r="AB7" s="12" cm="1">
+      <c r="AB7" s="11" cm="1">
         <f t="array" ref="AB7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J7))),"")</f>
         <v>26.3333333333333</v>
       </c>
-      <c r="AC7" s="12" cm="1">
+      <c r="AC7" s="11" cm="1">
         <f t="array" ref="AC7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J7))),"")</f>
         <v>48.034403370785704</v>
       </c>
-      <c r="AD7" s="12" cm="1">
+      <c r="AD7" s="11" cm="1">
         <f t="array" ref="AD7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J7))),"")</f>
         <v>47.927911025401897</v>
       </c>
-      <c r="AE7" s="12" cm="1">
+      <c r="AE7" s="11" cm="1">
         <f t="array" ref="AE7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J7))),"")</f>
         <v>37.1779969277666</v>
       </c>
-      <c r="AF7" s="12" cm="1">
+      <c r="AF7" s="11" cm="1">
         <f t="array" ref="AF7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J7))),"")</f>
         <v>54.142202790675498</v>
       </c>
-      <c r="AG7" s="12" t="str" cm="1">
+      <c r="AG7" s="11" t="str" cm="1">
         <f t="array" ref="AG7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AH7" s="12" cm="1">
+      <c r="AH7" s="11" cm="1">
         <f t="array" ref="AH7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J7))),"")</f>
         <v>29.970720850579298</v>
       </c>
-      <c r="AI7" s="12" t="str" cm="1">
+      <c r="AI7" s="11" t="str" cm="1">
         <f t="array" ref="AI7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AJ7" s="12" cm="1">
+      <c r="AJ7" s="11" cm="1">
         <f t="array" ref="AJ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J7))),"")</f>
         <v>20.160554643313247</v>
       </c>
-      <c r="AK7" s="12" cm="1">
+      <c r="AK7" s="11" cm="1">
         <f t="array" ref="AK7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J7))),"")</f>
         <v>74.684399301600394</v>
       </c>
-      <c r="AL7" s="12" cm="1">
+      <c r="AL7" s="11" cm="1">
         <f t="array" ref="AL7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J7))),"")</f>
         <v>38.3333333333333</v>
       </c>
-      <c r="AM7" s="12" cm="1">
+      <c r="AM7" s="11" cm="1">
         <f t="array" ref="AM7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J7))),"")</f>
         <v>46.286489640618996</v>
       </c>
-      <c r="AN7" s="12" cm="1">
+      <c r="AN7" s="11" cm="1">
         <f t="array" ref="AN7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J7))),"")</f>
         <v>48.3333333333333</v>
       </c>
-      <c r="AO7" s="12" cm="1">
+      <c r="AO7" s="11" cm="1">
         <f t="array" ref="AO7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J7))),"")</f>
         <v>23.132398965845699</v>
       </c>
-      <c r="AP7" s="12" t="str" cm="1">
+      <c r="AP7" s="11" t="str" cm="1">
         <f t="array" ref="AP7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AQ7" s="12" cm="1">
+      <c r="AQ7" s="11" cm="1">
         <f t="array" ref="AQ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J7))),"")</f>
         <v>21.516532861613801</v>
       </c>
-      <c r="AR7" s="12" cm="1">
+      <c r="AR7" s="11" cm="1">
         <f t="array" ref="AR7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J7))),"")</f>
         <v>39.211174850538605</v>
       </c>
-      <c r="AS7" s="12" cm="1">
+      <c r="AS7" s="11" cm="1">
         <f t="array" ref="AS7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J7))),"")</f>
         <v>13.416563100214701</v>
       </c>
-      <c r="AT7" s="12" cm="1">
+      <c r="AT7" s="11" cm="1">
         <f t="array" ref="AT7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J7))),"")</f>
         <v>31.122133963804586</v>
       </c>
-      <c r="AU7" s="12" cm="1">
+      <c r="AU7" s="11" cm="1">
         <f t="array" ref="AU7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J7))),"")</f>
         <v>83.723333333333301</v>
       </c>
-      <c r="AV7" s="12" cm="1">
+      <c r="AV7" s="11" cm="1">
         <f t="array" ref="AV7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J7))),"")</f>
         <v>25.472934445243602</v>
       </c>
-      <c r="AW7" s="12" t="str" cm="1">
+      <c r="AW7" s="11" t="str" cm="1">
         <f t="array" ref="AW7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AX7" s="12" t="str" cm="1">
+      <c r="AX7" s="11" t="str" cm="1">
         <f t="array" ref="AX7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="AY7" s="12" cm="1">
+      <c r="AY7" s="11" cm="1">
         <f t="array" ref="AY7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J7))),"")</f>
         <v>19.610077387505701</v>
       </c>
-      <c r="AZ7" s="12" cm="1">
+      <c r="AZ7" s="11" cm="1">
         <f t="array" ref="AZ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J7))),"")</f>
         <v>59.463838562380303</v>
       </c>
-      <c r="BA7" s="12" cm="1">
+      <c r="BA7" s="11" cm="1">
         <f t="array" ref="BA7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J7))),"")</f>
         <v>21.961868955310759</v>
       </c>
-      <c r="BB7" s="12" cm="1">
+      <c r="BB7" s="11" cm="1">
         <f t="array" ref="BB7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J7))),"")</f>
         <v>34.473067445560297</v>
       </c>
-      <c r="BC7" s="12" cm="1">
+      <c r="BC7" s="11" cm="1">
         <f t="array" ref="BC7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J7))),"")</f>
         <v>55.641199999999998</v>
       </c>
-      <c r="BD7" s="12" t="str" cm="1">
+      <c r="BD7" s="11" t="str" cm="1">
         <f t="array" ref="BD7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BE7" s="12" cm="1">
+      <c r="BE7" s="11" cm="1">
         <f t="array" ref="BE7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J7))),"")</f>
         <v>41.124264828170098</v>
       </c>
-      <c r="BF7" s="12" cm="1">
+      <c r="BF7" s="11" cm="1">
         <f t="array" ref="BF7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J7))),"")</f>
         <v>25.120328290091898</v>
       </c>
-      <c r="BG7" s="12" cm="1">
+      <c r="BG7" s="11" cm="1">
         <f t="array" ref="BG7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J7))),"")</f>
         <v>34.281897763868081</v>
       </c>
-      <c r="BH7" s="12" cm="1">
+      <c r="BH7" s="11" cm="1">
         <f t="array" ref="BH7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J7))),"")</f>
         <v>24.598032157427401</v>
       </c>
-      <c r="BI7" s="12" cm="1">
+      <c r="BI7" s="11" cm="1">
         <f t="array" ref="BI7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J7))),"")</f>
         <v>38.620195636878698</v>
       </c>
-      <c r="BJ7" s="12" cm="1">
+      <c r="BJ7" s="11" cm="1">
         <f t="array" ref="BJ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J7))),"")</f>
         <v>42.615353616764097</v>
       </c>
-      <c r="BK7" s="12" cm="1">
+      <c r="BK7" s="11" cm="1">
         <f t="array" ref="BK7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J7))),"")</f>
         <v>21.692750498193998</v>
       </c>
-      <c r="BL7" s="12" cm="1">
+      <c r="BL7" s="11" cm="1">
         <f t="array" ref="BL7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J7))),"")</f>
         <v>55.840455840455803</v>
       </c>
-      <c r="BM7" s="12" t="str" cm="1">
+      <c r="BM7" s="11" t="str" cm="1">
         <f t="array" ref="BM7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BN7" s="12" t="str" cm="1">
+      <c r="BN7" s="11" t="str" cm="1">
         <f t="array" ref="BN7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BO7" s="12" cm="1">
+      <c r="BO7" s="11" cm="1">
         <f t="array" ref="BO7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J7))),"")</f>
         <v>15.2865798889717</v>
       </c>
-      <c r="BP7" s="12" cm="1">
+      <c r="BP7" s="11" cm="1">
         <f t="array" ref="BP7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J7))),"")</f>
         <v>62.197867079966002</v>
       </c>
-      <c r="BQ7" s="12" cm="1">
+      <c r="BQ7" s="11" cm="1">
         <f t="array" ref="BQ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J7))),"")</f>
         <v>26.229508196721302</v>
       </c>
-      <c r="BR7" s="12" cm="1">
+      <c r="BR7" s="11" cm="1">
         <f t="array" ref="BR7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J7))),"")</f>
         <v>11.9222697521766</v>
       </c>
-      <c r="BS7" s="12" cm="1">
+      <c r="BS7" s="11" cm="1">
         <f t="array" ref="BS7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J7))),"")</f>
         <v>51.367532997686801</v>
       </c>
-      <c r="BT7" s="12" cm="1">
+      <c r="BT7" s="11" cm="1">
         <f t="array" ref="BT7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J7))),"")</f>
         <v>44.278426528394199</v>
       </c>
-      <c r="BU7" s="12" cm="1">
+      <c r="BU7" s="11" cm="1">
         <f t="array" ref="BU7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J7))),"")</f>
         <v>75.492104693921704</v>
       </c>
-      <c r="BV7" s="12" t="str" cm="1">
+      <c r="BV7" s="11" t="str" cm="1">
         <f t="array" ref="BV7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BW7" s="12" t="str" cm="1">
+      <c r="BW7" s="11" t="str" cm="1">
         <f t="array" ref="BW7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BX7" s="12" cm="1">
+      <c r="BX7" s="11" cm="1">
         <f t="array" ref="BX7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J7))),"")</f>
         <v>36.285873036842467</v>
       </c>
-      <c r="BY7" s="12" t="str" cm="1">
+      <c r="BY7" s="11" t="str" cm="1">
         <f t="array" ref="BY7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="BZ7" s="12" t="str" cm="1">
+      <c r="BZ7" s="11" t="str" cm="1">
         <f t="array" ref="BZ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CA7" s="12" t="str" cm="1">
+      <c r="CA7" s="11" t="str" cm="1">
         <f t="array" ref="CA7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CB7" s="12" t="str" cm="1">
+      <c r="CB7" s="11" t="str" cm="1">
         <f t="array" ref="CB7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CC7" s="12" t="str" cm="1">
+      <c r="CC7" s="11" t="str" cm="1">
         <f t="array" ref="CC7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CD7" s="12" cm="1">
+      <c r="CD7" s="11" cm="1">
         <f t="array" ref="CD7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J7))),"")</f>
         <v>11.362918509159799</v>
       </c>
-      <c r="CE7" s="12" cm="1">
+      <c r="CE7" s="11" cm="1">
         <f t="array" ref="CE7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J7))),"")</f>
         <v>69.674631856996768</v>
       </c>
-      <c r="CF7" s="12" t="str" cm="1">
+      <c r="CF7" s="11" t="str" cm="1">
         <f t="array" ref="CF7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CG7" s="12" t="str" cm="1">
+      <c r="CG7" s="11" t="str" cm="1">
         <f t="array" ref="CG7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CH7" s="12" cm="1">
+      <c r="CH7" s="11" cm="1">
         <f t="array" ref="CH7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J7))),"")</f>
         <v>15.5438983986748</v>
       </c>
-      <c r="CI7" s="12" cm="1">
+      <c r="CI7" s="11" cm="1">
         <f t="array" ref="CI7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J7))),"")</f>
         <v>50.974260067292228</v>
       </c>
-      <c r="CJ7" s="12" cm="1">
+      <c r="CJ7" s="11" cm="1">
         <f t="array" ref="CJ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J7))),"")</f>
         <v>64.192949907235601</v>
       </c>
-      <c r="CK7" s="12" cm="1">
+      <c r="CK7" s="11" cm="1">
         <f t="array" ref="CK7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J7))),"")</f>
         <v>27.750257358189998</v>
       </c>
-      <c r="CL7" s="12" cm="1">
+      <c r="CL7" s="11" cm="1">
         <f t="array" ref="CL7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J7))),"")</f>
         <v>34.991666666666703</v>
       </c>
-      <c r="CM7" s="12" t="str" cm="1">
+      <c r="CM7" s="11" t="str" cm="1">
         <f t="array" ref="CM7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="CN7" s="12" cm="1">
+      <c r="CN7" s="11" cm="1">
         <f t="array" ref="CN7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J7))),"")</f>
         <v>18.395099262862551</v>
       </c>
-      <c r="CO7" s="12" cm="1">
+      <c r="CO7" s="11" cm="1">
         <f t="array" ref="CO7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J7))),"")</f>
         <v>63.199711087034999</v>
       </c>
-      <c r="CP7" s="12" cm="1">
+      <c r="CP7" s="11" cm="1">
         <f t="array" ref="CP7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J7))),"")</f>
         <v>51.786511105688604</v>
       </c>
-      <c r="CQ7" s="12" cm="1">
+      <c r="CQ7" s="11" cm="1">
         <f t="array" ref="CQ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J7))),"")</f>
         <v>14.794115608028369</v>
       </c>
-      <c r="CR7" s="12" cm="1">
+      <c r="CR7" s="11" cm="1">
         <f t="array" ref="CR7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J7))),"")</f>
         <v>28.7218782600807</v>
       </c>
-      <c r="CS7" s="12" cm="1">
+      <c r="CS7" s="11" cm="1">
         <f t="array" ref="CS7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J7))),"")</f>
         <v>85.020465346262696</v>
       </c>
-      <c r="CT7" s="12" cm="1">
+      <c r="CT7" s="11" cm="1">
         <f t="array" ref="CT7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J7))),"")</f>
         <v>10.546417532861399</v>
       </c>
-      <c r="CU7" s="12" cm="1">
+      <c r="CU7" s="11" cm="1">
         <f t="array" ref="CU7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J7))),"")</f>
         <v>10.42113556458713</v>
       </c>
-      <c r="CV7" s="12" cm="1">
+      <c r="CV7" s="11" cm="1">
         <f t="array" ref="CV7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J7))),"")</f>
         <v>52.509498701904853</v>
       </c>
-      <c r="CW7" s="12" cm="1">
+      <c r="CW7" s="11" cm="1">
         <f t="array" ref="CW7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J7))),"")</f>
         <v>18.833916072849398</v>
       </c>
-      <c r="CX7" s="12" cm="1">
+      <c r="CX7" s="11" cm="1">
         <f t="array" ref="CX7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J7))),"")</f>
         <v>31.380819737365702</v>
       </c>
-      <c r="CY7" s="12" cm="1">
+      <c r="CY7" s="11" cm="1">
         <f t="array" ref="CY7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J7))),"")</f>
         <v>16.918401596589099</v>
       </c>
-      <c r="CZ7" s="12" cm="1">
+      <c r="CZ7" s="11" cm="1">
         <f t="array" ref="CZ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J7))),"")</f>
         <v>28.8021045947294</v>
       </c>
-      <c r="DA7" s="12" cm="1">
+      <c r="DA7" s="11" cm="1">
         <f t="array" ref="DA7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J7))),"")</f>
         <v>66.948924354004404</v>
       </c>
-      <c r="DB7" s="12" cm="1">
+      <c r="DB7" s="11" cm="1">
         <f t="array" ref="DB7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J7))),"")</f>
         <v>25.2247853858985</v>
       </c>
-      <c r="DC7" s="12" cm="1">
+      <c r="DC7" s="11" cm="1">
         <f t="array" ref="DC7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J7))),"")</f>
         <v>50.32462434830105</v>
       </c>
-      <c r="DD7" s="12" cm="1">
+      <c r="DD7" s="11" cm="1">
         <f t="array" ref="DD7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J7))),"")</f>
         <v>11.0699574179291</v>
       </c>
-      <c r="DE7" s="12" t="str" cm="1">
+      <c r="DE7" s="11" t="str" cm="1">
         <f t="array" ref="DE7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DF7" s="12" t="str" cm="1">
+      <c r="DF7" s="11" t="str" cm="1">
         <f t="array" ref="DF7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DG7" s="12" cm="1">
+      <c r="DG7" s="11" cm="1">
         <f t="array" ref="DG7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J7))),"")</f>
         <v>38.084847760242297</v>
       </c>
-      <c r="DH7" s="12" cm="1">
+      <c r="DH7" s="11" cm="1">
         <f t="array" ref="DH7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J7))),"")</f>
         <v>56.833370461127203</v>
       </c>
-      <c r="DI7" s="12" cm="1">
+      <c r="DI7" s="11" cm="1">
         <f t="array" ref="DI7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J7))),"")</f>
         <v>22.671962075990699</v>
       </c>
-      <c r="DJ7" s="12" t="str" cm="1">
+      <c r="DJ7" s="11" t="str" cm="1">
         <f t="array" ref="DJ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DK7" s="12" cm="1">
+      <c r="DK7" s="11" cm="1">
         <f t="array" ref="DK7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J7))),"")</f>
         <v>20.017633869074572</v>
       </c>
-      <c r="DL7" s="12" t="str" cm="1">
+      <c r="DL7" s="11" t="str" cm="1">
         <f t="array" ref="DL7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DM7" s="12" t="str" cm="1">
+      <c r="DM7" s="11" t="str" cm="1">
         <f t="array" ref="DM7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DN7" s="12" cm="1">
+      <c r="DN7" s="11" cm="1">
         <f t="array" ref="DN7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J7))),"")</f>
         <v>23.502963417126502</v>
       </c>
-      <c r="DO7" s="12" cm="1">
+      <c r="DO7" s="11" cm="1">
         <f t="array" ref="DO7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J7))),"")</f>
         <v>26.733804511582299</v>
       </c>
-      <c r="DP7" s="12" t="str" cm="1">
+      <c r="DP7" s="11" t="str" cm="1">
         <f t="array" ref="DP7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DQ7" s="12" cm="1">
+      <c r="DQ7" s="11" cm="1">
         <f t="array" ref="DQ7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J7))),"")</f>
         <v>5.2314416166908195</v>
       </c>
-      <c r="DR7" s="12" cm="1">
+      <c r="DR7" s="11" cm="1">
         <f t="array" ref="DR7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J7))),"")</f>
         <v>78.5553528808545</v>
       </c>
-      <c r="DS7" s="12" cm="1">
+      <c r="DS7" s="11" cm="1">
         <f t="array" ref="DS7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J7))),"")</f>
         <v>34.069297902826648</v>
       </c>
-      <c r="DT7" s="12" cm="1">
+      <c r="DT7" s="11" cm="1">
         <f t="array" ref="DT7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J7))),"")</f>
         <v>48.463080634920622</v>
       </c>
-      <c r="DU7" s="12" cm="1">
+      <c r="DU7" s="11" cm="1">
         <f t="array" ref="DU7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J7))),"")</f>
         <v>32.407407407407398</v>
       </c>
-      <c r="DV7" s="12" t="str" cm="1">
+      <c r="DV7" s="11" t="str" cm="1">
         <f t="array" ref="DV7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J7))),"")</f>
         <v/>
       </c>
-      <c r="DW7" s="12" cm="1">
+      <c r="DW7" s="11" cm="1">
         <f t="array" ref="DW7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J7))),"")</f>
         <v>50.684246020260503</v>
       </c>
-      <c r="DX7" s="12" cm="1">
+      <c r="DX7" s="11" cm="1">
         <f t="array" ref="DX7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J7))),"")</f>
         <v>14.979501734468601</v>
       </c>
-      <c r="DY7" s="12" cm="1">
+      <c r="DY7" s="11" cm="1">
         <f t="array" ref="DY7">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J7))),"")</f>
         <v>94.2804814233386</v>
       </c>
-    </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB7">
+        <f t="shared" si="0"/>
+        <v>94.2804814233386</v>
+      </c>
+      <c r="EC7" t="str" cm="1">
+        <f t="array" ref="EC7">INDEX($K$2:$DY$2,0,MATCH(EB7,K7:DY7,0))</f>
+        <v>Zimbabwe</v>
+      </c>
+      <c r="EF7">
+        <f t="shared" si="1"/>
+        <v>5.2314416166908195</v>
+      </c>
+      <c r="EG7" t="str" cm="1">
+        <f t="array" ref="EG7">INDEX($K$2:$DY$2,0,MATCH($EF7,$K7:$DY7,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="8" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>36625679</v>
       </c>
@@ -7112,487 +7254,503 @@
       <c r="F8" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>2015</v>
       </c>
-      <c r="K8" s="12" cm="1">
+      <c r="K8" s="11" cm="1">
         <f t="array" ref="K8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J8))),"")</f>
         <v>15.863820771891699</v>
       </c>
-      <c r="L8" s="12" cm="1">
+      <c r="L8" s="11" cm="1">
         <f t="array" ref="L8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J8))),"")</f>
         <v>32.893084919399399</v>
       </c>
-      <c r="M8" s="12" cm="1">
+      <c r="M8" s="11" cm="1">
         <f t="array" ref="M8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J8))),"")</f>
         <v>46.206000000000003</v>
       </c>
-      <c r="N8" s="12" cm="1">
+      <c r="N8" s="11" cm="1">
         <f t="array" ref="N8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J8))),"")</f>
         <v>14.9064515679637</v>
       </c>
-      <c r="O8" s="12" cm="1">
+      <c r="O8" s="11" cm="1">
         <f t="array" ref="O8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J8))),"")</f>
         <v>53.814997797429925</v>
       </c>
-      <c r="P8" s="12" cm="1">
+      <c r="P8" s="11" cm="1">
         <f t="array" ref="P8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J8))),"")</f>
         <v>23.187353629976567</v>
       </c>
-      <c r="Q8" s="12" cm="1">
+      <c r="Q8" s="11" cm="1">
         <f t="array" ref="Q8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J8))),"")</f>
         <v>20.0463095124814</v>
       </c>
-      <c r="R8" s="12" cm="1">
+      <c r="R8" s="11" cm="1">
         <f t="array" ref="R8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J8))),"")</f>
         <v>44.0981432360743</v>
       </c>
-      <c r="S8" s="12" cm="1">
+      <c r="S8" s="11" cm="1">
         <f t="array" ref="S8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J8))),"")</f>
         <v>47.745012705601098</v>
       </c>
-      <c r="T8" s="12" cm="1">
+      <c r="T8" s="11" cm="1">
         <f t="array" ref="T8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J8))),"")</f>
         <v>11.984294979609899</v>
       </c>
-      <c r="U8" s="12" cm="1">
+      <c r="U8" s="11" cm="1">
         <f t="array" ref="U8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J8))),"")</f>
         <v>44.682197296520002</v>
       </c>
-      <c r="V8" s="12" t="str" cm="1">
+      <c r="V8" s="11" t="str" cm="1">
         <f t="array" ref="V8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="W8" s="12" cm="1">
+      <c r="W8" s="11" cm="1">
         <f t="array" ref="W8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J8))),"")</f>
         <v>15.696185730355051</v>
       </c>
-      <c r="X8" s="12" t="str" cm="1">
+      <c r="X8" s="11" t="str" cm="1">
         <f t="array" ref="X8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="Y8" s="12" cm="1">
+      <c r="Y8" s="11" cm="1">
         <f t="array" ref="Y8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J8))),"")</f>
         <v>24.231476234818295</v>
       </c>
-      <c r="Z8" s="12" cm="1">
+      <c r="Z8" s="11" cm="1">
         <f t="array" ref="Z8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J8))),"")</f>
         <v>73.449184683623002</v>
       </c>
-      <c r="AA8" s="12" cm="1">
+      <c r="AA8" s="11" cm="1">
         <f t="array" ref="AA8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J8))),"")</f>
         <v>8.2643980887462867</v>
       </c>
-      <c r="AB8" s="12" cm="1">
+      <c r="AB8" s="11" cm="1">
         <f t="array" ref="AB8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J8))),"")</f>
         <v>36.75</v>
       </c>
-      <c r="AC8" s="12" cm="1">
+      <c r="AC8" s="11" cm="1">
         <f t="array" ref="AC8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J8))),"")</f>
         <v>46.439813440689825</v>
       </c>
-      <c r="AD8" s="12" cm="1">
+      <c r="AD8" s="11" cm="1">
         <f t="array" ref="AD8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J8))),"")</f>
         <v>35.677424635936447</v>
       </c>
-      <c r="AE8" s="12" cm="1">
+      <c r="AE8" s="11" cm="1">
         <f t="array" ref="AE8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J8))),"")</f>
         <v>31.41758092892923</v>
       </c>
-      <c r="AF8" s="12" cm="1">
+      <c r="AF8" s="11" cm="1">
         <f t="array" ref="AF8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J8))),"")</f>
         <v>42.286059926620503</v>
       </c>
-      <c r="AG8" s="12" t="str" cm="1">
+      <c r="AG8" s="11" t="str" cm="1">
         <f t="array" ref="AG8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="AH8" s="12" cm="1">
+      <c r="AH8" s="11" cm="1">
         <f t="array" ref="AH8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J8))),"")</f>
         <v>22.818409653222652</v>
       </c>
-      <c r="AI8" s="12" cm="1">
+      <c r="AI8" s="11" cm="1">
         <f t="array" ref="AI8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J8))),"")</f>
         <v>40.735221063089895</v>
       </c>
-      <c r="AJ8" s="12" cm="1">
+      <c r="AJ8" s="11" cm="1">
         <f t="array" ref="AJ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J8))),"")</f>
         <v>15.328757555928734</v>
       </c>
-      <c r="AK8" s="12" cm="1">
+      <c r="AK8" s="11" cm="1">
         <f t="array" ref="AK8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J8))),"")</f>
         <v>49.506215399590403</v>
       </c>
-      <c r="AL8" s="12" cm="1">
+      <c r="AL8" s="11" cm="1">
         <f t="array" ref="AL8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J8))),"")</f>
         <v>37.931476190476197</v>
       </c>
-      <c r="AM8" s="12" cm="1">
+      <c r="AM8" s="11" cm="1">
         <f t="array" ref="AM8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J8))),"")</f>
         <v>65.493357804579603</v>
       </c>
-      <c r="AN8" s="12" cm="1">
+      <c r="AN8" s="11" cm="1">
         <f t="array" ref="AN8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J8))),"")</f>
         <v>50.8</v>
       </c>
-      <c r="AO8" s="12" cm="1">
+      <c r="AO8" s="11" cm="1">
         <f t="array" ref="AO8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J8))),"")</f>
         <v>15.75878220140515</v>
       </c>
-      <c r="AP8" s="12" t="str" cm="1">
+      <c r="AP8" s="11" t="str" cm="1">
         <f t="array" ref="AP8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="AQ8" s="12" cm="1">
+      <c r="AQ8" s="11" cm="1">
         <f t="array" ref="AQ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J8))),"")</f>
         <v>20.1976948684128</v>
       </c>
-      <c r="AR8" s="12" cm="1">
+      <c r="AR8" s="11" cm="1">
         <f t="array" ref="AR8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J8))),"")</f>
         <v>29.369760587329402</v>
       </c>
-      <c r="AS8" s="12" cm="1">
+      <c r="AS8" s="11" cm="1">
         <f t="array" ref="AS8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J8))),"")</f>
         <v>10.608562159657099</v>
       </c>
-      <c r="AT8" s="12" cm="1">
+      <c r="AT8" s="11" cm="1">
         <f t="array" ref="AT8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J8))),"")</f>
         <v>25.82917820427301</v>
       </c>
-      <c r="AU8" s="12" t="str" cm="1">
+      <c r="AU8" s="11" t="str" cm="1">
         <f t="array" ref="AU8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="AV8" s="12" cm="1">
+      <c r="AV8" s="11" cm="1">
         <f t="array" ref="AV8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J8))),"")</f>
         <v>19.777093337749079</v>
       </c>
-      <c r="AW8" s="12" cm="1">
+      <c r="AW8" s="11" cm="1">
         <f t="array" ref="AW8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J8))),"")</f>
         <v>52.864521082788301</v>
       </c>
-      <c r="AX8" s="12" t="str" cm="1">
+      <c r="AX8" s="11" t="str" cm="1">
         <f t="array" ref="AX8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="AY8" s="12" cm="1">
+      <c r="AY8" s="11" cm="1">
         <f t="array" ref="AY8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J8))),"")</f>
         <v>13.482709712278801</v>
       </c>
-      <c r="AZ8" s="12" cm="1">
+      <c r="AZ8" s="11" cm="1">
         <f t="array" ref="AZ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J8))),"")</f>
         <v>61.173882928944202</v>
       </c>
-      <c r="BA8" s="12" cm="1">
+      <c r="BA8" s="11" cm="1">
         <f t="array" ref="BA8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J8))),"")</f>
         <v>20.680647081057273</v>
       </c>
-      <c r="BB8" s="12" cm="1">
+      <c r="BB8" s="11" cm="1">
         <f t="array" ref="BB8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J8))),"")</f>
         <v>30.656992695830297</v>
       </c>
-      <c r="BC8" s="12" cm="1">
+      <c r="BC8" s="11" cm="1">
         <f t="array" ref="BC8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J8))),"")</f>
         <v>64.913478260869596</v>
       </c>
-      <c r="BD8" s="12" cm="1">
+      <c r="BD8" s="11" cm="1">
         <f t="array" ref="BD8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J8))),"")</f>
         <v>55.938363312664997</v>
       </c>
-      <c r="BE8" s="12" cm="1">
+      <c r="BE8" s="11" cm="1">
         <f t="array" ref="BE8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J8))),"")</f>
         <v>41.120050941772249</v>
       </c>
-      <c r="BF8" s="12" cm="1">
+      <c r="BF8" s="11" cm="1">
         <f t="array" ref="BF8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J8))),"")</f>
         <v>21.088821762665766</v>
       </c>
-      <c r="BG8" s="12" cm="1">
+      <c r="BG8" s="11" cm="1">
         <f t="array" ref="BG8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J8))),"")</f>
         <v>28.214549870287577</v>
       </c>
-      <c r="BH8" s="12" t="str" cm="1">
+      <c r="BH8" s="11" t="str" cm="1">
         <f t="array" ref="BH8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BI8" s="12" cm="1">
+      <c r="BI8" s="11" cm="1">
         <f t="array" ref="BI8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J8))),"")</f>
         <v>33.73059589384075</v>
       </c>
-      <c r="BJ8" s="12" cm="1">
+      <c r="BJ8" s="11" cm="1">
         <f t="array" ref="BJ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J8))),"")</f>
         <v>38.772821381516998</v>
       </c>
-      <c r="BK8" s="12" cm="1">
+      <c r="BK8" s="11" cm="1">
         <f t="array" ref="BK8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J8))),"")</f>
         <v>21.087857172727301</v>
       </c>
-      <c r="BL8" s="12" cm="1">
+      <c r="BL8" s="11" cm="1">
         <f t="array" ref="BL8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J8))),"")</f>
         <v>44.3367004746082</v>
       </c>
-      <c r="BM8" s="12" cm="1">
+      <c r="BM8" s="11" cm="1">
         <f t="array" ref="BM8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J8))),"")</f>
         <v>55.486798679868002</v>
       </c>
-      <c r="BN8" s="12" t="str" cm="1">
+      <c r="BN8" s="11" t="str" cm="1">
         <f t="array" ref="BN8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BO8" s="12" cm="1">
+      <c r="BO8" s="11" cm="1">
         <f t="array" ref="BO8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J8))),"")</f>
         <v>12.693989071038301</v>
       </c>
-      <c r="BP8" s="12" cm="1">
+      <c r="BP8" s="11" cm="1">
         <f t="array" ref="BP8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J8))),"")</f>
         <v>63.670637428488099</v>
       </c>
-      <c r="BQ8" s="12" t="str" cm="1">
+      <c r="BQ8" s="11" t="str" cm="1">
         <f t="array" ref="BQ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BR8" s="12" cm="1">
+      <c r="BR8" s="11" cm="1">
         <f t="array" ref="BR8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J8))),"")</f>
         <v>9.2070219101307806</v>
       </c>
-      <c r="BS8" s="12" cm="1">
+      <c r="BS8" s="11" cm="1">
         <f t="array" ref="BS8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J8))),"")</f>
         <v>43.9587128111718</v>
       </c>
-      <c r="BT8" s="12" cm="1">
+      <c r="BT8" s="11" cm="1">
         <f t="array" ref="BT8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J8))),"")</f>
         <v>44.563143575179197</v>
       </c>
-      <c r="BU8" s="12" t="str" cm="1">
+      <c r="BU8" s="11" t="str" cm="1">
         <f t="array" ref="BU8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BV8" s="12" t="str" cm="1">
+      <c r="BV8" s="11" t="str" cm="1">
         <f t="array" ref="BV8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BW8" s="12" t="str" cm="1">
+      <c r="BW8" s="11" t="str" cm="1">
         <f t="array" ref="BW8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="BX8" s="12" cm="1">
+      <c r="BX8" s="11" cm="1">
         <f t="array" ref="BX8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J8))),"")</f>
         <v>27.07741827094263</v>
       </c>
-      <c r="BY8" s="12" cm="1">
+      <c r="BY8" s="11" cm="1">
         <f t="array" ref="BY8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J8))),"")</f>
         <v>30.247866066965599</v>
       </c>
-      <c r="BZ8" s="12" cm="1">
+      <c r="BZ8" s="11" cm="1">
         <f t="array" ref="BZ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J8))),"")</f>
         <v>25.1366120218579</v>
       </c>
-      <c r="CA8" s="12" cm="1">
+      <c r="CA8" s="11" cm="1">
         <f t="array" ref="CA8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J8))),"")</f>
         <v>24.6027955874832</v>
       </c>
-      <c r="CB8" s="12" t="str" cm="1">
+      <c r="CB8" s="11" t="str" cm="1">
         <f t="array" ref="CB8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="CC8" s="12" t="str" cm="1">
+      <c r="CC8" s="11" t="str" cm="1">
         <f t="array" ref="CC8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="CD8" s="12" cm="1">
+      <c r="CD8" s="11" cm="1">
         <f t="array" ref="CD8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J8))),"")</f>
         <v>53.359096168056404</v>
       </c>
-      <c r="CE8" s="12" cm="1">
+      <c r="CE8" s="11" cm="1">
         <f t="array" ref="CE8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J8))),"")</f>
         <v>59.334816287278102</v>
       </c>
-      <c r="CF8" s="12" t="str" cm="1">
+      <c r="CF8" s="11" t="str" cm="1">
         <f t="array" ref="CF8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="CG8" s="12" cm="1">
+      <c r="CG8" s="11" cm="1">
         <f t="array" ref="CG8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J8))),"")</f>
         <v>72.008708029808304</v>
       </c>
-      <c r="CH8" s="12" cm="1">
+      <c r="CH8" s="11" cm="1">
         <f t="array" ref="CH8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J8))),"")</f>
         <v>11.855502267872501</v>
       </c>
-      <c r="CI8" s="12" cm="1">
+      <c r="CI8" s="11" cm="1">
         <f t="array" ref="CI8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J8))),"")</f>
         <v>42.686091055170898</v>
       </c>
-      <c r="CJ8" s="12" cm="1">
+      <c r="CJ8" s="11" cm="1">
         <f t="array" ref="CJ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J8))),"")</f>
         <v>59.740259740259702</v>
       </c>
-      <c r="CK8" s="12" cm="1">
+      <c r="CK8" s="11" cm="1">
         <f t="array" ref="CK8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J8))),"")</f>
         <v>28.5830296202891</v>
       </c>
-      <c r="CL8" s="12" cm="1">
+      <c r="CL8" s="11" cm="1">
         <f t="array" ref="CL8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J8))),"")</f>
         <v>42.594999999999999</v>
       </c>
-      <c r="CM8" s="12" t="str" cm="1">
+      <c r="CM8" s="11" t="str" cm="1">
         <f t="array" ref="CM8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="CN8" s="12" cm="1">
+      <c r="CN8" s="11" cm="1">
         <f t="array" ref="CN8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J8))),"")</f>
         <v>22.859374641027401</v>
       </c>
-      <c r="CO8" s="12" cm="1">
+      <c r="CO8" s="11" cm="1">
         <f t="array" ref="CO8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J8))),"")</f>
         <v>41.940343689060697</v>
       </c>
-      <c r="CP8" s="12" cm="1">
+      <c r="CP8" s="11" cm="1">
         <f t="array" ref="CP8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J8))),"")</f>
         <v>55.217569657590396</v>
       </c>
-      <c r="CQ8" s="12" cm="1">
+      <c r="CQ8" s="11" cm="1">
         <f t="array" ref="CQ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J8))),"")</f>
         <v>11.674226783583268</v>
       </c>
-      <c r="CR8" s="12" cm="1">
+      <c r="CR8" s="11" cm="1">
         <f t="array" ref="CR8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J8))),"")</f>
         <v>24.438345200640267</v>
       </c>
-      <c r="CS8" s="12" cm="1">
+      <c r="CS8" s="11" cm="1">
         <f t="array" ref="CS8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J8))),"")</f>
         <v>72.042863030636099</v>
       </c>
-      <c r="CT8" s="12" cm="1">
+      <c r="CT8" s="11" cm="1">
         <f t="array" ref="CT8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J8))),"")</f>
         <v>8.0199633795673009</v>
       </c>
-      <c r="CU8" s="12" cm="1">
+      <c r="CU8" s="11" cm="1">
         <f t="array" ref="CU8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J8))),"")</f>
         <v>7.7865391848623942</v>
       </c>
-      <c r="CV8" s="12" cm="1">
+      <c r="CV8" s="11" cm="1">
         <f t="array" ref="CV8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J8))),"")</f>
         <v>38.731408634008304</v>
       </c>
-      <c r="CW8" s="12" cm="1">
+      <c r="CW8" s="11" cm="1">
         <f t="array" ref="CW8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J8))),"")</f>
         <v>13.95307727411895</v>
       </c>
-      <c r="CX8" s="12" cm="1">
+      <c r="CX8" s="11" cm="1">
         <f t="array" ref="CX8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J8))),"")</f>
         <v>30.8022545301306</v>
       </c>
-      <c r="CY8" s="12" cm="1">
+      <c r="CY8" s="11" cm="1">
         <f t="array" ref="CY8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J8))),"")</f>
         <v>15.551912568306001</v>
       </c>
-      <c r="CZ8" s="12" cm="1">
+      <c r="CZ8" s="11" cm="1">
         <f t="array" ref="CZ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J8))),"")</f>
         <v>29.632786885245899</v>
       </c>
-      <c r="DA8" s="12" cm="1">
+      <c r="DA8" s="11" cm="1">
         <f t="array" ref="DA8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J8))),"")</f>
         <v>61.177444733498731</v>
       </c>
-      <c r="DB8" s="12" cm="1">
+      <c r="DB8" s="11" cm="1">
         <f t="array" ref="DB8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J8))),"")</f>
         <v>21.951538350367901</v>
       </c>
-      <c r="DC8" s="12" cm="1">
+      <c r="DC8" s="11" cm="1">
         <f t="array" ref="DC8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J8))),"")</f>
         <v>35.522702171336057</v>
       </c>
-      <c r="DD8" s="12" cm="1">
+      <c r="DD8" s="11" cm="1">
         <f t="array" ref="DD8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J8))),"")</f>
         <v>42.427183258059301</v>
       </c>
-      <c r="DE8" s="12" t="str" cm="1">
+      <c r="DE8" s="11" t="str" cm="1">
         <f t="array" ref="DE8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DF8" s="12" t="str" cm="1">
+      <c r="DF8" s="11" t="str" cm="1">
         <f t="array" ref="DF8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DG8" s="12" cm="1">
+      <c r="DG8" s="11" cm="1">
         <f t="array" ref="DG8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J8))),"")</f>
         <v>26.263692346568799</v>
       </c>
-      <c r="DH8" s="12" cm="1">
+      <c r="DH8" s="11" cm="1">
         <f t="array" ref="DH8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J8))),"")</f>
         <v>56.430097564795759</v>
       </c>
-      <c r="DI8" s="12" cm="1">
+      <c r="DI8" s="11" cm="1">
         <f t="array" ref="DI8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J8))),"")</f>
         <v>23.247439866634899</v>
       </c>
-      <c r="DJ8" s="12" t="str" cm="1">
+      <c r="DJ8" s="11" t="str" cm="1">
         <f t="array" ref="DJ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DK8" s="12" cm="1">
+      <c r="DK8" s="11" cm="1">
         <f t="array" ref="DK8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J8))),"")</f>
         <v>19.288839451242126</v>
       </c>
-      <c r="DL8" s="12" cm="1">
+      <c r="DL8" s="11" cm="1">
         <f t="array" ref="DL8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J8))),"")</f>
         <v>37.5</v>
       </c>
-      <c r="DM8" s="12" cm="1">
+      <c r="DM8" s="11" cm="1">
         <f t="array" ref="DM8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J8))),"")</f>
         <v>32.5845917556899</v>
       </c>
-      <c r="DN8" s="12" cm="1">
+      <c r="DN8" s="11" cm="1">
         <f t="array" ref="DN8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J8))),"")</f>
         <v>22.093554776778898</v>
       </c>
-      <c r="DO8" s="12" cm="1">
+      <c r="DO8" s="11" cm="1">
         <f t="array" ref="DO8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J8))),"")</f>
         <v>19.11186017537856</v>
       </c>
-      <c r="DP8" s="12" t="str" cm="1">
+      <c r="DP8" s="11" t="str" cm="1">
         <f t="array" ref="DP8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DQ8" s="12" cm="1">
+      <c r="DQ8" s="11" cm="1">
         <f t="array" ref="DQ8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J8))),"")</f>
         <v>3.7721247062235621</v>
       </c>
-      <c r="DR8" s="12" cm="1">
+      <c r="DR8" s="11" cm="1">
         <f t="array" ref="DR8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J8))),"")</f>
         <v>84.269544501316417</v>
       </c>
-      <c r="DS8" s="12" cm="1">
+      <c r="DS8" s="11" cm="1">
         <f t="array" ref="DS8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J8))),"")</f>
         <v>32.305386184650303</v>
       </c>
-      <c r="DT8" s="12" cm="1">
+      <c r="DT8" s="11" cm="1">
         <f t="array" ref="DT8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J8))),"")</f>
         <v>49.930904328590039</v>
       </c>
-      <c r="DU8" s="12" cm="1">
+      <c r="DU8" s="11" cm="1">
         <f t="array" ref="DU8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J8))),"")</f>
         <v>28.129898371277701</v>
       </c>
-      <c r="DV8" s="12" t="str" cm="1">
+      <c r="DV8" s="11" t="str" cm="1">
         <f t="array" ref="DV8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DW8" s="12" t="str" cm="1">
+      <c r="DW8" s="11" t="str" cm="1">
         <f t="array" ref="DW8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-      <c r="DX8" s="12" cm="1">
+      <c r="DX8" s="11" cm="1">
         <f t="array" ref="DX8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J8))),"")</f>
         <v>11.5087277032963</v>
       </c>
-      <c r="DY8" s="12" t="str" cm="1">
+      <c r="DY8" s="11" t="str" cm="1">
         <f t="array" ref="DY8">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J8))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB8">
+        <f t="shared" si="0"/>
+        <v>84.269544501316417</v>
+      </c>
+      <c r="EC8" t="str" cm="1">
+        <f t="array" ref="EC8">INDEX($K$2:$DY$2,0,MATCH(EB8,K8:DY8,0))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="EF8">
+        <f t="shared" si="1"/>
+        <v>3.7721247062235621</v>
+      </c>
+      <c r="EG8" t="str" cm="1">
+        <f t="array" ref="EG8">INDEX($K$2:$DY$2,0,MATCH($EF8,$K8:$DY8,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="9" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>19516661</v>
       </c>
@@ -7611,487 +7769,503 @@
       <c r="F9" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>2016</v>
       </c>
-      <c r="K9" s="12" cm="1">
+      <c r="K9" s="11" cm="1">
         <f t="array" ref="K9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J9))),"")</f>
         <v>16.8911671800718</v>
       </c>
-      <c r="L9" s="12" cm="1">
+      <c r="L9" s="11" cm="1">
         <f t="array" ref="L9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J9))),"")</f>
         <v>35.111698330979401</v>
       </c>
-      <c r="M9" s="12" cm="1">
+      <c r="M9" s="11" cm="1">
         <f t="array" ref="M9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J9))),"")</f>
         <v>35.545952557369297</v>
       </c>
-      <c r="N9" s="12" cm="1">
+      <c r="N9" s="11" cm="1">
         <f t="array" ref="N9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J9))),"")</f>
         <v>14.573676965632099</v>
       </c>
-      <c r="O9" s="12" cm="1">
+      <c r="O9" s="11" cm="1">
         <f t="array" ref="O9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J9))),"")</f>
         <v>53.748416939740906</v>
       </c>
-      <c r="P9" s="12" cm="1">
+      <c r="P9" s="11" cm="1">
         <f t="array" ref="P9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J9))),"")</f>
         <v>23.203270874223399</v>
       </c>
-      <c r="Q9" s="12" cm="1">
+      <c r="Q9" s="11" cm="1">
         <f t="array" ref="Q9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J9))),"")</f>
         <v>14.173131828002001</v>
       </c>
-      <c r="R9" s="12" cm="1">
+      <c r="R9" s="11" cm="1">
         <f t="array" ref="R9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J9))),"")</f>
         <v>36.756347101174697</v>
       </c>
-      <c r="S9" s="12" cm="1">
+      <c r="S9" s="11" cm="1">
         <f t="array" ref="S9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J9))),"")</f>
         <v>39.450970860235202</v>
       </c>
-      <c r="T9" s="12" cm="1">
+      <c r="T9" s="11" cm="1">
         <f t="array" ref="T9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J9))),"")</f>
         <v>9.5942488442063798</v>
       </c>
-      <c r="U9" s="12" cm="1">
+      <c r="U9" s="11" cm="1">
         <f t="array" ref="U9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J9))),"")</f>
         <v>44.216938083296327</v>
       </c>
-      <c r="V9" s="12" t="str" cm="1">
+      <c r="V9" s="11" t="str" cm="1">
         <f t="array" ref="V9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="W9" s="12" cm="1">
+      <c r="W9" s="11" cm="1">
         <f t="array" ref="W9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J9))),"")</f>
         <v>15.24251667870325</v>
       </c>
-      <c r="X9" s="12" t="str" cm="1">
+      <c r="X9" s="11" t="str" cm="1">
         <f t="array" ref="X9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="Y9" s="12" cm="1">
+      <c r="Y9" s="11" cm="1">
         <f t="array" ref="Y9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J9))),"")</f>
         <v>25.23926727958203</v>
       </c>
-      <c r="Z9" s="12" cm="1">
+      <c r="Z9" s="11" cm="1">
         <f t="array" ref="Z9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J9))),"")</f>
         <v>70.578671199467905</v>
       </c>
-      <c r="AA9" s="12" cm="1">
+      <c r="AA9" s="11" cm="1">
         <f t="array" ref="AA9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J9))),"")</f>
         <v>8.9250053436685644</v>
       </c>
-      <c r="AB9" s="12" cm="1">
+      <c r="AB9" s="11" cm="1">
         <f t="array" ref="AB9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J9))),"")</f>
         <v>25.623750000000001</v>
       </c>
-      <c r="AC9" s="12" t="str" cm="1">
+      <c r="AC9" s="11" t="str" cm="1">
         <f t="array" ref="AC9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="AD9" s="12" cm="1">
+      <c r="AD9" s="11" cm="1">
         <f t="array" ref="AD9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J9))),"")</f>
         <v>34.476277546464601</v>
       </c>
-      <c r="AE9" s="12" cm="1">
+      <c r="AE9" s="11" cm="1">
         <f t="array" ref="AE9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J9))),"")</f>
         <v>24.357165886048733</v>
       </c>
-      <c r="AF9" s="12" cm="1">
+      <c r="AF9" s="11" cm="1">
         <f t="array" ref="AF9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J9))),"")</f>
         <v>43.810866009490397</v>
       </c>
-      <c r="AG9" s="12" t="str" cm="1">
+      <c r="AG9" s="11" t="str" cm="1">
         <f t="array" ref="AG9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="AH9" s="12" cm="1">
+      <c r="AH9" s="11" cm="1">
         <f t="array" ref="AH9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J9))),"")</f>
         <v>24.569575309862</v>
       </c>
-      <c r="AI9" s="12" cm="1">
+      <c r="AI9" s="11" cm="1">
         <f t="array" ref="AI9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J9))),"")</f>
         <v>37.1218829227684</v>
       </c>
-      <c r="AJ9" s="12" cm="1">
+      <c r="AJ9" s="11" cm="1">
         <f t="array" ref="AJ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J9))),"")</f>
         <v>14.921971751256423</v>
       </c>
-      <c r="AK9" s="12" cm="1">
+      <c r="AK9" s="11" cm="1">
         <f t="array" ref="AK9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J9))),"")</f>
         <v>51.4154630712315</v>
       </c>
-      <c r="AL9" s="12" cm="1">
+      <c r="AL9" s="11" cm="1">
         <f t="array" ref="AL9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J9))),"")</f>
         <v>39.260701112172335</v>
       </c>
-      <c r="AM9" s="12" cm="1">
+      <c r="AM9" s="11" cm="1">
         <f t="array" ref="AM9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J9))),"")</f>
         <v>53.258892692419373</v>
       </c>
-      <c r="AN9" s="12" cm="1">
+      <c r="AN9" s="11" cm="1">
         <f t="array" ref="AN9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J9))),"")</f>
         <v>45.4</v>
       </c>
-      <c r="AO9" s="12" cm="1">
+      <c r="AO9" s="11" cm="1">
         <f t="array" ref="AO9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J9))),"")</f>
         <v>18.4782296826797</v>
       </c>
-      <c r="AP9" s="12" t="str" cm="1">
+      <c r="AP9" s="11" t="str" cm="1">
         <f t="array" ref="AP9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="AQ9" s="12" cm="1">
+      <c r="AQ9" s="11" cm="1">
         <f t="array" ref="AQ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J9))),"")</f>
         <v>19.677555151927976</v>
       </c>
-      <c r="AR9" s="12" cm="1">
+      <c r="AR9" s="11" cm="1">
         <f t="array" ref="AR9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J9))),"")</f>
         <v>30.320357386615381</v>
       </c>
-      <c r="AS9" s="12" cm="1">
+      <c r="AS9" s="11" cm="1">
         <f t="array" ref="AS9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J9))),"")</f>
         <v>12.3848663522013</v>
       </c>
-      <c r="AT9" s="12" cm="1">
+      <c r="AT9" s="11" cm="1">
         <f t="array" ref="AT9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J9))),"")</f>
         <v>29.070121142641028</v>
       </c>
-      <c r="AU9" s="12" t="str" cm="1">
+      <c r="AU9" s="11" t="str" cm="1">
         <f t="array" ref="AU9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="AV9" s="12" cm="1">
+      <c r="AV9" s="11" cm="1">
         <f t="array" ref="AV9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J9))),"")</f>
         <v>23.212144241063527</v>
       </c>
-      <c r="AW9" s="12" cm="1">
+      <c r="AW9" s="11" cm="1">
         <f t="array" ref="AW9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J9))),"")</f>
         <v>53.113503920391402</v>
       </c>
-      <c r="AX9" s="12" t="str" cm="1">
+      <c r="AX9" s="11" t="str" cm="1">
         <f t="array" ref="AX9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="AY9" s="12" cm="1">
+      <c r="AY9" s="11" cm="1">
         <f t="array" ref="AY9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J9))),"")</f>
         <v>13.291223608090551</v>
       </c>
-      <c r="AZ9" s="12" cm="1">
+      <c r="AZ9" s="11" cm="1">
         <f t="array" ref="AZ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J9))),"")</f>
         <v>56.014745955932398</v>
       </c>
-      <c r="BA9" s="12" cm="1">
+      <c r="BA9" s="11" cm="1">
         <f t="array" ref="BA9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J9))),"")</f>
         <v>18.526862483647353</v>
       </c>
-      <c r="BB9" s="12" cm="1">
+      <c r="BB9" s="11" cm="1">
         <f t="array" ref="BB9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J9))),"")</f>
         <v>27.486354173066768</v>
       </c>
-      <c r="BC9" s="12" cm="1">
+      <c r="BC9" s="11" cm="1">
         <f t="array" ref="BC9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J9))),"")</f>
         <v>87.540670917366754</v>
       </c>
-      <c r="BD9" s="12" cm="1">
+      <c r="BD9" s="11" cm="1">
         <f t="array" ref="BD9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J9))),"")</f>
         <v>46.849883046573801</v>
       </c>
-      <c r="BE9" s="12" cm="1">
+      <c r="BE9" s="11" cm="1">
         <f t="array" ref="BE9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J9))),"")</f>
         <v>46.264019024831825</v>
       </c>
-      <c r="BF9" s="12" cm="1">
+      <c r="BF9" s="11" cm="1">
         <f t="array" ref="BF9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J9))),"")</f>
         <v>21.574375934408334</v>
       </c>
-      <c r="BG9" s="12" cm="1">
+      <c r="BG9" s="11" cm="1">
         <f t="array" ref="BG9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J9))),"")</f>
         <v>30.98272694708157</v>
       </c>
-      <c r="BH9" s="12" cm="1">
+      <c r="BH9" s="11" cm="1">
         <f t="array" ref="BH9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J9))),"")</f>
         <v>32.012830742561597</v>
       </c>
-      <c r="BI9" s="12" cm="1">
+      <c r="BI9" s="11" cm="1">
         <f t="array" ref="BI9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J9))),"")</f>
         <v>36.251998820113997</v>
       </c>
-      <c r="BJ9" s="12" cm="1">
+      <c r="BJ9" s="11" cm="1">
         <f t="array" ref="BJ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J9))),"")</f>
         <v>41.221417002442102</v>
       </c>
-      <c r="BK9" s="12" cm="1">
+      <c r="BK9" s="11" cm="1">
         <f t="array" ref="BK9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J9))),"")</f>
         <v>11.9004831835981</v>
       </c>
-      <c r="BL9" s="12" cm="1">
+      <c r="BL9" s="11" cm="1">
         <f t="array" ref="BL9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J9))),"")</f>
         <v>41.927891719433703</v>
       </c>
-      <c r="BM9" s="12" cm="1">
+      <c r="BM9" s="11" cm="1">
         <f t="array" ref="BM9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J9))),"")</f>
         <v>42.607348384240801</v>
       </c>
-      <c r="BN9" s="12" t="str" cm="1">
+      <c r="BN9" s="11" t="str" cm="1">
         <f t="array" ref="BN9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="BO9" s="12" cm="1">
+      <c r="BO9" s="11" cm="1">
         <f t="array" ref="BO9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J9))),"")</f>
         <v>13.398544417956399</v>
       </c>
-      <c r="BP9" s="12" cm="1">
+      <c r="BP9" s="11" cm="1">
         <f t="array" ref="BP9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J9))),"")</f>
         <v>66.683124050000401</v>
       </c>
-      <c r="BQ9" s="12" cm="1">
+      <c r="BQ9" s="11" cm="1">
         <f t="array" ref="BQ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J9))),"")</f>
         <v>27.0622678180431</v>
       </c>
-      <c r="BR9" s="12" cm="1">
+      <c r="BR9" s="11" cm="1">
         <f t="array" ref="BR9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J9))),"")</f>
         <v>9.9913634299631404</v>
       </c>
-      <c r="BS9" s="12" cm="1">
+      <c r="BS9" s="11" cm="1">
         <f t="array" ref="BS9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J9))),"")</f>
         <v>44.589137732513798</v>
       </c>
-      <c r="BT9" s="12" cm="1">
+      <c r="BT9" s="11" cm="1">
         <f t="array" ref="BT9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J9))),"")</f>
         <v>37.166970882054436</v>
       </c>
-      <c r="BU9" s="12" cm="1">
+      <c r="BU9" s="11" cm="1">
         <f t="array" ref="BU9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J9))),"")</f>
         <v>85.663198959687904</v>
       </c>
-      <c r="BV9" s="12" cm="1">
+      <c r="BV9" s="11" cm="1">
         <f t="array" ref="BV9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J9))),"")</f>
         <v>23.8392553070723</v>
       </c>
-      <c r="BW9" s="12" t="str" cm="1">
+      <c r="BW9" s="11" t="str" cm="1">
         <f t="array" ref="BW9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="BX9" s="12" cm="1">
+      <c r="BX9" s="11" cm="1">
         <f t="array" ref="BX9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J9))),"")</f>
         <v>23.296901564831199</v>
       </c>
-      <c r="BY9" s="12" t="str" cm="1">
+      <c r="BY9" s="11" t="str" cm="1">
         <f t="array" ref="BY9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="BZ9" s="12" cm="1">
+      <c r="BZ9" s="11" cm="1">
         <f t="array" ref="BZ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J9))),"")</f>
         <v>20.433647406062001</v>
       </c>
-      <c r="CA9" s="12" cm="1">
+      <c r="CA9" s="11" cm="1">
         <f t="array" ref="CA9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J9))),"")</f>
         <v>24.340134926474398</v>
       </c>
-      <c r="CB9" s="12" t="str" cm="1">
+      <c r="CB9" s="11" t="str" cm="1">
         <f t="array" ref="CB9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="CC9" s="12" cm="1">
+      <c r="CC9" s="11" cm="1">
         <f t="array" ref="CC9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J9))),"")</f>
         <v>40.902831325063403</v>
       </c>
-      <c r="CD9" s="12" cm="1">
+      <c r="CD9" s="11" cm="1">
         <f t="array" ref="CD9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J9))),"")</f>
         <v>22.808862140971499</v>
       </c>
-      <c r="CE9" s="12" cm="1">
+      <c r="CE9" s="11" cm="1">
         <f t="array" ref="CE9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J9))),"")</f>
         <v>57.621513745020231</v>
       </c>
-      <c r="CF9" s="12" t="str" cm="1">
+      <c r="CF9" s="11" t="str" cm="1">
         <f t="array" ref="CF9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="CG9" s="12" cm="1">
+      <c r="CG9" s="11" cm="1">
         <f t="array" ref="CG9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J9))),"")</f>
         <v>77.646033594347998</v>
       </c>
-      <c r="CH9" s="12" cm="1">
+      <c r="CH9" s="11" cm="1">
         <f t="array" ref="CH9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J9))),"")</f>
         <v>13.5338379862305</v>
       </c>
-      <c r="CI9" s="12" cm="1">
+      <c r="CI9" s="11" cm="1">
         <f t="array" ref="CI9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J9))),"")</f>
         <v>42.478994852404362</v>
       </c>
-      <c r="CJ9" s="12" cm="1">
+      <c r="CJ9" s="11" cm="1">
         <f t="array" ref="CJ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J9))),"")</f>
         <v>60.176351709888998</v>
       </c>
-      <c r="CK9" s="12" cm="1">
+      <c r="CK9" s="11" cm="1">
         <f t="array" ref="CK9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J9))),"")</f>
         <v>34.51623138890637</v>
       </c>
-      <c r="CL9" s="12" cm="1">
+      <c r="CL9" s="11" cm="1">
         <f t="array" ref="CL9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J9))),"")</f>
         <v>39.369158189591602</v>
       </c>
-      <c r="CM9" s="12" cm="1">
+      <c r="CM9" s="11" cm="1">
         <f t="array" ref="CM9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J9))),"")</f>
         <v>50.283143043527403</v>
       </c>
-      <c r="CN9" s="12" cm="1">
+      <c r="CN9" s="11" cm="1">
         <f t="array" ref="CN9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J9))),"")</f>
         <v>19.393308211371824</v>
       </c>
-      <c r="CO9" s="12" cm="1">
+      <c r="CO9" s="11" cm="1">
         <f t="array" ref="CO9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J9))),"")</f>
         <v>46.419533851276398</v>
       </c>
-      <c r="CP9" s="12" cm="1">
+      <c r="CP9" s="11" cm="1">
         <f t="array" ref="CP9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J9))),"")</f>
         <v>58.991465212574454</v>
       </c>
-      <c r="CQ9" s="12" cm="1">
+      <c r="CQ9" s="11" cm="1">
         <f t="array" ref="CQ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J9))),"")</f>
         <v>11.827000503021612</v>
       </c>
-      <c r="CR9" s="12" cm="1">
+      <c r="CR9" s="11" cm="1">
         <f t="array" ref="CR9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J9))),"")</f>
         <v>29.699423569329337</v>
       </c>
-      <c r="CS9" s="12" cm="1">
+      <c r="CS9" s="11" cm="1">
         <f t="array" ref="CS9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J9))),"")</f>
         <v>70.040876589014701</v>
       </c>
-      <c r="CT9" s="12" cm="1">
+      <c r="CT9" s="11" cm="1">
         <f t="array" ref="CT9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J9))),"")</f>
         <v>8.7541209272483904</v>
       </c>
-      <c r="CU9" s="12" cm="1">
+      <c r="CU9" s="11" cm="1">
         <f t="array" ref="CU9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J9))),"")</f>
         <v>6.1763478036561139</v>
       </c>
-      <c r="CV9" s="12" cm="1">
+      <c r="CV9" s="11" cm="1">
         <f t="array" ref="CV9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J9))),"")</f>
         <v>43.814048187031666</v>
       </c>
-      <c r="CW9" s="12" cm="1">
+      <c r="CW9" s="11" cm="1">
         <f t="array" ref="CW9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J9))),"")</f>
         <v>13.655317449549699</v>
       </c>
-      <c r="CX9" s="12" cm="1">
+      <c r="CX9" s="11" cm="1">
         <f t="array" ref="CX9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J9))),"")</f>
         <v>31.6460397681298</v>
       </c>
-      <c r="CY9" s="12" cm="1">
+      <c r="CY9" s="11" cm="1">
         <f t="array" ref="CY9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J9))),"")</f>
         <v>17.197576035128566</v>
       </c>
-      <c r="CZ9" s="12" cm="1">
+      <c r="CZ9" s="11" cm="1">
         <f t="array" ref="CZ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J9))),"")</f>
         <v>28.628048899832049</v>
       </c>
-      <c r="DA9" s="12" cm="1">
+      <c r="DA9" s="11" cm="1">
         <f t="array" ref="DA9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J9))),"")</f>
         <v>52.335645419675942</v>
       </c>
-      <c r="DB9" s="12" cm="1">
+      <c r="DB9" s="11" cm="1">
         <f t="array" ref="DB9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J9))),"")</f>
         <v>23.610180068161249</v>
       </c>
-      <c r="DC9" s="12" cm="1">
+      <c r="DC9" s="11" cm="1">
         <f t="array" ref="DC9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J9))),"")</f>
         <v>37.847848326306355</v>
       </c>
-      <c r="DD9" s="12" cm="1">
+      <c r="DD9" s="11" cm="1">
         <f t="array" ref="DD9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J9))),"")</f>
         <v>17.5212183859134</v>
       </c>
-      <c r="DE9" s="12" t="str" cm="1">
+      <c r="DE9" s="11" t="str" cm="1">
         <f t="array" ref="DE9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="DF9" s="12" t="str" cm="1">
+      <c r="DF9" s="11" t="str" cm="1">
         <f t="array" ref="DF9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="DG9" s="12" cm="1">
+      <c r="DG9" s="11" cm="1">
         <f t="array" ref="DG9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J9))),"")</f>
         <v>30.072453835219449</v>
       </c>
-      <c r="DH9" s="12" cm="1">
+      <c r="DH9" s="11" cm="1">
         <f t="array" ref="DH9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J9))),"")</f>
         <v>51.320074675473947</v>
       </c>
-      <c r="DI9" s="12" cm="1">
+      <c r="DI9" s="11" cm="1">
         <f t="array" ref="DI9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J9))),"")</f>
         <v>25.015245609886598</v>
       </c>
-      <c r="DJ9" s="12" t="str" cm="1">
+      <c r="DJ9" s="11" t="str" cm="1">
         <f t="array" ref="DJ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="DK9" s="12" cm="1">
+      <c r="DK9" s="11" cm="1">
         <f t="array" ref="DK9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J9))),"")</f>
         <v>17.857713629420399</v>
       </c>
-      <c r="DL9" s="12" cm="1">
+      <c r="DL9" s="11" cm="1">
         <f t="array" ref="DL9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J9))),"")</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="DM9" s="12" cm="1">
+      <c r="DM9" s="11" cm="1">
         <f t="array" ref="DM9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J9))),"")</f>
         <v>32.047898411932401</v>
       </c>
-      <c r="DN9" s="12" cm="1">
+      <c r="DN9" s="11" cm="1">
         <f t="array" ref="DN9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J9))),"")</f>
         <v>19.748906756947399</v>
       </c>
-      <c r="DO9" s="12" cm="1">
+      <c r="DO9" s="11" cm="1">
         <f t="array" ref="DO9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J9))),"")</f>
         <v>18.840054715981282</v>
       </c>
-      <c r="DP9" s="12" cm="1">
+      <c r="DP9" s="11" cm="1">
         <f t="array" ref="DP9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J9))),"")</f>
         <v>81.967213114754102</v>
       </c>
-      <c r="DQ9" s="12" cm="1">
+      <c r="DQ9" s="11" cm="1">
         <f t="array" ref="DQ9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J9))),"")</f>
         <v>3.092871455687896</v>
       </c>
-      <c r="DR9" s="12" cm="1">
+      <c r="DR9" s="11" cm="1">
         <f t="array" ref="DR9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J9))),"")</f>
         <v>86.869152862584727</v>
       </c>
-      <c r="DS9" s="12" cm="1">
+      <c r="DS9" s="11" cm="1">
         <f t="array" ref="DS9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J9))),"")</f>
         <v>30.230028595903001</v>
       </c>
-      <c r="DT9" s="12" cm="1">
+      <c r="DT9" s="11" cm="1">
         <f t="array" ref="DT9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J9))),"")</f>
         <v>53.148438475268186</v>
       </c>
-      <c r="DU9" s="12" cm="1">
+      <c r="DU9" s="11" cm="1">
         <f t="array" ref="DU9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J9))),"")</f>
         <v>27.342214844609</v>
       </c>
-      <c r="DV9" s="12" t="str" cm="1">
+      <c r="DV9" s="11" t="str" cm="1">
         <f t="array" ref="DV9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J9))),"")</f>
         <v/>
       </c>
-      <c r="DW9" s="12" cm="1">
+      <c r="DW9" s="11" cm="1">
         <f t="array" ref="DW9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J9))),"")</f>
         <v>4.625</v>
       </c>
-      <c r="DX9" s="12" cm="1">
+      <c r="DX9" s="11" cm="1">
         <f t="array" ref="DX9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J9))),"")</f>
         <v>13.199992897979449</v>
       </c>
-      <c r="DY9" s="12" cm="1">
+      <c r="DY9" s="11" cm="1">
         <f t="array" ref="DY9">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J9))),"")</f>
         <v>95.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB9">
+        <f t="shared" si="0"/>
+        <v>95.8</v>
+      </c>
+      <c r="EC9" t="str" cm="1">
+        <f t="array" ref="EC9">INDEX($K$2:$DY$2,0,MATCH(EB9,K9:DY9,0))</f>
+        <v>Zimbabwe</v>
+      </c>
+      <c r="EF9">
+        <f t="shared" si="1"/>
+        <v>3.092871455687896</v>
+      </c>
+      <c r="EG9" t="str" cm="1">
+        <f t="array" ref="EG9">INDEX($K$2:$DY$2,0,MATCH($EF9,$K9:$DY9,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="10" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>36577303</v>
       </c>
@@ -8110,487 +8284,503 @@
       <c r="F10" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>2017</v>
       </c>
-      <c r="K10" s="12" cm="1">
+      <c r="K10" s="11" cm="1">
         <f t="array" ref="K10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J10))),"")</f>
         <v>18.331085757883901</v>
       </c>
-      <c r="L10" s="12" cm="1">
+      <c r="L10" s="11" cm="1">
         <f t="array" ref="L10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J10))),"")</f>
         <v>40.9318930231127</v>
       </c>
-      <c r="M10" s="12" cm="1">
+      <c r="M10" s="11" cm="1">
         <f t="array" ref="M10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J10))),"")</f>
         <v>49.204234546313664</v>
       </c>
-      <c r="N10" s="12" cm="1">
+      <c r="N10" s="11" cm="1">
         <f t="array" ref="N10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J10))),"")</f>
         <v>12.778527949733901</v>
       </c>
-      <c r="O10" s="12" cm="1">
+      <c r="O10" s="11" cm="1">
         <f t="array" ref="O10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J10))),"")</f>
         <v>54.906331910365466</v>
       </c>
-      <c r="P10" s="12" cm="1">
+      <c r="P10" s="11" cm="1">
         <f t="array" ref="P10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J10))),"")</f>
         <v>27.649692261761221</v>
       </c>
-      <c r="Q10" s="12" cm="1">
+      <c r="Q10" s="11" cm="1">
         <f t="array" ref="Q10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J10))),"")</f>
         <v>13.4295538731719</v>
       </c>
-      <c r="R10" s="12" cm="1">
+      <c r="R10" s="11" cm="1">
         <f t="array" ref="R10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J10))),"")</f>
         <v>45.723222095581399</v>
       </c>
-      <c r="S10" s="12" cm="1">
+      <c r="S10" s="11" cm="1">
         <f t="array" ref="S10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J10))),"")</f>
         <v>21.007888331931301</v>
       </c>
-      <c r="T10" s="12" cm="1">
+      <c r="T10" s="11" cm="1">
         <f t="array" ref="T10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J10))),"")</f>
         <v>12.551527905449101</v>
       </c>
-      <c r="U10" s="12" cm="1">
+      <c r="U10" s="11" cm="1">
         <f t="array" ref="U10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J10))),"")</f>
         <v>44.189770522058929</v>
       </c>
-      <c r="V10" s="12" t="str" cm="1">
+      <c r="V10" s="11" t="str" cm="1">
         <f t="array" ref="V10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="W10" s="12" cm="1">
+      <c r="W10" s="11" cm="1">
         <f t="array" ref="W10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J10))),"")</f>
         <v>19.554323900063551</v>
       </c>
-      <c r="X10" s="12" t="str" cm="1">
+      <c r="X10" s="11" t="str" cm="1">
         <f t="array" ref="X10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="12" cm="1">
+      <c r="Y10" s="11" cm="1">
         <f t="array" ref="Y10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J10))),"")</f>
         <v>33.215125624771694</v>
       </c>
-      <c r="Z10" s="12" t="str" cm="1">
+      <c r="Z10" s="11" t="str" cm="1">
         <f t="array" ref="Z10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="AA10" s="12" cm="1">
+      <c r="AA10" s="11" cm="1">
         <f t="array" ref="AA10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J10))),"")</f>
         <v>10.516462162507358</v>
       </c>
-      <c r="AB10" s="12" cm="1">
+      <c r="AB10" s="11" cm="1">
         <f t="array" ref="AB10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J10))),"")</f>
         <v>30.5</v>
       </c>
-      <c r="AC10" s="12" cm="1">
+      <c r="AC10" s="11" cm="1">
         <f t="array" ref="AC10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J10))),"")</f>
         <v>51.015455286976049</v>
       </c>
-      <c r="AD10" s="12" cm="1">
+      <c r="AD10" s="11" cm="1">
         <f t="array" ref="AD10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J10))),"")</f>
         <v>40.2065492909502</v>
       </c>
-      <c r="AE10" s="12" cm="1">
+      <c r="AE10" s="11" cm="1">
         <f t="array" ref="AE10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J10))),"")</f>
         <v>30.834812317259427</v>
       </c>
-      <c r="AF10" s="12" cm="1">
+      <c r="AF10" s="11" cm="1">
         <f t="array" ref="AF10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J10))),"")</f>
         <v>54.612036489497598</v>
       </c>
-      <c r="AG10" s="12" t="str" cm="1">
+      <c r="AG10" s="11" t="str" cm="1">
         <f t="array" ref="AG10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="AH10" s="12" cm="1">
+      <c r="AH10" s="11" cm="1">
         <f t="array" ref="AH10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J10))),"")</f>
         <v>25.172324664938248</v>
       </c>
-      <c r="AI10" s="12" cm="1">
+      <c r="AI10" s="11" cm="1">
         <f t="array" ref="AI10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J10))),"")</f>
         <v>41.878638602776498</v>
       </c>
-      <c r="AJ10" s="12" cm="1">
+      <c r="AJ10" s="11" cm="1">
         <f t="array" ref="AJ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J10))),"")</f>
         <v>17.621282674609766</v>
       </c>
-      <c r="AK10" s="12" cm="1">
+      <c r="AK10" s="11" cm="1">
         <f t="array" ref="AK10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J10))),"")</f>
         <v>48.623738452338799</v>
       </c>
-      <c r="AL10" s="12" cm="1">
+      <c r="AL10" s="11" cm="1">
         <f t="array" ref="AL10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J10))),"")</f>
         <v>40.163528138528136</v>
       </c>
-      <c r="AM10" s="12" cm="1">
+      <c r="AM10" s="11" cm="1">
         <f t="array" ref="AM10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J10))),"")</f>
         <v>15.991153239304001</v>
       </c>
-      <c r="AN10" s="12" cm="1">
+      <c r="AN10" s="11" cm="1">
         <f t="array" ref="AN10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J10))),"")</f>
         <v>61</v>
       </c>
-      <c r="AO10" s="12" cm="1">
+      <c r="AO10" s="11" cm="1">
         <f t="array" ref="AO10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J10))),"")</f>
         <v>22.527697190365849</v>
       </c>
-      <c r="AP10" s="12" t="str" cm="1">
+      <c r="AP10" s="11" t="str" cm="1">
         <f t="array" ref="AP10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="12" cm="1">
+      <c r="AQ10" s="11" cm="1">
         <f t="array" ref="AQ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J10))),"")</f>
         <v>23.494800218938135</v>
       </c>
-      <c r="AR10" s="12" cm="1">
+      <c r="AR10" s="11" cm="1">
         <f t="array" ref="AR10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J10))),"")</f>
         <v>30.164571521516859</v>
       </c>
-      <c r="AS10" s="12" cm="1">
+      <c r="AS10" s="11" cm="1">
         <f t="array" ref="AS10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J10))),"")</f>
         <v>14.721380855566199</v>
       </c>
-      <c r="AT10" s="12" cm="1">
+      <c r="AT10" s="11" cm="1">
         <f t="array" ref="AT10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J10))),"")</f>
         <v>31.978166662168004</v>
       </c>
-      <c r="AU10" s="12" cm="1">
+      <c r="AU10" s="11" cm="1">
         <f t="array" ref="AU10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J10))),"")</f>
         <v>53.510187525809599</v>
       </c>
-      <c r="AV10" s="12" cm="1">
+      <c r="AV10" s="11" cm="1">
         <f t="array" ref="AV10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J10))),"")</f>
         <v>25.136435986614369</v>
       </c>
-      <c r="AW10" s="12" cm="1">
+      <c r="AW10" s="11" cm="1">
         <f t="array" ref="AW10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J10))),"")</f>
         <v>56.193869155190299</v>
       </c>
-      <c r="AX10" s="12" t="str" cm="1">
+      <c r="AX10" s="11" t="str" cm="1">
         <f t="array" ref="AX10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="AY10" s="12" cm="1">
+      <c r="AY10" s="11" cm="1">
         <f t="array" ref="AY10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J10))),"")</f>
         <v>14.3366825399177</v>
       </c>
-      <c r="AZ10" s="12" cm="1">
+      <c r="AZ10" s="11" cm="1">
         <f t="array" ref="AZ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J10))),"")</f>
         <v>62.07775458359</v>
       </c>
-      <c r="BA10" s="12" cm="1">
+      <c r="BA10" s="11" cm="1">
         <f t="array" ref="BA10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J10))),"")</f>
         <v>17.23350196585762</v>
       </c>
-      <c r="BB10" s="12" cm="1">
+      <c r="BB10" s="11" cm="1">
         <f t="array" ref="BB10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J10))),"")</f>
         <v>58.901293190307946</v>
       </c>
-      <c r="BC10" s="12" cm="1">
+      <c r="BC10" s="11" cm="1">
         <f t="array" ref="BC10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J10))),"")</f>
         <v>56.488036775609103</v>
       </c>
-      <c r="BD10" s="12" cm="1">
+      <c r="BD10" s="11" cm="1">
         <f t="array" ref="BD10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J10))),"")</f>
         <v>41.443393095483401</v>
       </c>
-      <c r="BE10" s="12" cm="1">
+      <c r="BE10" s="11" cm="1">
         <f t="array" ref="BE10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J10))),"")</f>
         <v>53.313927451858504</v>
       </c>
-      <c r="BF10" s="12" cm="1">
+      <c r="BF10" s="11" cm="1">
         <f t="array" ref="BF10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J10))),"")</f>
         <v>25.795356003662771</v>
       </c>
-      <c r="BG10" s="12" cm="1">
+      <c r="BG10" s="11" cm="1">
         <f t="array" ref="BG10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J10))),"")</f>
         <v>29.981428018772977</v>
       </c>
-      <c r="BH10" s="12" t="str" cm="1">
+      <c r="BH10" s="11" t="str" cm="1">
         <f t="array" ref="BH10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BI10" s="12" cm="1">
+      <c r="BI10" s="11" cm="1">
         <f t="array" ref="BI10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J10))),"")</f>
         <v>35.525972161969101</v>
       </c>
-      <c r="BJ10" s="12" cm="1">
+      <c r="BJ10" s="11" cm="1">
         <f t="array" ref="BJ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J10))),"")</f>
         <v>50.213524801726997</v>
       </c>
-      <c r="BK10" s="12" cm="1">
+      <c r="BK10" s="11" cm="1">
         <f t="array" ref="BK10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J10))),"")</f>
         <v>12.307651089860499</v>
       </c>
-      <c r="BL10" s="12" cm="1">
+      <c r="BL10" s="11" cm="1">
         <f t="array" ref="BL10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J10))),"")</f>
         <v>50.145251014553999</v>
       </c>
-      <c r="BM10" s="12" t="str" cm="1">
+      <c r="BM10" s="11" t="str" cm="1">
         <f t="array" ref="BM10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BN10" s="12" t="str" cm="1">
+      <c r="BN10" s="11" t="str" cm="1">
         <f t="array" ref="BN10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BO10" s="12" cm="1">
+      <c r="BO10" s="11" cm="1">
         <f t="array" ref="BO10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J10))),"")</f>
         <v>15.4423460012045</v>
       </c>
-      <c r="BP10" s="12" cm="1">
+      <c r="BP10" s="11" cm="1">
         <f t="array" ref="BP10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J10))),"")</f>
         <v>50.059988004065701</v>
       </c>
-      <c r="BQ10" s="12" t="str" cm="1">
+      <c r="BQ10" s="11" t="str" cm="1">
         <f t="array" ref="BQ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BR10" s="12" cm="1">
+      <c r="BR10" s="11" cm="1">
         <f t="array" ref="BR10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J10))),"")</f>
         <v>11.888813612951532</v>
       </c>
-      <c r="BS10" s="12" cm="1">
+      <c r="BS10" s="11" cm="1">
         <f t="array" ref="BS10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J10))),"")</f>
         <v>49.174962968066403</v>
       </c>
-      <c r="BT10" s="12" cm="1">
+      <c r="BT10" s="11" cm="1">
         <f t="array" ref="BT10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J10))),"")</f>
         <v>37.713950762016395</v>
       </c>
-      <c r="BU10" s="12" t="str" cm="1">
+      <c r="BU10" s="11" t="str" cm="1">
         <f t="array" ref="BU10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BV10" s="12" t="str" cm="1">
+      <c r="BV10" s="11" t="str" cm="1">
         <f t="array" ref="BV10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="BW10" s="12" cm="1">
+      <c r="BW10" s="11" cm="1">
         <f t="array" ref="BW10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J10))),"")</f>
         <v>45.562249818329001</v>
       </c>
-      <c r="BX10" s="12" cm="1">
+      <c r="BX10" s="11" cm="1">
         <f t="array" ref="BX10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J10))),"")</f>
         <v>25.483047202734561</v>
       </c>
-      <c r="BY10" s="12" cm="1">
+      <c r="BY10" s="11" cm="1">
         <f t="array" ref="BY10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J10))),"")</f>
         <v>13.4864444732696</v>
       </c>
-      <c r="BZ10" s="12" cm="1">
+      <c r="BZ10" s="11" cm="1">
         <f t="array" ref="BZ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J10))),"")</f>
         <v>26.8696820420958</v>
       </c>
-      <c r="CA10" s="12" cm="1">
+      <c r="CA10" s="11" cm="1">
         <f t="array" ref="CA10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J10))),"")</f>
         <v>24.00008711242155</v>
       </c>
-      <c r="CB10" s="12" cm="1">
+      <c r="CB10" s="11" cm="1">
         <f t="array" ref="CB10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J10))),"")</f>
         <v>77.055798284052599</v>
       </c>
-      <c r="CC10" s="12" t="str" cm="1">
+      <c r="CC10" s="11" t="str" cm="1">
         <f t="array" ref="CC10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="CD10" s="12" cm="1">
+      <c r="CD10" s="11" cm="1">
         <f t="array" ref="CD10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J10))),"")</f>
         <v>19.6326532011519</v>
       </c>
-      <c r="CE10" s="12" cm="1">
+      <c r="CE10" s="11" cm="1">
         <f t="array" ref="CE10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J10))),"")</f>
         <v>60.129670802852203</v>
       </c>
-      <c r="CF10" s="12" t="str" cm="1">
+      <c r="CF10" s="11" t="str" cm="1">
         <f t="array" ref="CF10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="CG10" s="12" t="str" cm="1">
+      <c r="CG10" s="11" t="str" cm="1">
         <f t="array" ref="CG10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="CH10" s="12" cm="1">
+      <c r="CH10" s="11" cm="1">
         <f t="array" ref="CH10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J10))),"")</f>
         <v>16.6031133786888</v>
       </c>
-      <c r="CI10" s="12" cm="1">
+      <c r="CI10" s="11" cm="1">
         <f t="array" ref="CI10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J10))),"")</f>
         <v>49.734100973966122</v>
       </c>
-      <c r="CJ10" s="12" cm="1">
+      <c r="CJ10" s="11" cm="1">
         <f t="array" ref="CJ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J10))),"")</f>
         <v>60.787115209767499</v>
       </c>
-      <c r="CK10" s="12" cm="1">
+      <c r="CK10" s="11" cm="1">
         <f t="array" ref="CK10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J10))),"")</f>
         <v>29.972218494188766</v>
       </c>
-      <c r="CL10" s="12" cm="1">
+      <c r="CL10" s="11" cm="1">
         <f t="array" ref="CL10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J10))),"")</f>
         <v>46.478260869565197</v>
       </c>
-      <c r="CM10" s="12" cm="1">
+      <c r="CM10" s="11" cm="1">
         <f t="array" ref="CM10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J10))),"")</f>
         <v>45.231441673832002</v>
       </c>
-      <c r="CN10" s="12" cm="1">
+      <c r="CN10" s="11" cm="1">
         <f t="array" ref="CN10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J10))),"")</f>
         <v>15.01428781543504</v>
       </c>
-      <c r="CO10" s="12" cm="1">
+      <c r="CO10" s="11" cm="1">
         <f t="array" ref="CO10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J10))),"")</f>
         <v>43.3518929101906</v>
       </c>
-      <c r="CP10" s="12" cm="1">
+      <c r="CP10" s="11" cm="1">
         <f t="array" ref="CP10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J10))),"")</f>
         <v>48.259884582754502</v>
       </c>
-      <c r="CQ10" s="12" cm="1">
+      <c r="CQ10" s="11" cm="1">
         <f t="array" ref="CQ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J10))),"")</f>
         <v>13.086951500936998</v>
       </c>
-      <c r="CR10" s="12" cm="1">
+      <c r="CR10" s="11" cm="1">
         <f t="array" ref="CR10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J10))),"")</f>
         <v>30.871058255162978</v>
       </c>
-      <c r="CS10" s="12" cm="1">
+      <c r="CS10" s="11" cm="1">
         <f t="array" ref="CS10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J10))),"")</f>
         <v>71.530662919023598</v>
       </c>
-      <c r="CT10" s="12" cm="1">
+      <c r="CT10" s="11" cm="1">
         <f t="array" ref="CT10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J10))),"")</f>
         <v>8.5717915393699649</v>
       </c>
-      <c r="CU10" s="12" cm="1">
+      <c r="CU10" s="11" cm="1">
         <f t="array" ref="CU10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J10))),"")</f>
         <v>7.8349397834474832</v>
       </c>
-      <c r="CV10" s="12" cm="1">
+      <c r="CV10" s="11" cm="1">
         <f t="array" ref="CV10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J10))),"")</f>
         <v>57.221171281984148</v>
       </c>
-      <c r="CW10" s="12" cm="1">
+      <c r="CW10" s="11" cm="1">
         <f t="array" ref="CW10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J10))),"")</f>
         <v>15.629618566674401</v>
       </c>
-      <c r="CX10" s="12" cm="1">
+      <c r="CX10" s="11" cm="1">
         <f t="array" ref="CX10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J10))),"")</f>
         <v>34.067283384726501</v>
       </c>
-      <c r="CY10" s="12" cm="1">
+      <c r="CY10" s="11" cm="1">
         <f t="array" ref="CY10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J10))),"")</f>
         <v>18.4113300492611</v>
       </c>
-      <c r="CZ10" s="12" cm="1">
+      <c r="CZ10" s="11" cm="1">
         <f t="array" ref="CZ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J10))),"")</f>
         <v>34.209085933223903</v>
       </c>
-      <c r="DA10" s="12" cm="1">
+      <c r="DA10" s="11" cm="1">
         <f t="array" ref="DA10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J10))),"")</f>
         <v>67.847149013987419</v>
       </c>
-      <c r="DB10" s="12" cm="1">
+      <c r="DB10" s="11" cm="1">
         <f t="array" ref="DB10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J10))),"")</f>
         <v>21.103656640156402</v>
       </c>
-      <c r="DC10" s="12" cm="1">
+      <c r="DC10" s="11" cm="1">
         <f t="array" ref="DC10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J10))),"")</f>
         <v>42.914223941475697</v>
       </c>
-      <c r="DD10" s="12" cm="1">
+      <c r="DD10" s="11" cm="1">
         <f t="array" ref="DD10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J10))),"")</f>
         <v>17.2423884150415</v>
       </c>
-      <c r="DE10" s="12" t="str" cm="1">
+      <c r="DE10" s="11" t="str" cm="1">
         <f t="array" ref="DE10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DF10" s="12" cm="1">
+      <c r="DF10" s="11" cm="1">
         <f t="array" ref="DF10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J10))),"")</f>
         <v>33.734619221815798</v>
       </c>
-      <c r="DG10" s="12" cm="1">
+      <c r="DG10" s="11" cm="1">
         <f t="array" ref="DG10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J10))),"")</f>
         <v>32.755761641463629</v>
       </c>
-      <c r="DH10" s="12" cm="1">
+      <c r="DH10" s="11" cm="1">
         <f t="array" ref="DH10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J10))),"")</f>
         <v>59.712901659466546</v>
       </c>
-      <c r="DI10" s="12" cm="1">
+      <c r="DI10" s="11" cm="1">
         <f t="array" ref="DI10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J10))),"")</f>
         <v>24.9247054654974</v>
       </c>
-      <c r="DJ10" s="12" t="str" cm="1">
+      <c r="DJ10" s="11" t="str" cm="1">
         <f t="array" ref="DJ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DK10" s="12" cm="1">
+      <c r="DK10" s="11" cm="1">
         <f t="array" ref="DK10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J10))),"")</f>
         <v>20.013256630761227</v>
       </c>
-      <c r="DL10" s="12" t="str" cm="1">
+      <c r="DL10" s="11" t="str" cm="1">
         <f t="array" ref="DL10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DM10" s="12" cm="1">
+      <c r="DM10" s="11" cm="1">
         <f t="array" ref="DM10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J10))),"")</f>
         <v>37.5846771169726</v>
       </c>
-      <c r="DN10" s="12" cm="1">
+      <c r="DN10" s="11" cm="1">
         <f t="array" ref="DN10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J10))),"")</f>
         <v>18.419489007724302</v>
       </c>
-      <c r="DO10" s="12" cm="1">
+      <c r="DO10" s="11" cm="1">
         <f t="array" ref="DO10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J10))),"")</f>
         <v>18.111468428216014</v>
       </c>
-      <c r="DP10" s="12" t="str" cm="1">
+      <c r="DP10" s="11" t="str" cm="1">
         <f t="array" ref="DP10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DQ10" s="12" cm="1">
+      <c r="DQ10" s="11" cm="1">
         <f t="array" ref="DQ10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J10))),"")</f>
         <v>4.0892119882377251</v>
       </c>
-      <c r="DR10" s="12" cm="1">
+      <c r="DR10" s="11" cm="1">
         <f t="array" ref="DR10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J10))),"")</f>
         <v>92.390131457549231</v>
       </c>
-      <c r="DS10" s="12" cm="1">
+      <c r="DS10" s="11" cm="1">
         <f t="array" ref="DS10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J10))),"")</f>
         <v>33.669651938380923</v>
       </c>
-      <c r="DT10" s="12" cm="1">
+      <c r="DT10" s="11" cm="1">
         <f t="array" ref="DT10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J10))),"")</f>
         <v>59.978875649241949</v>
       </c>
-      <c r="DU10" s="12" cm="1">
+      <c r="DU10" s="11" cm="1">
         <f t="array" ref="DU10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J10))),"")</f>
         <v>34.8393048318501</v>
       </c>
-      <c r="DV10" s="12" t="str" cm="1">
+      <c r="DV10" s="11" t="str" cm="1">
         <f t="array" ref="DV10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DW10" s="12" t="str" cm="1">
+      <c r="DW10" s="11" t="str" cm="1">
         <f t="array" ref="DW10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-      <c r="DX10" s="12" cm="1">
+      <c r="DX10" s="11" cm="1">
         <f t="array" ref="DX10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J10))),"")</f>
         <v>10.790183970871015</v>
       </c>
-      <c r="DY10" s="12" t="str" cm="1">
+      <c r="DY10" s="11" t="str" cm="1">
         <f t="array" ref="DY10">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J10))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB10">
+        <f t="shared" si="0"/>
+        <v>92.390131457549231</v>
+      </c>
+      <c r="EC10" t="str" cm="1">
+        <f t="array" ref="EC10">INDEX($K$2:$DY$2,0,MATCH(EB10,K10:DY10,0))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="EF10">
+        <f t="shared" si="1"/>
+        <v>4.0892119882377251</v>
+      </c>
+      <c r="EG10" t="str" cm="1">
+        <f t="array" ref="EG10">INDEX($K$2:$DY$2,0,MATCH($EF10,$K10:$DY10,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="11" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>49903148</v>
       </c>
@@ -8609,487 +8799,503 @@
       <c r="F11" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>2018</v>
       </c>
-      <c r="K11" s="12" cm="1">
+      <c r="K11" s="11" cm="1">
         <f t="array" ref="K11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J11))),"")</f>
         <v>24.5472963471701</v>
       </c>
-      <c r="L11" s="12" cm="1">
+      <c r="L11" s="11" cm="1">
         <f t="array" ref="L11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J11))),"")</f>
         <v>19.7407947815638</v>
       </c>
-      <c r="M11" s="12" cm="1">
+      <c r="M11" s="11" cm="1">
         <f t="array" ref="M11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J11))),"")</f>
         <v>47.471820287404249</v>
       </c>
-      <c r="N11" s="12" cm="1">
+      <c r="N11" s="11" cm="1">
         <f t="array" ref="N11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J11))),"")</f>
         <v>16.4799828955571</v>
       </c>
-      <c r="O11" s="12" cm="1">
+      <c r="O11" s="11" cm="1">
         <f t="array" ref="O11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J11))),"")</f>
         <v>55.556140500950576</v>
       </c>
-      <c r="P11" s="12" cm="1">
+      <c r="P11" s="11" cm="1">
         <f t="array" ref="P11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J11))),"")</f>
         <v>35.328130759226234</v>
       </c>
-      <c r="Q11" s="12" cm="1">
+      <c r="Q11" s="11" cm="1">
         <f t="array" ref="Q11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J11))),"")</f>
         <v>14.080134256345699</v>
       </c>
-      <c r="R11" s="12" cm="1">
+      <c r="R11" s="11" cm="1">
         <f t="array" ref="R11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J11))),"")</f>
         <v>41.300762210861599</v>
       </c>
-      <c r="S11" s="12" cm="1">
+      <c r="S11" s="11" cm="1">
         <f t="array" ref="S11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J11))),"")</f>
         <v>27.991546917157901</v>
       </c>
-      <c r="T11" s="12" cm="1">
+      <c r="T11" s="11" cm="1">
         <f t="array" ref="T11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J11))),"")</f>
         <v>14.1238910399723</v>
       </c>
-      <c r="U11" s="12" cm="1">
+      <c r="U11" s="11" cm="1">
         <f t="array" ref="U11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J11))),"")</f>
         <v>55.227399535469146</v>
       </c>
-      <c r="V11" s="12" cm="1">
+      <c r="V11" s="11" cm="1">
         <f t="array" ref="V11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J11))),"")</f>
         <v>43.105322265701503</v>
       </c>
-      <c r="W11" s="12" cm="1">
+      <c r="W11" s="11" cm="1">
         <f t="array" ref="W11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J11))),"")</f>
         <v>24.663203710052848</v>
       </c>
-      <c r="X11" s="12" cm="1">
+      <c r="X11" s="11" cm="1">
         <f t="array" ref="X11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J11))),"")</f>
         <v>58.300328311262597</v>
       </c>
-      <c r="Y11" s="12" cm="1">
+      <c r="Y11" s="11" cm="1">
         <f t="array" ref="Y11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J11))),"")</f>
         <v>35.226098398403551</v>
       </c>
-      <c r="Z11" s="12" cm="1">
+      <c r="Z11" s="11" cm="1">
         <f t="array" ref="Z11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J11))),"")</f>
         <v>93.732780446286</v>
       </c>
-      <c r="AA11" s="12" cm="1">
+      <c r="AA11" s="11" cm="1">
         <f t="array" ref="AA11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J11))),"")</f>
         <v>11.683590011302439</v>
       </c>
-      <c r="AB11" s="12" cm="1">
+      <c r="AB11" s="11" cm="1">
         <f t="array" ref="AB11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J11))),"")</f>
         <v>33.6666666666667</v>
       </c>
-      <c r="AC11" s="12" cm="1">
+      <c r="AC11" s="11" cm="1">
         <f t="array" ref="AC11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J11))),"")</f>
         <v>57.113330839947743</v>
       </c>
-      <c r="AD11" s="12" cm="1">
+      <c r="AD11" s="11" cm="1">
         <f t="array" ref="AD11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J11))),"")</f>
         <v>41.343391781070203</v>
       </c>
-      <c r="AE11" s="12" cm="1">
+      <c r="AE11" s="11" cm="1">
         <f t="array" ref="AE11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J11))),"")</f>
         <v>34.298707222937139</v>
       </c>
-      <c r="AF11" s="12" cm="1">
+      <c r="AF11" s="11" cm="1">
         <f t="array" ref="AF11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J11))),"")</f>
         <v>77.489833724150103</v>
       </c>
-      <c r="AG11" s="12" t="str" cm="1">
+      <c r="AG11" s="11" t="str" cm="1">
         <f t="array" ref="AG11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="AH11" s="12" cm="1">
+      <c r="AH11" s="11" cm="1">
         <f t="array" ref="AH11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J11))),"")</f>
         <v>25.450432310241617</v>
       </c>
-      <c r="AI11" s="12" cm="1">
+      <c r="AI11" s="11" cm="1">
         <f t="array" ref="AI11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J11))),"")</f>
         <v>47.111604188563248</v>
       </c>
-      <c r="AJ11" s="12" cm="1">
+      <c r="AJ11" s="11" cm="1">
         <f t="array" ref="AJ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J11))),"")</f>
         <v>20.584897043966468</v>
       </c>
-      <c r="AK11" s="12" cm="1">
+      <c r="AK11" s="11" cm="1">
         <f t="array" ref="AK11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J11))),"")</f>
         <v>61.392054350417503</v>
       </c>
-      <c r="AL11" s="12" cm="1">
+      <c r="AL11" s="11" cm="1">
         <f t="array" ref="AL11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J11))),"")</f>
         <v>40.340476190476203</v>
       </c>
-      <c r="AM11" s="12" cm="1">
+      <c r="AM11" s="11" cm="1">
         <f t="array" ref="AM11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J11))),"")</f>
         <v>16.4490400144837</v>
       </c>
-      <c r="AN11" s="12" cm="1">
+      <c r="AN11" s="11" cm="1">
         <f t="array" ref="AN11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J11))),"")</f>
         <v>46.8888888888889</v>
       </c>
-      <c r="AO11" s="12" cm="1">
+      <c r="AO11" s="11" cm="1">
         <f t="array" ref="AO11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J11))),"")</f>
         <v>26.388419372617001</v>
       </c>
-      <c r="AP11" s="12" t="str" cm="1">
+      <c r="AP11" s="11" t="str" cm="1">
         <f t="array" ref="AP11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="AQ11" s="12" cm="1">
+      <c r="AQ11" s="11" cm="1">
         <f t="array" ref="AQ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J11))),"")</f>
         <v>26.38309615566418</v>
       </c>
-      <c r="AR11" s="12" cm="1">
+      <c r="AR11" s="11" cm="1">
         <f t="array" ref="AR11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J11))),"")</f>
         <v>33.42875438135146</v>
       </c>
-      <c r="AS11" s="12" cm="1">
+      <c r="AS11" s="11" cm="1">
         <f t="array" ref="AS11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J11))),"")</f>
         <v>16.687682432812601</v>
       </c>
-      <c r="AT11" s="12" cm="1">
+      <c r="AT11" s="11" cm="1">
         <f t="array" ref="AT11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J11))),"")</f>
         <v>34.612606275806776</v>
       </c>
-      <c r="AU11" s="12" t="str" cm="1">
+      <c r="AU11" s="11" t="str" cm="1">
         <f t="array" ref="AU11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="AV11" s="12" cm="1">
+      <c r="AV11" s="11" cm="1">
         <f t="array" ref="AV11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J11))),"")</f>
         <v>34.321480778759678</v>
       </c>
-      <c r="AW11" s="12" cm="1">
+      <c r="AW11" s="11" cm="1">
         <f t="array" ref="AW11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J11))),"")</f>
         <v>73.305537211518498</v>
       </c>
-      <c r="AX11" s="12" cm="1">
+      <c r="AX11" s="11" cm="1">
         <f t="array" ref="AX11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J11))),"")</f>
         <v>37.5555555555556</v>
       </c>
-      <c r="AY11" s="12" cm="1">
+      <c r="AY11" s="11" cm="1">
         <f t="array" ref="AY11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J11))),"")</f>
         <v>14.213766790917433</v>
       </c>
-      <c r="AZ11" s="12" cm="1">
+      <c r="AZ11" s="11" cm="1">
         <f t="array" ref="AZ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J11))),"")</f>
         <v>68.283680760682998</v>
       </c>
-      <c r="BA11" s="12" cm="1">
+      <c r="BA11" s="11" cm="1">
         <f t="array" ref="BA11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J11))),"")</f>
         <v>13.305880830070587</v>
       </c>
-      <c r="BB11" s="12" cm="1">
+      <c r="BB11" s="11" cm="1">
         <f t="array" ref="BB11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J11))),"")</f>
         <v>32.992226048008199</v>
       </c>
-      <c r="BC11" s="12" cm="1">
+      <c r="BC11" s="11" cm="1">
         <f t="array" ref="BC11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J11))),"")</f>
         <v>27.544642779527567</v>
       </c>
-      <c r="BD11" s="12" cm="1">
+      <c r="BD11" s="11" cm="1">
         <f t="array" ref="BD11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J11))),"")</f>
         <v>40.075298438934801</v>
       </c>
-      <c r="BE11" s="12" cm="1">
+      <c r="BE11" s="11" cm="1">
         <f t="array" ref="BE11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J11))),"")</f>
         <v>65.655614864164448</v>
       </c>
-      <c r="BF11" s="12" cm="1">
+      <c r="BF11" s="11" cm="1">
         <f t="array" ref="BF11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J11))),"")</f>
         <v>26.697303889636501</v>
       </c>
-      <c r="BG11" s="12" cm="1">
+      <c r="BG11" s="11" cm="1">
         <f t="array" ref="BG11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J11))),"")</f>
         <v>33.054193720591428</v>
       </c>
-      <c r="BH11" s="12" cm="1">
+      <c r="BH11" s="11" cm="1">
         <f t="array" ref="BH11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J11))),"")</f>
         <v>41.956239912456702</v>
       </c>
-      <c r="BI11" s="12" cm="1">
+      <c r="BI11" s="11" cm="1">
         <f t="array" ref="BI11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J11))),"")</f>
         <v>41.481384639806599</v>
       </c>
-      <c r="BJ11" s="12" cm="1">
+      <c r="BJ11" s="11" cm="1">
         <f t="array" ref="BJ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J11))),"")</f>
         <v>45.393042735548697</v>
       </c>
-      <c r="BK11" s="12" cm="1">
+      <c r="BK11" s="11" cm="1">
         <f t="array" ref="BK11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J11))),"")</f>
         <v>12.465708072237801</v>
       </c>
-      <c r="BL11" s="12" cm="1">
+      <c r="BL11" s="11" cm="1">
         <f t="array" ref="BL11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J11))),"")</f>
         <v>65.744184781487306</v>
       </c>
-      <c r="BM11" s="12" cm="1">
+      <c r="BM11" s="11" cm="1">
         <f t="array" ref="BM11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J11))),"")</f>
         <v>27.3959716069728</v>
       </c>
-      <c r="BN11" s="12" cm="1">
+      <c r="BN11" s="11" cm="1">
         <f t="array" ref="BN11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J11))),"")</f>
         <v>16.079163510460901</v>
       </c>
-      <c r="BO11" s="12" cm="1">
+      <c r="BO11" s="11" cm="1">
         <f t="array" ref="BO11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J11))),"")</f>
         <v>17.596718644679001</v>
       </c>
-      <c r="BP11" s="12" cm="1">
+      <c r="BP11" s="11" cm="1">
         <f t="array" ref="BP11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J11))),"")</f>
         <v>45.457879104917502</v>
       </c>
-      <c r="BQ11" s="12" t="str" cm="1">
+      <c r="BQ11" s="11" t="str" cm="1">
         <f t="array" ref="BQ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="BR11" s="12" cm="1">
+      <c r="BR11" s="11" cm="1">
         <f t="array" ref="BR11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J11))),"")</f>
         <v>12.279757386429999</v>
       </c>
-      <c r="BS11" s="12" cm="1">
+      <c r="BS11" s="11" cm="1">
         <f t="array" ref="BS11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J11))),"")</f>
         <v>56.193798902253903</v>
       </c>
-      <c r="BT11" s="12" cm="1">
+      <c r="BT11" s="11" cm="1">
         <f t="array" ref="BT11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J11))),"")</f>
         <v>41.149007699272936</v>
       </c>
-      <c r="BU11" s="12" cm="1">
+      <c r="BU11" s="11" cm="1">
         <f t="array" ref="BU11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J11))),"")</f>
         <v>94.552810339699604</v>
       </c>
-      <c r="BV11" s="12" t="str" cm="1">
+      <c r="BV11" s="11" t="str" cm="1">
         <f t="array" ref="BV11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="BW11" s="12" cm="1">
+      <c r="BW11" s="11" cm="1">
         <f t="array" ref="BW11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J11))),"")</f>
         <v>40.520672112915101</v>
       </c>
-      <c r="BX11" s="12" cm="1">
+      <c r="BX11" s="11" cm="1">
         <f t="array" ref="BX11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J11))),"")</f>
         <v>26.907131288221009</v>
       </c>
-      <c r="BY11" s="12" t="str" cm="1">
+      <c r="BY11" s="11" t="str" cm="1">
         <f t="array" ref="BY11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="BZ11" s="12" cm="1">
+      <c r="BZ11" s="11" cm="1">
         <f t="array" ref="BZ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J11))),"")</f>
         <v>30.840048269687401</v>
       </c>
-      <c r="CA11" s="12" cm="1">
+      <c r="CA11" s="11" cm="1">
         <f t="array" ref="CA11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J11))),"")</f>
         <v>31.821483425044548</v>
       </c>
-      <c r="CB11" s="12" t="str" cm="1">
+      <c r="CB11" s="11" t="str" cm="1">
         <f t="array" ref="CB11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="CC11" s="12" cm="1">
+      <c r="CC11" s="11" cm="1">
         <f t="array" ref="CC11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J11))),"")</f>
         <v>72.096348660766495</v>
       </c>
-      <c r="CD11" s="12" cm="1">
+      <c r="CD11" s="11" cm="1">
         <f t="array" ref="CD11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J11))),"")</f>
         <v>18.4993635637931</v>
       </c>
-      <c r="CE11" s="12" cm="1">
+      <c r="CE11" s="11" cm="1">
         <f t="array" ref="CE11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J11))),"")</f>
         <v>60.509172629152829</v>
       </c>
-      <c r="CF11" s="12" cm="1">
+      <c r="CF11" s="11" cm="1">
         <f t="array" ref="CF11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J11))),"")</f>
         <v>57.139433813835602</v>
       </c>
-      <c r="CG11" s="12" cm="1">
+      <c r="CG11" s="11" cm="1">
         <f t="array" ref="CG11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J11))),"")</f>
         <v>41.500363320945397</v>
       </c>
-      <c r="CH11" s="12" cm="1">
+      <c r="CH11" s="11" cm="1">
         <f t="array" ref="CH11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J11))),"")</f>
         <v>19.817501278476598</v>
       </c>
-      <c r="CI11" s="12" cm="1">
+      <c r="CI11" s="11" cm="1">
         <f t="array" ref="CI11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J11))),"")</f>
         <v>61.613095487026378</v>
       </c>
-      <c r="CJ11" s="12" cm="1">
+      <c r="CJ11" s="11" cm="1">
         <f t="array" ref="CJ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J11))),"")</f>
         <v>73.017412671308804</v>
       </c>
-      <c r="CK11" s="12" cm="1">
+      <c r="CK11" s="11" cm="1">
         <f t="array" ref="CK11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J11))),"")</f>
         <v>23.499302948714337</v>
       </c>
-      <c r="CL11" s="12" cm="1">
+      <c r="CL11" s="11" cm="1">
         <f t="array" ref="CL11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J11))),"")</f>
         <v>55.153846153846203</v>
       </c>
-      <c r="CM11" s="12" cm="1">
+      <c r="CM11" s="11" cm="1">
         <f t="array" ref="CM11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J11))),"")</f>
         <v>32.865484099066997</v>
       </c>
-      <c r="CN11" s="12" cm="1">
+      <c r="CN11" s="11" cm="1">
         <f t="array" ref="CN11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J11))),"")</f>
         <v>17.133774092893585</v>
       </c>
-      <c r="CO11" s="12" cm="1">
+      <c r="CO11" s="11" cm="1">
         <f t="array" ref="CO11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J11))),"")</f>
         <v>38.055619997414396</v>
       </c>
-      <c r="CP11" s="12" cm="1">
+      <c r="CP11" s="11" cm="1">
         <f t="array" ref="CP11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J11))),"")</f>
         <v>53.238945901431649</v>
       </c>
-      <c r="CQ11" s="12" cm="1">
+      <c r="CQ11" s="11" cm="1">
         <f t="array" ref="CQ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J11))),"")</f>
         <v>14.666971067874901</v>
       </c>
-      <c r="CR11" s="12" cm="1">
+      <c r="CR11" s="11" cm="1">
         <f t="array" ref="CR11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J11))),"")</f>
         <v>38.915974761545826</v>
       </c>
-      <c r="CS11" s="12" cm="1">
+      <c r="CS11" s="11" cm="1">
         <f t="array" ref="CS11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J11))),"")</f>
         <v>84.780990052455394</v>
       </c>
-      <c r="CT11" s="12" cm="1">
+      <c r="CT11" s="11" cm="1">
         <f t="array" ref="CT11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J11))),"")</f>
         <v>9.5024872892718513</v>
       </c>
-      <c r="CU11" s="12" cm="1">
+      <c r="CU11" s="11" cm="1">
         <f t="array" ref="CU11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J11))),"")</f>
         <v>7.8259180861777766</v>
       </c>
-      <c r="CV11" s="12" cm="1">
+      <c r="CV11" s="11" cm="1">
         <f t="array" ref="CV11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J11))),"")</f>
         <v>67.1827824823459</v>
       </c>
-      <c r="CW11" s="12" cm="1">
+      <c r="CW11" s="11" cm="1">
         <f t="array" ref="CW11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J11))),"")</f>
         <v>23.372873359315033</v>
       </c>
-      <c r="CX11" s="12" cm="1">
+      <c r="CX11" s="11" cm="1">
         <f t="array" ref="CX11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J11))),"")</f>
         <v>31.988392555607799</v>
       </c>
-      <c r="CY11" s="12" cm="1">
+      <c r="CY11" s="11" cm="1">
         <f t="array" ref="CY11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J11))),"")</f>
         <v>20.7910431954319</v>
       </c>
-      <c r="CZ11" s="12" cm="1">
+      <c r="CZ11" s="11" cm="1">
         <f t="array" ref="CZ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J11))),"")</f>
         <v>39.418003460979051</v>
       </c>
-      <c r="DA11" s="12" cm="1">
+      <c r="DA11" s="11" cm="1">
         <f t="array" ref="DA11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J11))),"")</f>
         <v>75.798260984488707</v>
       </c>
-      <c r="DB11" s="12" cm="1">
+      <c r="DB11" s="11" cm="1">
         <f t="array" ref="DB11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J11))),"")</f>
         <v>26.029035547700001</v>
       </c>
-      <c r="DC11" s="12" cm="1">
+      <c r="DC11" s="11" cm="1">
         <f t="array" ref="DC11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J11))),"")</f>
         <v>48.873388070966456</v>
       </c>
-      <c r="DD11" s="12" cm="1">
+      <c r="DD11" s="11" cm="1">
         <f t="array" ref="DD11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J11))),"")</f>
         <v>16.059023627265901</v>
       </c>
-      <c r="DE11" s="12" t="str" cm="1">
+      <c r="DE11" s="11" t="str" cm="1">
         <f t="array" ref="DE11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-      <c r="DF11" s="12" cm="1">
+      <c r="DF11" s="11" cm="1">
         <f t="array" ref="DF11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J11))),"")</f>
         <v>27.785216925549001</v>
       </c>
-      <c r="DG11" s="12" cm="1">
+      <c r="DG11" s="11" cm="1">
         <f t="array" ref="DG11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J11))),"")</f>
         <v>32.453501858561232</v>
       </c>
-      <c r="DH11" s="12" cm="1">
+      <c r="DH11" s="11" cm="1">
         <f t="array" ref="DH11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J11))),"")</f>
         <v>63.030876981366553</v>
       </c>
-      <c r="DI11" s="12" cm="1">
+      <c r="DI11" s="11" cm="1">
         <f t="array" ref="DI11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J11))),"")</f>
         <v>31.594986373400602</v>
       </c>
-      <c r="DJ11" s="12" cm="1">
+      <c r="DJ11" s="11" cm="1">
         <f t="array" ref="DJ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J11))),"")</f>
         <v>72.665629655595495</v>
       </c>
-      <c r="DK11" s="12" cm="1">
+      <c r="DK11" s="11" cm="1">
         <f t="array" ref="DK11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J11))),"")</f>
         <v>23.328896609087849</v>
       </c>
-      <c r="DL11" s="12" cm="1">
+      <c r="DL11" s="11" cm="1">
         <f t="array" ref="DL11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J11))),"")</f>
         <v>69.285714285714306</v>
       </c>
-      <c r="DM11" s="12" cm="1">
+      <c r="DM11" s="11" cm="1">
         <f t="array" ref="DM11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J11))),"")</f>
         <v>44.564054366363798</v>
       </c>
-      <c r="DN11" s="12" cm="1">
+      <c r="DN11" s="11" cm="1">
         <f t="array" ref="DN11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J11))),"")</f>
         <v>20.902119225267001</v>
       </c>
-      <c r="DO11" s="12" cm="1">
+      <c r="DO11" s="11" cm="1">
         <f t="array" ref="DO11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J11))),"")</f>
         <v>15.84730828501179</v>
       </c>
-      <c r="DP11" s="12" cm="1">
+      <c r="DP11" s="11" cm="1">
         <f t="array" ref="DP11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J11))),"")</f>
         <v>80.844721054695796</v>
       </c>
-      <c r="DQ11" s="12" cm="1">
+      <c r="DQ11" s="11" cm="1">
         <f t="array" ref="DQ11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J11))),"")</f>
         <v>4.5456360705413896</v>
       </c>
-      <c r="DR11" s="12" cm="1">
+      <c r="DR11" s="11" cm="1">
         <f t="array" ref="DR11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J11))),"")</f>
         <v>93.295469161722693</v>
       </c>
-      <c r="DS11" s="12" cm="1">
+      <c r="DS11" s="11" cm="1">
         <f t="array" ref="DS11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J11))),"")</f>
         <v>40.479121293043534</v>
       </c>
-      <c r="DT11" s="12" cm="1">
+      <c r="DT11" s="11" cm="1">
         <f t="array" ref="DT11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J11))),"")</f>
         <v>63.227002589213022</v>
       </c>
-      <c r="DU11" s="12" cm="1">
+      <c r="DU11" s="11" cm="1">
         <f t="array" ref="DU11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J11))),"")</f>
         <v>34.107564112007502</v>
       </c>
-      <c r="DV11" s="12" cm="1">
+      <c r="DV11" s="11" cm="1">
         <f t="array" ref="DV11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J11))),"")</f>
         <v>35.089165019605304</v>
       </c>
-      <c r="DW11" s="12" cm="1">
+      <c r="DW11" s="11" cm="1">
         <f t="array" ref="DW11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J11))),"")</f>
         <v>7.3330769230769199</v>
       </c>
-      <c r="DX11" s="12" cm="1">
+      <c r="DX11" s="11" cm="1">
         <f t="array" ref="DX11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J11))),"")</f>
         <v>11.4462484031</v>
       </c>
-      <c r="DY11" s="12" t="str" cm="1">
+      <c r="DY11" s="11" t="str" cm="1">
         <f t="array" ref="DY11">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J11))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB11">
+        <f t="shared" si="0"/>
+        <v>94.552810339699604</v>
+      </c>
+      <c r="EC11" t="str" cm="1">
+        <f t="array" ref="EC11">INDEX($K$2:$DY$2,0,MATCH(EB11,K11:DY11,0))</f>
+        <v>Maldives</v>
+      </c>
+      <c r="EF11">
+        <f t="shared" si="1"/>
+        <v>4.5456360705413896</v>
+      </c>
+      <c r="EG11" t="str" cm="1">
+        <f t="array" ref="EG11">INDEX($K$2:$DY$2,0,MATCH($EF11,$K11:$DY11,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="12" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>75958256</v>
       </c>
@@ -9108,487 +9314,503 @@
       <c r="F12" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>2019</v>
       </c>
-      <c r="K12" s="12" cm="1">
+      <c r="K12" s="11" cm="1">
         <f t="array" ref="K12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J12))),"")</f>
         <v>21.725114024824901</v>
       </c>
-      <c r="L12" s="12" cm="1">
+      <c r="L12" s="11" cm="1">
         <f t="array" ref="L12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J12))),"")</f>
         <v>24.056953278116801</v>
       </c>
-      <c r="M12" s="12" cm="1">
+      <c r="M12" s="11" cm="1">
         <f t="array" ref="M12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J12))),"")</f>
         <v>34.55609827740318</v>
       </c>
-      <c r="N12" s="12" cm="1">
+      <c r="N12" s="11" cm="1">
         <f t="array" ref="N12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J12))),"")</f>
         <v>15.210884317418399</v>
       </c>
-      <c r="O12" s="12" cm="1">
+      <c r="O12" s="11" cm="1">
         <f t="array" ref="O12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J12))),"")</f>
         <v>51.085991925409729</v>
       </c>
-      <c r="P12" s="12" cm="1">
+      <c r="P12" s="11" cm="1">
         <f t="array" ref="P12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J12))),"")</f>
         <v>34.639794936085423</v>
       </c>
-      <c r="Q12" s="12" cm="1">
+      <c r="Q12" s="11" cm="1">
         <f t="array" ref="Q12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J12))),"")</f>
         <v>17.459111853764799</v>
       </c>
-      <c r="R12" s="12" cm="1">
+      <c r="R12" s="11" cm="1">
         <f t="array" ref="R12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J12))),"")</f>
         <v>52.424189706916003</v>
       </c>
-      <c r="S12" s="12" cm="1">
+      <c r="S12" s="11" cm="1">
         <f t="array" ref="S12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J12))),"")</f>
         <v>27.9111731254132</v>
       </c>
-      <c r="T12" s="12" cm="1">
+      <c r="T12" s="11" cm="1">
         <f t="array" ref="T12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J12))),"")</f>
         <v>14.1970971318507</v>
       </c>
-      <c r="U12" s="12" cm="1">
+      <c r="U12" s="11" cm="1">
         <f t="array" ref="U12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J12))),"")</f>
         <v>48.732559990647275</v>
       </c>
-      <c r="V12" s="12" cm="1">
+      <c r="V12" s="11" cm="1">
         <f t="array" ref="V12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J12))),"")</f>
         <v>43.679115655873801</v>
       </c>
-      <c r="W12" s="12" cm="1">
+      <c r="W12" s="11" cm="1">
         <f t="array" ref="W12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J12))),"")</f>
         <v>24.971351896806201</v>
       </c>
-      <c r="X12" s="12" cm="1">
+      <c r="X12" s="11" cm="1">
         <f t="array" ref="X12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J12))),"")</f>
         <v>41.034223789435401</v>
       </c>
-      <c r="Y12" s="12" cm="1">
+      <c r="Y12" s="11" cm="1">
         <f t="array" ref="Y12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J12))),"")</f>
         <v>30.268002116819595</v>
       </c>
-      <c r="Z12" s="12" t="str" cm="1">
+      <c r="Z12" s="11" t="str" cm="1">
         <f t="array" ref="Z12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="AA12" s="12" cm="1">
+      <c r="AA12" s="11" cm="1">
         <f t="array" ref="AA12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J12))),"")</f>
         <v>12.767319071227675</v>
       </c>
-      <c r="AB12" s="12" cm="1">
+      <c r="AB12" s="11" cm="1">
         <f t="array" ref="AB12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J12))),"")</f>
         <v>20</v>
       </c>
-      <c r="AC12" s="12" cm="1">
+      <c r="AC12" s="11" cm="1">
         <f t="array" ref="AC12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J12))),"")</f>
         <v>54.700390420566485</v>
       </c>
-      <c r="AD12" s="12" cm="1">
+      <c r="AD12" s="11" cm="1">
         <f t="array" ref="AD12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J12))),"")</f>
         <v>35.941001817004199</v>
       </c>
-      <c r="AE12" s="12" cm="1">
+      <c r="AE12" s="11" cm="1">
         <f t="array" ref="AE12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J12))),"")</f>
         <v>29.520536797750424</v>
       </c>
-      <c r="AF12" s="12" cm="1">
+      <c r="AF12" s="11" cm="1">
         <f t="array" ref="AF12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J12))),"")</f>
         <v>67.8359337597131</v>
       </c>
-      <c r="AG12" s="12" t="str" cm="1">
+      <c r="AG12" s="11" t="str" cm="1">
         <f t="array" ref="AG12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="AH12" s="12" cm="1">
+      <c r="AH12" s="11" cm="1">
         <f t="array" ref="AH12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J12))),"")</f>
         <v>29.045375013247433</v>
       </c>
-      <c r="AI12" s="12" cm="1">
+      <c r="AI12" s="11" cm="1">
         <f t="array" ref="AI12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J12))),"")</f>
         <v>45.056207677376747</v>
       </c>
-      <c r="AJ12" s="12" cm="1">
+      <c r="AJ12" s="11" cm="1">
         <f t="array" ref="AJ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J12))),"")</f>
         <v>18.491949652775048</v>
       </c>
-      <c r="AK12" s="12" cm="1">
+      <c r="AK12" s="11" cm="1">
         <f t="array" ref="AK12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J12))),"")</f>
         <v>55.345911949685501</v>
       </c>
-      <c r="AL12" s="12" cm="1">
+      <c r="AL12" s="11" cm="1">
         <f t="array" ref="AL12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J12))),"")</f>
         <v>39.575498035914705</v>
       </c>
-      <c r="AM12" s="12" cm="1">
+      <c r="AM12" s="11" cm="1">
         <f t="array" ref="AM12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J12))),"")</f>
         <v>16.976302878526649</v>
       </c>
-      <c r="AN12" s="12" cm="1">
+      <c r="AN12" s="11" cm="1">
         <f t="array" ref="AN12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J12))),"")</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="AO12" s="12" cm="1">
+      <c r="AO12" s="11" cm="1">
         <f t="array" ref="AO12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J12))),"")</f>
         <v>26.6794573608333</v>
       </c>
-      <c r="AP12" s="12" cm="1">
+      <c r="AP12" s="11" cm="1">
         <f t="array" ref="AP12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J12))),"")</f>
         <v>36.631744557404502</v>
       </c>
-      <c r="AQ12" s="12" cm="1">
+      <c r="AQ12" s="11" cm="1">
         <f t="array" ref="AQ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J12))),"")</f>
         <v>25.579509528109266</v>
       </c>
-      <c r="AR12" s="12" cm="1">
+      <c r="AR12" s="11" cm="1">
         <f t="array" ref="AR12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J12))),"")</f>
         <v>29.12314693969757</v>
       </c>
-      <c r="AS12" s="12" cm="1">
+      <c r="AS12" s="11" cm="1">
         <f t="array" ref="AS12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J12))),"")</f>
         <v>14.25394663529995</v>
       </c>
-      <c r="AT12" s="12" cm="1">
+      <c r="AT12" s="11" cm="1">
         <f t="array" ref="AT12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J12))),"")</f>
         <v>34.111045686330456</v>
       </c>
-      <c r="AU12" s="12" cm="1">
+      <c r="AU12" s="11" cm="1">
         <f t="array" ref="AU12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J12))),"")</f>
         <v>56.617993755313698</v>
       </c>
-      <c r="AV12" s="12" cm="1">
+      <c r="AV12" s="11" cm="1">
         <f t="array" ref="AV12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J12))),"")</f>
         <v>30.977171209535367</v>
       </c>
-      <c r="AW12" s="12" cm="1">
+      <c r="AW12" s="11" cm="1">
         <f t="array" ref="AW12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J12))),"")</f>
         <v>88.437161159902899</v>
       </c>
-      <c r="AX12" s="12" cm="1">
+      <c r="AX12" s="11" cm="1">
         <f t="array" ref="AX12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J12))),"")</f>
         <v>69.285714285714306</v>
       </c>
-      <c r="AY12" s="12" cm="1">
+      <c r="AY12" s="11" cm="1">
         <f t="array" ref="AY12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J12))),"")</f>
         <v>14.547706994771467</v>
       </c>
-      <c r="AZ12" s="12" cm="1">
+      <c r="AZ12" s="11" cm="1">
         <f t="array" ref="AZ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J12))),"")</f>
         <v>65.736168389838994</v>
       </c>
-      <c r="BA12" s="12" cm="1">
+      <c r="BA12" s="11" cm="1">
         <f t="array" ref="BA12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J12))),"")</f>
         <v>10.189610402744465</v>
       </c>
-      <c r="BB12" s="12" cm="1">
+      <c r="BB12" s="11" cm="1">
         <f t="array" ref="BB12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J12))),"")</f>
         <v>27.4796260213563</v>
       </c>
-      <c r="BC12" s="12" cm="1">
+      <c r="BC12" s="11" cm="1">
         <f t="array" ref="BC12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J12))),"")</f>
         <v>22.364533005018998</v>
       </c>
-      <c r="BD12" s="12" cm="1">
+      <c r="BD12" s="11" cm="1">
         <f t="array" ref="BD12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J12))),"")</f>
         <v>39.105608612044797</v>
       </c>
-      <c r="BE12" s="12" cm="1">
+      <c r="BE12" s="11" cm="1">
         <f t="array" ref="BE12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J12))),"")</f>
         <v>56.29600132620903</v>
       </c>
-      <c r="BF12" s="12" cm="1">
+      <c r="BF12" s="11" cm="1">
         <f t="array" ref="BF12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J12))),"")</f>
         <v>26.954882317158802</v>
       </c>
-      <c r="BG12" s="12" cm="1">
+      <c r="BG12" s="11" cm="1">
         <f t="array" ref="BG12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J12))),"")</f>
         <v>32.156524517963177</v>
       </c>
-      <c r="BH12" s="12" cm="1">
+      <c r="BH12" s="11" cm="1">
         <f t="array" ref="BH12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J12))),"")</f>
         <v>36.094396042528103</v>
       </c>
-      <c r="BI12" s="12" cm="1">
+      <c r="BI12" s="11" cm="1">
         <f t="array" ref="BI12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J12))),"")</f>
         <v>43.999542877400195</v>
       </c>
-      <c r="BJ12" s="12" cm="1">
+      <c r="BJ12" s="11" cm="1">
         <f t="array" ref="BJ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J12))),"")</f>
         <v>43.1666619064477</v>
       </c>
-      <c r="BK12" s="12" cm="1">
+      <c r="BK12" s="11" cm="1">
         <f t="array" ref="BK12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J12))),"")</f>
         <v>11.547560681657499</v>
       </c>
-      <c r="BL12" s="12" cm="1">
+      <c r="BL12" s="11" cm="1">
         <f t="array" ref="BL12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J12))),"")</f>
         <v>58.168274986162302</v>
       </c>
-      <c r="BM12" s="12" cm="1">
+      <c r="BM12" s="11" cm="1">
         <f t="array" ref="BM12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J12))),"")</f>
         <v>24.002852401099499</v>
       </c>
-      <c r="BN12" s="12" cm="1">
+      <c r="BN12" s="11" cm="1">
         <f t="array" ref="BN12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J12))),"")</f>
         <v>19.793827204749601</v>
       </c>
-      <c r="BO12" s="12" cm="1">
+      <c r="BO12" s="11" cm="1">
         <f t="array" ref="BO12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J12))),"")</f>
         <v>17.833597670844998</v>
       </c>
-      <c r="BP12" s="12" cm="1">
+      <c r="BP12" s="11" cm="1">
         <f t="array" ref="BP12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J12))),"")</f>
         <v>55.636987131299897</v>
       </c>
-      <c r="BQ12" s="12" t="str" cm="1">
+      <c r="BQ12" s="11" t="str" cm="1">
         <f t="array" ref="BQ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="BR12" s="12" cm="1">
+      <c r="BR12" s="11" cm="1">
         <f t="array" ref="BR12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J12))),"")</f>
         <v>12.012267576891301</v>
       </c>
-      <c r="BS12" s="12" cm="1">
+      <c r="BS12" s="11" cm="1">
         <f t="array" ref="BS12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J12))),"")</f>
         <v>52.5470062509172</v>
       </c>
-      <c r="BT12" s="12" cm="1">
+      <c r="BT12" s="11" cm="1">
         <f t="array" ref="BT12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J12))),"")</f>
         <v>29.363902247261603</v>
       </c>
-      <c r="BU12" s="12" t="str" cm="1">
+      <c r="BU12" s="11" t="str" cm="1">
         <f t="array" ref="BU12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="BV12" s="12" t="str" cm="1">
+      <c r="BV12" s="11" t="str" cm="1">
         <f t="array" ref="BV12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="BW12" s="12" t="str" cm="1">
+      <c r="BW12" s="11" t="str" cm="1">
         <f t="array" ref="BW12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="BX12" s="12" cm="1">
+      <c r="BX12" s="11" cm="1">
         <f t="array" ref="BX12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J12))),"")</f>
         <v>26.397733267258687</v>
       </c>
-      <c r="BY12" s="12" cm="1">
+      <c r="BY12" s="11" cm="1">
         <f t="array" ref="BY12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J12))),"")</f>
         <v>16.1795793144077</v>
       </c>
-      <c r="BZ12" s="12" cm="1">
+      <c r="BZ12" s="11" cm="1">
         <f t="array" ref="BZ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J12))),"")</f>
         <v>25.1421998047174</v>
       </c>
-      <c r="CA12" s="12" cm="1">
+      <c r="CA12" s="11" cm="1">
         <f t="array" ref="CA12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J12))),"")</f>
         <v>32.972488179450565</v>
       </c>
-      <c r="CB12" s="12" t="str" cm="1">
+      <c r="CB12" s="11" t="str" cm="1">
         <f t="array" ref="CB12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="CC12" s="12" cm="1">
+      <c r="CC12" s="11" cm="1">
         <f t="array" ref="CC12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J12))),"")</f>
         <v>41.7226230078887</v>
       </c>
-      <c r="CD12" s="12" cm="1">
+      <c r="CD12" s="11" cm="1">
         <f t="array" ref="CD12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J12))),"")</f>
         <v>18.360811692830602</v>
       </c>
-      <c r="CE12" s="12" cm="1">
+      <c r="CE12" s="11" cm="1">
         <f t="array" ref="CE12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J12))),"")</f>
         <v>54.424221579976127</v>
       </c>
-      <c r="CF12" s="12" cm="1">
+      <c r="CF12" s="11" cm="1">
         <f t="array" ref="CF12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J12))),"")</f>
         <v>62.548303466525098</v>
       </c>
-      <c r="CG12" s="12" cm="1">
+      <c r="CG12" s="11" cm="1">
         <f t="array" ref="CG12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J12))),"")</f>
         <v>45.238095238095198</v>
       </c>
-      <c r="CH12" s="12" cm="1">
+      <c r="CH12" s="11" cm="1">
         <f t="array" ref="CH12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J12))),"")</f>
         <v>16.473654028643601</v>
       </c>
-      <c r="CI12" s="12" cm="1">
+      <c r="CI12" s="11" cm="1">
         <f t="array" ref="CI12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J12))),"")</f>
         <v>54.062605785451971</v>
       </c>
-      <c r="CJ12" s="12" cm="1">
+      <c r="CJ12" s="11" cm="1">
         <f t="array" ref="CJ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J12))),"")</f>
         <v>74.654915878979395</v>
       </c>
-      <c r="CK12" s="12" cm="1">
+      <c r="CK12" s="11" cm="1">
         <f t="array" ref="CK12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J12))),"")</f>
         <v>22.201186721995661</v>
       </c>
-      <c r="CL12" s="12" cm="1">
+      <c r="CL12" s="11" cm="1">
         <f t="array" ref="CL12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J12))),"")</f>
         <v>46.276086956521702</v>
       </c>
-      <c r="CM12" s="12" cm="1">
+      <c r="CM12" s="11" cm="1">
         <f t="array" ref="CM12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J12))),"")</f>
         <v>29.302861557341998</v>
       </c>
-      <c r="CN12" s="12" cm="1">
+      <c r="CN12" s="11" cm="1">
         <f t="array" ref="CN12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J12))),"")</f>
         <v>14.0535133313117</v>
       </c>
-      <c r="CO12" s="12" cm="1">
+      <c r="CO12" s="11" cm="1">
         <f t="array" ref="CO12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J12))),"")</f>
         <v>37.574139976275198</v>
       </c>
-      <c r="CP12" s="12" cm="1">
+      <c r="CP12" s="11" cm="1">
         <f t="array" ref="CP12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J12))),"")</f>
         <v>45.95833352606045</v>
       </c>
-      <c r="CQ12" s="12" cm="1">
+      <c r="CQ12" s="11" cm="1">
         <f t="array" ref="CQ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J12))),"")</f>
         <v>13.724685357556732</v>
       </c>
-      <c r="CR12" s="12" cm="1">
+      <c r="CR12" s="11" cm="1">
         <f t="array" ref="CR12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J12))),"")</f>
         <v>34.271133512387202</v>
       </c>
-      <c r="CS12" s="12" cm="1">
+      <c r="CS12" s="11" cm="1">
         <f t="array" ref="CS12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J12))),"")</f>
         <v>89.586459794774996</v>
       </c>
-      <c r="CT12" s="12" cm="1">
+      <c r="CT12" s="11" cm="1">
         <f t="array" ref="CT12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J12))),"")</f>
         <v>8.8180125766130413</v>
       </c>
-      <c r="CU12" s="12" cm="1">
+      <c r="CU12" s="11" cm="1">
         <f t="array" ref="CU12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J12))),"")</f>
         <v>7.312939519432299</v>
       </c>
-      <c r="CV12" s="12" cm="1">
+      <c r="CV12" s="11" cm="1">
         <f t="array" ref="CV12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J12))),"")</f>
         <v>60.73863346699693</v>
       </c>
-      <c r="CW12" s="12" cm="1">
+      <c r="CW12" s="11" cm="1">
         <f t="array" ref="CW12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J12))),"")</f>
         <v>21.203628410485198</v>
       </c>
-      <c r="CX12" s="12" cm="1">
+      <c r="CX12" s="11" cm="1">
         <f t="array" ref="CX12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J12))),"")</f>
         <v>32.3798688905216</v>
       </c>
-      <c r="CY12" s="12" cm="1">
+      <c r="CY12" s="11" cm="1">
         <f t="array" ref="CY12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J12))),"")</f>
         <v>17.78691731455395</v>
       </c>
-      <c r="CZ12" s="12" cm="1">
+      <c r="CZ12" s="11" cm="1">
         <f t="array" ref="CZ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J12))),"")</f>
         <v>38.5622455352215</v>
       </c>
-      <c r="DA12" s="12" cm="1">
+      <c r="DA12" s="11" cm="1">
         <f t="array" ref="DA12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J12))),"")</f>
         <v>64.174283900232524</v>
       </c>
-      <c r="DB12" s="12" cm="1">
+      <c r="DB12" s="11" cm="1">
         <f t="array" ref="DB12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J12))),"")</f>
         <v>21.585126677855602</v>
       </c>
-      <c r="DC12" s="12" cm="1">
+      <c r="DC12" s="11" cm="1">
         <f t="array" ref="DC12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J12))),"")</f>
         <v>45.653882916642715</v>
       </c>
-      <c r="DD12" s="12" cm="1">
+      <c r="DD12" s="11" cm="1">
         <f t="array" ref="DD12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J12))),"")</f>
         <v>15.876477982958599</v>
       </c>
-      <c r="DE12" s="12" t="str" cm="1">
+      <c r="DE12" s="11" t="str" cm="1">
         <f t="array" ref="DE12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="DF12" s="12" cm="1">
+      <c r="DF12" s="11" cm="1">
         <f t="array" ref="DF12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J12))),"")</f>
         <v>31.912543577366598</v>
       </c>
-      <c r="DG12" s="12" cm="1">
+      <c r="DG12" s="11" cm="1">
         <f t="array" ref="DG12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J12))),"")</f>
         <v>33.111086496366035</v>
       </c>
-      <c r="DH12" s="12" cm="1">
+      <c r="DH12" s="11" cm="1">
         <f t="array" ref="DH12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J12))),"")</f>
         <v>54.337126108549427</v>
       </c>
-      <c r="DI12" s="12" cm="1">
+      <c r="DI12" s="11" cm="1">
         <f t="array" ref="DI12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J12))),"")</f>
         <v>21.669784697339601</v>
       </c>
-      <c r="DJ12" s="12" t="str" cm="1">
+      <c r="DJ12" s="11" t="str" cm="1">
         <f t="array" ref="DJ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="DK12" s="12" cm="1">
+      <c r="DK12" s="11" cm="1">
         <f t="array" ref="DK12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J12))),"")</f>
         <v>22.363064522570252</v>
       </c>
-      <c r="DL12" s="12" cm="1">
+      <c r="DL12" s="11" cm="1">
         <f t="array" ref="DL12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J12))),"")</f>
         <v>71.3125</v>
       </c>
-      <c r="DM12" s="12" cm="1">
+      <c r="DM12" s="11" cm="1">
         <f t="array" ref="DM12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J12))),"")</f>
         <v>46.937615775762197</v>
       </c>
-      <c r="DN12" s="12" cm="1">
+      <c r="DN12" s="11" cm="1">
         <f t="array" ref="DN12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J12))),"")</f>
         <v>18.504605235037801</v>
       </c>
-      <c r="DO12" s="12" cm="1">
+      <c r="DO12" s="11" cm="1">
         <f t="array" ref="DO12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J12))),"")</f>
         <v>14.473185843200168</v>
       </c>
-      <c r="DP12" s="12" t="str" cm="1">
+      <c r="DP12" s="11" t="str" cm="1">
         <f t="array" ref="DP12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-      <c r="DQ12" s="12" cm="1">
+      <c r="DQ12" s="11" cm="1">
         <f t="array" ref="DQ12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J12))),"")</f>
         <v>4.5249529689291217</v>
       </c>
-      <c r="DR12" s="12" cm="1">
+      <c r="DR12" s="11" cm="1">
         <f t="array" ref="DR12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J12))),"")</f>
         <v>91.150954882712938</v>
       </c>
-      <c r="DS12" s="12" cm="1">
+      <c r="DS12" s="11" cm="1">
         <f t="array" ref="DS12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J12))),"")</f>
         <v>38.570847358238062</v>
       </c>
-      <c r="DT12" s="12" cm="1">
+      <c r="DT12" s="11" cm="1">
         <f t="array" ref="DT12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J12))),"")</f>
         <v>64.039716402060918</v>
       </c>
-      <c r="DU12" s="12" cm="1">
+      <c r="DU12" s="11" cm="1">
         <f t="array" ref="DU12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J12))),"")</f>
         <v>32.636726559978499</v>
       </c>
-      <c r="DV12" s="12" cm="1">
+      <c r="DV12" s="11" cm="1">
         <f t="array" ref="DV12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J12))),"")</f>
         <v>61.5</v>
       </c>
-      <c r="DW12" s="12" cm="1">
+      <c r="DW12" s="11" cm="1">
         <f t="array" ref="DW12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J12))),"")</f>
         <v>10.375</v>
       </c>
-      <c r="DX12" s="12" cm="1">
+      <c r="DX12" s="11" cm="1">
         <f t="array" ref="DX12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J12))),"")</f>
         <v>10.891936754098651</v>
       </c>
-      <c r="DY12" s="12" t="str" cm="1">
+      <c r="DY12" s="11" t="str" cm="1">
         <f t="array" ref="DY12">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J12))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB12">
+        <f t="shared" si="0"/>
+        <v>91.150954882712938</v>
+      </c>
+      <c r="EC12" t="str" cm="1">
+        <f t="array" ref="EC12">INDEX($K$2:$DY$2,0,MATCH(EB12,K12:DY12,0))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="EF12">
+        <f t="shared" si="1"/>
+        <v>4.5249529689291217</v>
+      </c>
+      <c r="EG12" t="str" cm="1">
+        <f t="array" ref="EG12">INDEX($K$2:$DY$2,0,MATCH($EF12,$K12:$DY12,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="13" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>25972531</v>
       </c>
@@ -9607,487 +9829,503 @@
       <c r="F13" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>2020</v>
       </c>
-      <c r="K13" s="12" cm="1">
+      <c r="K13" s="11" cm="1">
         <f t="array" ref="K13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=K$2)*($B:$B=$J13))),"")</f>
         <v>21.163960171162401</v>
       </c>
-      <c r="L13" s="12" cm="1">
+      <c r="L13" s="11" cm="1">
         <f t="array" ref="L13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=L$2)*($B:$B=$J13))),"")</f>
         <v>45.178261106631503</v>
       </c>
-      <c r="M13" s="12" cm="1">
+      <c r="M13" s="11" cm="1">
         <f t="array" ref="M13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=M$2)*($B:$B=$J13))),"")</f>
         <v>26.692574226229972</v>
       </c>
-      <c r="N13" s="12" cm="1">
+      <c r="N13" s="11" cm="1">
         <f t="array" ref="N13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=N$2)*($B:$B=$J13))),"")</f>
         <v>17.6851943581288</v>
       </c>
-      <c r="O13" s="12" cm="1">
+      <c r="O13" s="11" cm="1">
         <f t="array" ref="O13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=O$2)*($B:$B=$J13))),"")</f>
         <v>50.884582180308364</v>
       </c>
-      <c r="P13" s="12" cm="1">
+      <c r="P13" s="11" cm="1">
         <f t="array" ref="P13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=P$2)*($B:$B=$J13))),"")</f>
         <v>38.410140906984502</v>
       </c>
-      <c r="Q13" s="12" cm="1">
+      <c r="Q13" s="11" cm="1">
         <f t="array" ref="Q13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Q$2)*($B:$B=$J13))),"")</f>
         <v>18.3235376859543</v>
       </c>
-      <c r="R13" s="12" cm="1">
+      <c r="R13" s="11" cm="1">
         <f t="array" ref="R13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=R$2)*($B:$B=$J13))),"")</f>
         <v>60.520307693591903</v>
       </c>
-      <c r="S13" s="12" cm="1">
+      <c r="S13" s="11" cm="1">
         <f t="array" ref="S13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=S$2)*($B:$B=$J13))),"")</f>
         <v>28.589150511358</v>
       </c>
-      <c r="T13" s="12" cm="1">
+      <c r="T13" s="11" cm="1">
         <f t="array" ref="T13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=T$2)*($B:$B=$J13))),"")</f>
         <v>12.0406692130423</v>
       </c>
-      <c r="U13" s="12" cm="1">
+      <c r="U13" s="11" cm="1">
         <f t="array" ref="U13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=U$2)*($B:$B=$J13))),"")</f>
         <v>51.466461398348201</v>
       </c>
-      <c r="V13" s="12" cm="1">
+      <c r="V13" s="11" cm="1">
         <f t="array" ref="V13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=V$2)*($B:$B=$J13))),"")</f>
         <v>49.686603671959702</v>
       </c>
-      <c r="W13" s="12" cm="1">
+      <c r="W13" s="11" cm="1">
         <f t="array" ref="W13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=W$2)*($B:$B=$J13))),"")</f>
         <v>22.812804320772152</v>
       </c>
-      <c r="X13" s="12" cm="1">
+      <c r="X13" s="11" cm="1">
         <f t="array" ref="X13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=X$2)*($B:$B=$J13))),"")</f>
         <v>73.688531178883196</v>
       </c>
-      <c r="Y13" s="12" cm="1">
+      <c r="Y13" s="11" cm="1">
         <f t="array" ref="Y13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Y$2)*($B:$B=$J13))),"")</f>
         <v>21.0023101823312</v>
       </c>
-      <c r="Z13" s="12" t="str" cm="1">
+      <c r="Z13" s="11" t="str" cm="1">
         <f t="array" ref="Z13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=Z$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="AA13" s="12" cm="1">
+      <c r="AA13" s="11" cm="1">
         <f t="array" ref="AA13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AA$2)*($B:$B=$J13))),"")</f>
         <v>11.914568108265399</v>
       </c>
-      <c r="AB13" s="12" cm="1">
+      <c r="AB13" s="11" cm="1">
         <f t="array" ref="AB13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AB$2)*($B:$B=$J13))),"")</f>
         <v>30.1428571428571</v>
       </c>
-      <c r="AC13" s="12" cm="1">
+      <c r="AC13" s="11" cm="1">
         <f t="array" ref="AC13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AC$2)*($B:$B=$J13))),"")</f>
         <v>55.54052843329012</v>
       </c>
-      <c r="AD13" s="12" cm="1">
+      <c r="AD13" s="11" cm="1">
         <f t="array" ref="AD13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AD$2)*($B:$B=$J13))),"")</f>
         <v>31.6458163290262</v>
       </c>
-      <c r="AE13" s="12" cm="1">
+      <c r="AE13" s="11" cm="1">
         <f t="array" ref="AE13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AE$2)*($B:$B=$J13))),"")</f>
         <v>27.510768961495522</v>
       </c>
-      <c r="AF13" s="12" cm="1">
+      <c r="AF13" s="11" cm="1">
         <f t="array" ref="AF13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AF$2)*($B:$B=$J13))),"")</f>
         <v>49.536552165569049</v>
       </c>
-      <c r="AG13" s="12" t="str" cm="1">
+      <c r="AG13" s="11" t="str" cm="1">
         <f t="array" ref="AG13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AG$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="AH13" s="12" cm="1">
+      <c r="AH13" s="11" cm="1">
         <f t="array" ref="AH13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AH$2)*($B:$B=$J13))),"")</f>
         <v>31.524644364865338</v>
       </c>
-      <c r="AI13" s="12" cm="1">
+      <c r="AI13" s="11" cm="1">
         <f t="array" ref="AI13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AI$2)*($B:$B=$J13))),"")</f>
         <v>47.106155165395364</v>
       </c>
-      <c r="AJ13" s="12" cm="1">
+      <c r="AJ13" s="11" cm="1">
         <f t="array" ref="AJ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AJ$2)*($B:$B=$J13))),"")</f>
         <v>19.135384708566367</v>
       </c>
-      <c r="AK13" s="12" cm="1">
+      <c r="AK13" s="11" cm="1">
         <f t="array" ref="AK13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AK$2)*($B:$B=$J13))),"")</f>
         <v>45.022171316364002</v>
       </c>
-      <c r="AL13" s="12" cm="1">
+      <c r="AL13" s="11" cm="1">
         <f t="array" ref="AL13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AL$2)*($B:$B=$J13))),"")</f>
         <v>43.963636363636368</v>
       </c>
-      <c r="AM13" s="12" cm="1">
+      <c r="AM13" s="11" cm="1">
         <f t="array" ref="AM13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AM$2)*($B:$B=$J13))),"")</f>
         <v>15.356087388527399</v>
       </c>
-      <c r="AN13" s="12" cm="1">
+      <c r="AN13" s="11" cm="1">
         <f t="array" ref="AN13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AN$2)*($B:$B=$J13))),"")</f>
         <v>46.625</v>
       </c>
-      <c r="AO13" s="12" cm="1">
+      <c r="AO13" s="11" cm="1">
         <f t="array" ref="AO13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AO$2)*($B:$B=$J13))),"")</f>
         <v>25.7473952993975</v>
       </c>
-      <c r="AP13" s="12" t="str" cm="1">
+      <c r="AP13" s="11" t="str" cm="1">
         <f t="array" ref="AP13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AP$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="AQ13" s="12" cm="1">
+      <c r="AQ13" s="11" cm="1">
         <f t="array" ref="AQ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AQ$2)*($B:$B=$J13))),"")</f>
         <v>22.716459542731531</v>
       </c>
-      <c r="AR13" s="12" cm="1">
+      <c r="AR13" s="11" cm="1">
         <f t="array" ref="AR13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AR$2)*($B:$B=$J13))),"")</f>
         <v>29.816895427743546</v>
       </c>
-      <c r="AS13" s="12" cm="1">
+      <c r="AS13" s="11" cm="1">
         <f t="array" ref="AS13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AS$2)*($B:$B=$J13))),"")</f>
         <v>15.073063840921</v>
       </c>
-      <c r="AT13" s="12" cm="1">
+      <c r="AT13" s="11" cm="1">
         <f t="array" ref="AT13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AT$2)*($B:$B=$J13))),"")</f>
         <v>37.143143633458791</v>
       </c>
-      <c r="AU13" s="12" cm="1">
+      <c r="AU13" s="11" cm="1">
         <f t="array" ref="AU13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AU$2)*($B:$B=$J13))),"")</f>
         <v>49.213744814645203</v>
       </c>
-      <c r="AV13" s="12" cm="1">
+      <c r="AV13" s="11" cm="1">
         <f t="array" ref="AV13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AV$2)*($B:$B=$J13))),"")</f>
         <v>35.248036425956293</v>
       </c>
-      <c r="AW13" s="12" cm="1">
+      <c r="AW13" s="11" cm="1">
         <f t="array" ref="AW13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AW$2)*($B:$B=$J13))),"")</f>
         <v>67.027513655575703</v>
       </c>
-      <c r="AX13" s="12" t="str" cm="1">
+      <c r="AX13" s="11" t="str" cm="1">
         <f t="array" ref="AX13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AX$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="AY13" s="12" cm="1">
+      <c r="AY13" s="11" cm="1">
         <f t="array" ref="AY13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AY$2)*($B:$B=$J13))),"")</f>
         <v>14.441393964534166</v>
       </c>
-      <c r="AZ13" s="12" cm="1">
+      <c r="AZ13" s="11" cm="1">
         <f t="array" ref="AZ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=AZ$2)*($B:$B=$J13))),"")</f>
         <v>67.094300670942999</v>
       </c>
-      <c r="BA13" s="12" cm="1">
+      <c r="BA13" s="11" cm="1">
         <f t="array" ref="BA13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BA$2)*($B:$B=$J13))),"")</f>
         <v>10.604080842153312</v>
       </c>
-      <c r="BB13" s="12" cm="1">
+      <c r="BB13" s="11" cm="1">
         <f t="array" ref="BB13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BB$2)*($B:$B=$J13))),"")</f>
         <v>29.872973345382501</v>
       </c>
-      <c r="BC13" s="12" cm="1">
+      <c r="BC13" s="11" cm="1">
         <f t="array" ref="BC13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BC$2)*($B:$B=$J13))),"")</f>
         <v>19.698460156354201</v>
       </c>
-      <c r="BD13" s="12" cm="1">
+      <c r="BD13" s="11" cm="1">
         <f t="array" ref="BD13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BD$2)*($B:$B=$J13))),"")</f>
         <v>37.536787569428903</v>
       </c>
-      <c r="BE13" s="12" cm="1">
+      <c r="BE13" s="11" cm="1">
         <f t="array" ref="BE13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BE$2)*($B:$B=$J13))),"")</f>
         <v>55.91808665859773</v>
       </c>
-      <c r="BF13" s="12" cm="1">
+      <c r="BF13" s="11" cm="1">
         <f t="array" ref="BF13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BF$2)*($B:$B=$J13))),"")</f>
         <v>23.413185620877698</v>
       </c>
-      <c r="BG13" s="12" cm="1">
+      <c r="BG13" s="11" cm="1">
         <f t="array" ref="BG13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BG$2)*($B:$B=$J13))),"")</f>
         <v>32.709406717115698</v>
       </c>
-      <c r="BH13" s="12" t="str" cm="1">
+      <c r="BH13" s="11" t="str" cm="1">
         <f t="array" ref="BH13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BH$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BI13" s="12" cm="1">
+      <c r="BI13" s="11" cm="1">
         <f t="array" ref="BI13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BI$2)*($B:$B=$J13))),"")</f>
         <v>41.909047057410703</v>
       </c>
-      <c r="BJ13" s="12" cm="1">
+      <c r="BJ13" s="11" cm="1">
         <f t="array" ref="BJ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BJ$2)*($B:$B=$J13))),"")</f>
         <v>44.614356766387097</v>
       </c>
-      <c r="BK13" s="12" cm="1">
+      <c r="BK13" s="11" cm="1">
         <f t="array" ref="BK13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BK$2)*($B:$B=$J13))),"")</f>
         <v>11.3361705814924</v>
       </c>
-      <c r="BL13" s="12" cm="1">
+      <c r="BL13" s="11" cm="1">
         <f t="array" ref="BL13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BL$2)*($B:$B=$J13))),"")</f>
         <v>59.877595845543397</v>
       </c>
-      <c r="BM13" s="12" cm="1">
+      <c r="BM13" s="11" cm="1">
         <f t="array" ref="BM13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BM$2)*($B:$B=$J13))),"")</f>
         <v>22.040382422846299</v>
       </c>
-      <c r="BN13" s="12" cm="1">
+      <c r="BN13" s="11" cm="1">
         <f t="array" ref="BN13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BN$2)*($B:$B=$J13))),"")</f>
         <v>16.789016881570198</v>
       </c>
-      <c r="BO13" s="12" cm="1">
+      <c r="BO13" s="11" cm="1">
         <f t="array" ref="BO13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BO$2)*($B:$B=$J13))),"")</f>
         <v>17.501034720415401</v>
       </c>
-      <c r="BP13" s="12" cm="1">
+      <c r="BP13" s="11" cm="1">
         <f t="array" ref="BP13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BP$2)*($B:$B=$J13))),"")</f>
         <v>51.903223831745898</v>
       </c>
-      <c r="BQ13" s="12" t="str" cm="1">
+      <c r="BQ13" s="11" t="str" cm="1">
         <f t="array" ref="BQ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BQ$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BR13" s="12" cm="1">
+      <c r="BR13" s="11" cm="1">
         <f t="array" ref="BR13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BR$2)*($B:$B=$J13))),"")</f>
         <v>11.903317174623201</v>
       </c>
-      <c r="BS13" s="12" cm="1">
+      <c r="BS13" s="11" cm="1">
         <f t="array" ref="BS13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BS$2)*($B:$B=$J13))),"")</f>
         <v>60.293268513501999</v>
       </c>
-      <c r="BT13" s="12" cm="1">
+      <c r="BT13" s="11" cm="1">
         <f t="array" ref="BT13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BT$2)*($B:$B=$J13))),"")</f>
         <v>27.98737484331815</v>
       </c>
-      <c r="BU13" s="12" t="str" cm="1">
+      <c r="BU13" s="11" t="str" cm="1">
         <f t="array" ref="BU13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BU$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BV13" s="12" t="str" cm="1">
+      <c r="BV13" s="11" t="str" cm="1">
         <f t="array" ref="BV13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BV$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BW13" s="12" t="str" cm="1">
+      <c r="BW13" s="11" t="str" cm="1">
         <f t="array" ref="BW13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BW$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BX13" s="12" cm="1">
+      <c r="BX13" s="11" cm="1">
         <f t="array" ref="BX13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BX$2)*($B:$B=$J13))),"")</f>
         <v>24.570575693750197</v>
       </c>
-      <c r="BY13" s="12" t="str" cm="1">
+      <c r="BY13" s="11" t="str" cm="1">
         <f t="array" ref="BY13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BY$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="BZ13" s="12" cm="1">
+      <c r="BZ13" s="11" cm="1">
         <f t="array" ref="BZ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=BZ$2)*($B:$B=$J13))),"")</f>
         <v>24.291709421762199</v>
       </c>
-      <c r="CA13" s="12" cm="1">
+      <c r="CA13" s="11" cm="1">
         <f t="array" ref="CA13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CA$2)*($B:$B=$J13))),"")</f>
         <v>28.956728697736366</v>
       </c>
-      <c r="CB13" s="12" t="str" cm="1">
+      <c r="CB13" s="11" t="str" cm="1">
         <f t="array" ref="CB13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CB$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="CC13" s="12" cm="1">
+      <c r="CC13" s="11" cm="1">
         <f t="array" ref="CC13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CC$2)*($B:$B=$J13))),"")</f>
         <v>48.1593390758594</v>
       </c>
-      <c r="CD13" s="12" cm="1">
+      <c r="CD13" s="11" cm="1">
         <f t="array" ref="CD13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CD$2)*($B:$B=$J13))),"")</f>
         <v>17.346450161201101</v>
       </c>
-      <c r="CE13" s="12" cm="1">
+      <c r="CE13" s="11" cm="1">
         <f t="array" ref="CE13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CE$2)*($B:$B=$J13))),"")</f>
         <v>48.867337727619123</v>
       </c>
-      <c r="CF13" s="12" t="str" cm="1">
+      <c r="CF13" s="11" t="str" cm="1">
         <f t="array" ref="CF13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CF$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="CG13" s="12" cm="1">
+      <c r="CG13" s="11" cm="1">
         <f t="array" ref="CG13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CG$2)*($B:$B=$J13))),"")</f>
         <v>40.9530708081518</v>
       </c>
-      <c r="CH13" s="12" cm="1">
+      <c r="CH13" s="11" cm="1">
         <f t="array" ref="CH13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CH$2)*($B:$B=$J13))),"")</f>
         <v>20.380344087952199</v>
       </c>
-      <c r="CI13" s="12" cm="1">
+      <c r="CI13" s="11" cm="1">
         <f t="array" ref="CI13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CI$2)*($B:$B=$J13))),"")</f>
         <v>48.812149279986301</v>
       </c>
-      <c r="CJ13" s="12" cm="1">
+      <c r="CJ13" s="11" cm="1">
         <f t="array" ref="CJ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CJ$2)*($B:$B=$J13))),"")</f>
         <v>81.8059345713298</v>
       </c>
-      <c r="CK13" s="12" cm="1">
+      <c r="CK13" s="11" cm="1">
         <f t="array" ref="CK13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CK$2)*($B:$B=$J13))),"")</f>
         <v>23.1002466980332</v>
       </c>
-      <c r="CL13" s="12" cm="1">
+      <c r="CL13" s="11" cm="1">
         <f t="array" ref="CL13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CL$2)*($B:$B=$J13))),"")</f>
         <v>46.427619047618997</v>
       </c>
-      <c r="CM13" s="12" cm="1">
+      <c r="CM13" s="11" cm="1">
         <f t="array" ref="CM13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CM$2)*($B:$B=$J13))),"")</f>
         <v>33.064335550854402</v>
       </c>
-      <c r="CN13" s="12" cm="1">
+      <c r="CN13" s="11" cm="1">
         <f t="array" ref="CN13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CN$2)*($B:$B=$J13))),"")</f>
         <v>15.93623172161276</v>
       </c>
-      <c r="CO13" s="12" cm="1">
+      <c r="CO13" s="11" cm="1">
         <f t="array" ref="CO13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CO$2)*($B:$B=$J13))),"")</f>
         <v>32.581509355539602</v>
       </c>
-      <c r="CP13" s="12" cm="1">
+      <c r="CP13" s="11" cm="1">
         <f t="array" ref="CP13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CP$2)*($B:$B=$J13))),"")</f>
         <v>52.447654989452502</v>
       </c>
-      <c r="CQ13" s="12" cm="1">
+      <c r="CQ13" s="11" cm="1">
         <f t="array" ref="CQ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CQ$2)*($B:$B=$J13))),"")</f>
         <v>13.576445415281929</v>
       </c>
-      <c r="CR13" s="12" cm="1">
+      <c r="CR13" s="11" cm="1">
         <f t="array" ref="CR13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CR$2)*($B:$B=$J13))),"")</f>
         <v>35.723614394560656</v>
       </c>
-      <c r="CS13" s="12" cm="1">
+      <c r="CS13" s="11" cm="1">
         <f t="array" ref="CS13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CS$2)*($B:$B=$J13))),"")</f>
         <v>84.918709823669005</v>
       </c>
-      <c r="CT13" s="12" cm="1">
+      <c r="CT13" s="11" cm="1">
         <f t="array" ref="CT13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CT$2)*($B:$B=$J13))),"")</f>
         <v>8.6016606993819771</v>
       </c>
-      <c r="CU13" s="12" cm="1">
+      <c r="CU13" s="11" cm="1">
         <f t="array" ref="CU13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CU$2)*($B:$B=$J13))),"")</f>
         <v>6.7958098162831408</v>
       </c>
-      <c r="CV13" s="12" cm="1">
+      <c r="CV13" s="11" cm="1">
         <f t="array" ref="CV13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CV$2)*($B:$B=$J13))),"")</f>
         <v>65.598125562969642</v>
       </c>
-      <c r="CW13" s="12" cm="1">
+      <c r="CW13" s="11" cm="1">
         <f t="array" ref="CW13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CW$2)*($B:$B=$J13))),"")</f>
         <v>20.861984456933467</v>
       </c>
-      <c r="CX13" s="12" cm="1">
+      <c r="CX13" s="11" cm="1">
         <f t="array" ref="CX13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CX$2)*($B:$B=$J13))),"")</f>
         <v>31.788169632976999</v>
       </c>
-      <c r="CY13" s="12" cm="1">
+      <c r="CY13" s="11" cm="1">
         <f t="array" ref="CY13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CY$2)*($B:$B=$J13))),"")</f>
         <v>16.8861118966555</v>
       </c>
-      <c r="CZ13" s="12" cm="1">
+      <c r="CZ13" s="11" cm="1">
         <f t="array" ref="CZ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=CZ$2)*($B:$B=$J13))),"")</f>
         <v>38.478067724071302</v>
       </c>
-      <c r="DA13" s="12" cm="1">
+      <c r="DA13" s="11" cm="1">
         <f t="array" ref="DA13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DA$2)*($B:$B=$J13))),"")</f>
         <v>53.388616138509974</v>
       </c>
-      <c r="DB13" s="12" cm="1">
+      <c r="DB13" s="11" cm="1">
         <f t="array" ref="DB13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DB$2)*($B:$B=$J13))),"")</f>
         <v>21.3914675925549</v>
       </c>
-      <c r="DC13" s="12" cm="1">
+      <c r="DC13" s="11" cm="1">
         <f t="array" ref="DC13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DC$2)*($B:$B=$J13))),"")</f>
         <v>43.484708704375564</v>
       </c>
-      <c r="DD13" s="12" cm="1">
+      <c r="DD13" s="11" cm="1">
         <f t="array" ref="DD13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DD$2)*($B:$B=$J13))),"")</f>
         <v>17.423167712494799</v>
       </c>
-      <c r="DE13" s="12" t="str" cm="1">
+      <c r="DE13" s="11" t="str" cm="1">
         <f t="array" ref="DE13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DE$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="DF13" s="12" t="str" cm="1">
+      <c r="DF13" s="11" t="str" cm="1">
         <f t="array" ref="DF13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DF$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="DG13" s="12" cm="1">
+      <c r="DG13" s="11" cm="1">
         <f t="array" ref="DG13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DG$2)*($B:$B=$J13))),"")</f>
         <v>31.127907345995101</v>
       </c>
-      <c r="DH13" s="12" cm="1">
+      <c r="DH13" s="11" cm="1">
         <f t="array" ref="DH13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DH$2)*($B:$B=$J13))),"")</f>
         <v>60.225593322984977</v>
       </c>
-      <c r="DI13" s="12" cm="1">
+      <c r="DI13" s="11" cm="1">
         <f t="array" ref="DI13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DI$2)*($B:$B=$J13))),"")</f>
         <v>20.1213830919306</v>
       </c>
-      <c r="DJ13" s="12" t="str" cm="1">
+      <c r="DJ13" s="11" t="str" cm="1">
         <f t="array" ref="DJ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DJ$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-      <c r="DK13" s="12" cm="1">
+      <c r="DK13" s="11" cm="1">
         <f t="array" ref="DK13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DK$2)*($B:$B=$J13))),"")</f>
         <v>20.663456241187674</v>
       </c>
-      <c r="DL13" s="12" cm="1">
+      <c r="DL13" s="11" cm="1">
         <f t="array" ref="DL13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DL$2)*($B:$B=$J13))),"")</f>
         <v>51.247500000000002</v>
       </c>
-      <c r="DM13" s="12" cm="1">
+      <c r="DM13" s="11" cm="1">
         <f t="array" ref="DM13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DM$2)*($B:$B=$J13))),"")</f>
         <v>49.655362505587703</v>
       </c>
-      <c r="DN13" s="12" cm="1">
+      <c r="DN13" s="11" cm="1">
         <f t="array" ref="DN13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DN$2)*($B:$B=$J13))),"")</f>
         <v>15.196334319355</v>
       </c>
-      <c r="DO13" s="12" cm="1">
+      <c r="DO13" s="11" cm="1">
         <f t="array" ref="DO13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DO$2)*($B:$B=$J13))),"")</f>
         <v>15.185940472880743</v>
       </c>
-      <c r="DP13" s="12" cm="1">
+      <c r="DP13" s="11" cm="1">
         <f t="array" ref="DP13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DP$2)*($B:$B=$J13))),"")</f>
         <v>69.0640247516843</v>
       </c>
-      <c r="DQ13" s="12" cm="1">
+      <c r="DQ13" s="11" cm="1">
         <f t="array" ref="DQ13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DQ$2)*($B:$B=$J13))),"")</f>
         <v>5.2315665116313186</v>
       </c>
-      <c r="DR13" s="12" cm="1">
+      <c r="DR13" s="11" cm="1">
         <f t="array" ref="DR13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DR$2)*($B:$B=$J13))),"")</f>
         <v>95.95076953791424</v>
       </c>
-      <c r="DS13" s="12" cm="1">
+      <c r="DS13" s="11" cm="1">
         <f t="array" ref="DS13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DS$2)*($B:$B=$J13))),"")</f>
         <v>37.917396169057611</v>
       </c>
-      <c r="DT13" s="12" cm="1">
+      <c r="DT13" s="11" cm="1">
         <f t="array" ref="DT13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DT$2)*($B:$B=$J13))),"")</f>
         <v>65.834641695564926</v>
       </c>
-      <c r="DU13" s="12" cm="1">
+      <c r="DU13" s="11" cm="1">
         <f t="array" ref="DU13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DU$2)*($B:$B=$J13))),"")</f>
         <v>31.760325584263299</v>
       </c>
-      <c r="DV13" s="12" cm="1">
+      <c r="DV13" s="11" cm="1">
         <f t="array" ref="DV13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DV$2)*($B:$B=$J13))),"")</f>
         <v>33.555714285714302</v>
       </c>
-      <c r="DW13" s="12" cm="1">
+      <c r="DW13" s="11" cm="1">
         <f t="array" ref="DW13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DW$2)*($B:$B=$J13))),"")</f>
         <v>9.1125000000000007</v>
       </c>
-      <c r="DX13" s="12" cm="1">
+      <c r="DX13" s="11" cm="1">
         <f t="array" ref="DX13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DX$2)*($B:$B=$J13))),"")</f>
         <v>10.573917748392695</v>
       </c>
-      <c r="DY13" s="12" t="str" cm="1">
+      <c r="DY13" s="11" t="str" cm="1">
         <f t="array" ref="DY13">IFERROR(AVERAGE(_xlfn._xlws.FILTER($C:$C,($F:$F=DY$2)*($B:$B=$J13))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="EB13">
+        <f>MAX(K13:DY13)</f>
+        <v>95.95076953791424</v>
+      </c>
+      <c r="EC13" t="str" cm="1">
+        <f t="array" ref="EC13">INDEX($K$2:$DY$2,0,MATCH(EB13,K13:DY13,0))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="EF13">
+        <f t="shared" si="1"/>
+        <v>5.2315665116313186</v>
+      </c>
+      <c r="EG13" t="str" cm="1">
+        <f t="array" ref="EG13">INDEX($K$2:$DY$2,0,MATCH($EF13,$K13:$DY13,0))</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="14" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>29766600</v>
       </c>
@@ -10107,7 +10345,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>34351776</v>
       </c>
@@ -10127,7 +10365,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>98024438</v>
       </c>
@@ -10147,7 +10385,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43805854</v>
       </c>
@@ -10167,7 +10405,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>62552867</v>
       </c>
@@ -10187,7 +10425,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>19806621</v>
       </c>
@@ -10207,7 +10445,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>29142387</v>
       </c>
@@ -10227,7 +10465,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>37794100</v>
       </c>
@@ -10246,8 +10484,11 @@
       <c r="F21" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>50110928</v>
       </c>
@@ -10266,8 +10507,14 @@
       <c r="F22" s="4" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I22" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>52884379</v>
       </c>
@@ -10286,8 +10533,14 @@
       <c r="F23" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>39361239</v>
       </c>
@@ -10306,8 +10559,15 @@
       <c r="F24" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I24" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J24" s="2">
+        <f>INDEX(K3:DY13,MATCH(J22,J3:J13,0),MATCH(J23,K2:DY2,0))</f>
+        <v>15.863820771891699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>12318549</v>
       </c>
@@ -10327,7 +10587,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>99488200</v>
       </c>
@@ -10347,7 +10607,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>51713174</v>
       </c>
@@ -10367,7 +10627,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>74128752</v>
       </c>
@@ -10386,8 +10646,11 @@
       <c r="F28" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>35978748</v>
       </c>
@@ -10406,8 +10669,14 @@
       <c r="F29" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I29" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28317516</v>
       </c>
@@ -10426,8 +10695,15 @@
       <c r="F30" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I30" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J30" s="2" t="str" cm="1">
+        <f t="array" ref="J30">INDEX(EC3:EC13,MATCH(J29,J3:J13,0),0)</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>40502602</v>
       </c>
@@ -10446,8 +10722,15 @@
       <c r="F31" s="4" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I31" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J31" s="11" cm="1">
+        <f t="array" ref="J31">INDEX(EB3:EB13, MATCH(J29,J3:J13,0),0)</f>
+        <v>94.2804814233386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>24420990</v>
       </c>
@@ -10467,7 +10750,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>63480678</v>
       </c>
@@ -10487,7 +10770,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44480380</v>
       </c>
@@ -10507,7 +10790,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>30114012</v>
       </c>
@@ -10526,8 +10809,13 @@
       <c r="F35" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>98237700</v>
       </c>
@@ -10544,8 +10832,13 @@
       <c r="F36" s="4" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>46536828</v>
       </c>
@@ -10564,8 +10857,13 @@
       <c r="F37" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>32835764</v>
       </c>
@@ -10584,8 +10882,13 @@
       <c r="F38" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>23008014</v>
       </c>
@@ -10604,8 +10907,12 @@
       <c r="F39" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>11813012</v>
       </c>
@@ -10624,8 +10931,9 @@
       <c r="F40" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>31462833</v>
       </c>
@@ -10644,8 +10952,9 @@
       <c r="F41" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>66876861</v>
       </c>
@@ -10665,7 +10974,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>38878237</v>
       </c>
@@ -10685,7 +10994,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>87611458</v>
       </c>
@@ -10705,7 +11014,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>78798288</v>
       </c>
@@ -10725,7 +11034,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>29608573</v>
       </c>
@@ -10745,7 +11054,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>87415151</v>
       </c>
@@ -10765,7 +11074,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>12854252</v>
       </c>
@@ -86393,6 +86702,14 @@
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22 J29 J36" xr:uid="{9B747949-504A-774D-80A6-6634D31A9D26}">
+      <formula1>$J$3:$J$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23" xr:uid="{C000EC41-0DB4-B141-B855-DA81C4255A85}">
+      <formula1>$K$2:$DY$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
